--- a/Mapping of services.xlsx
+++ b/Mapping of services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\amra-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29561E4F-438B-4D3F-A7BC-A839C7B689E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF2C93B-BF6D-43C2-86C0-D231EB0B9377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="16" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="11" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="14" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId19"/>
+    <pivotCache cacheId="36" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="513">
   <si>
     <t>Životna dob</t>
   </si>
@@ -2335,6 +2335,24 @@
   </si>
   <si>
     <t>Porodični život</t>
+  </si>
+  <si>
+    <t>Zakon o socijalnoj zaštiti; zaštiti civilnih žrtava rata i zaštiti porodice sa djecom</t>
+  </si>
+  <si>
+    <t>Zakon o profesionalnoj rehabilitaciji; osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</t>
+  </si>
+  <si>
+    <t>Radni vijek; treća životna dob</t>
+  </si>
+  <si>
+    <t>Novorođenče; predškolska dob; školska dob; radni vijek; treća životna dob</t>
+  </si>
+  <si>
+    <t>Predškolska dob; školska dob</t>
+  </si>
+  <si>
+    <t>Novorođenče; predškolska dob; školska dob</t>
   </si>
 </sst>
 </file>
@@ -3263,11 +3281,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3275,17 +3296,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3295,9 +3316,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9573,7 +9591,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2535653E-3F3D-41C5-B70A-E522D18EB692}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2535653E-3F3D-41C5-B70A-E522D18EB692}" name="PivotTable2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B180" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -11756,16 +11774,16 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="166" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11785,127 +11803,134 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="169"/>
+      <c r="D6" s="170"/>
     </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="170"/>
+      <c r="D7" s="171"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="162" t="e">
+      <c r="C8" s="163" t="e">
         <f>VLOOKUP(C7,All,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="163"/>
+      <c r="D8" s="164"/>
     </row>
     <row r="9" spans="1:21" ht="78" customHeight="1">
-      <c r="B9" s="160"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="168"/>
     </row>
     <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="166" t="e">
+      <c r="C10" s="160" t="e">
         <f>VLOOKUP($C$7,Usluge,6,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="167"/>
+      <c r="D10" s="161"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="166" t="e">
+      <c r="C11" s="160" t="e">
         <f>VLOOKUP($C$7,Usluge,7,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="167"/>
+      <c r="D11" s="161"/>
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="166" t="e">
+      <c r="C12" s="160" t="e">
         <f>VLOOKUP($C$7,Usluge,8,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="161"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="166" t="e">
+      <c r="C13" s="160" t="e">
         <f>VLOOKUP($C$7,Usluge,9,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="161"/>
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="166" t="e">
+      <c r="C14" s="160" t="e">
         <f>VLOOKUP($C$7,Usluge,10,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="161"/>
     </row>
     <row r="15" spans="1:21" ht="62.25" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="162" t="e">
+      <c r="C15" s="163" t="e">
         <f>VLOOKUP($C$7,Usluge,11,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="163"/>
+      <c r="D15" s="164"/>
     </row>
     <row r="16" spans="1:21" ht="126" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="162" t="e">
+      <c r="C16" s="163" t="e">
         <f>VLOOKUP($C$7,Usluge,12,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="163"/>
+      <c r="D16" s="164"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="166" t="e">
+      <c r="C17" s="160" t="e">
         <f>VLOOKUP($C$7,Usluge,13,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="161"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="171" t="e">
+      <c r="C18" s="162" t="e">
         <f>VLOOKUP($C$7,Usluge,15,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="171"/>
+      <c r="D18" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C12:D12"/>
@@ -11913,13 +11938,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11949,10 +11967,10 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12089,7 +12107,7 @@
         <v>99</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>373</v>
+        <v>509</v>
       </c>
       <c r="E3" s="115"/>
       <c r="F3" s="115" t="s">
@@ -12136,7 +12154,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="115" t="s">
-        <v>373</v>
+        <v>509</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115" t="s">
@@ -12185,7 +12203,7 @@
         <v>378</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E5" s="119" t="s">
         <v>380</v>
@@ -12336,7 +12354,7 @@
         <v>134</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E8" s="124" t="s">
         <v>380</v>
@@ -12389,7 +12407,7 @@
         <v>138</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E9" s="124" t="s">
         <v>380</v>
@@ -12442,7 +12460,7 @@
         <v>141</v>
       </c>
       <c r="D10" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E10" s="124" t="s">
         <v>380</v>
@@ -12495,7 +12513,7 @@
         <v>263</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>373</v>
+        <v>509</v>
       </c>
       <c r="E11" s="115" t="s">
         <v>380</v>
@@ -12542,7 +12560,7 @@
         <v>208</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>394</v>
+        <v>511</v>
       </c>
       <c r="E12" s="124" t="s">
         <v>395</v>
@@ -12595,7 +12613,7 @@
         <v>211</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>394</v>
+        <v>511</v>
       </c>
       <c r="E13" s="115" t="s">
         <v>398</v>
@@ -12646,7 +12664,7 @@
         <v>109</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>399</v>
+        <v>512</v>
       </c>
       <c r="E14" s="115" t="s">
         <v>398</v>
@@ -12740,7 +12758,7 @@
         <v>144</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E16" s="115" t="s">
         <v>380</v>
@@ -12944,7 +12962,7 @@
         <v>149</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E20" s="115" t="s">
         <v>380</v>
@@ -12995,7 +13013,7 @@
         <v>152</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E21" s="115" t="s">
         <v>380</v>
@@ -13046,7 +13064,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E22" s="115" t="s">
         <v>398</v>
@@ -13095,7 +13113,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E23" s="124" t="s">
         <v>380</v>
@@ -13148,7 +13166,7 @@
         <v>336</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E24" s="115"/>
       <c r="F24" s="115" t="s">
@@ -13195,7 +13213,7 @@
         <v>203</v>
       </c>
       <c r="D25" s="115" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="E25" s="124" t="s">
         <v>380</v>
@@ -13632,7 +13650,7 @@
     <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14379,7 +14397,7 @@
     <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14423,7 +14441,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="135" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="E2" s="135" t="s">
         <v>306</v>
@@ -14441,7 +14459,7 @@
         <v>440</v>
       </c>
       <c r="D3" s="135" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="E3" s="135" t="s">
         <v>197</v>
@@ -14478,14 +14496,14 @@
         <v>51</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="E5" s="135" t="s">
         <v>308</v>
       </c>
       <c r="F5" s="135"/>
     </row>
-    <row r="6" spans="1:6" ht="294">
+    <row r="6" spans="1:6" ht="304.5">
       <c r="A6" s="135" t="s">
         <v>48</v>
       </c>
@@ -14514,7 +14532,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="E7" s="135" t="s">
         <v>310</v>
@@ -14532,7 +14550,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="E8" s="135" t="s">
         <v>254</v>
@@ -16950,9 +16968,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25"/>
@@ -19679,7 +19697,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E13 E24:E26 E17:E18 E15" xr:uid="{8F6D427C-4D66-407D-B279-1FD094E3ED04}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -19787,7 +19805,7 @@
   <legacyDrawing r:id="rId98"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2522289A-6D68-4404-8C0A-891536904C5A}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$22</xm:f>
@@ -30083,7 +30101,7 @@
       </c>
       <c r="F16" s="158" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
-        <v>Zakon o profesionalnoj rehabilitaciji, osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</v>
+        <v>Zakon o profesionalnoj rehabilitaciji; osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</v>
       </c>
       <c r="G16" s="158"/>
       <c r="H16" s="159"/>

--- a/Mapping of services.xlsx
+++ b/Mapping of services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\amra-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF2C93B-BF6D-43C2-86C0-D231EB0B9377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094ED9C-6FBD-4F4D-A218-766FB9FD0FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="11" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="13" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="14" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId19"/>
+    <pivotCache cacheId="37" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -2058,9 +2058,6 @@
     <t>Zakon o socijalnoj zaštiti, zaštiti civilnih žrtava rata i zaštiti porodice sa djecom</t>
   </si>
   <si>
-    <t>Radni vijek, Treća životna dob</t>
-  </si>
-  <si>
     <t>Novorođenče; Predškolska dob; Školska dob; Radni vijek;</t>
   </si>
   <si>
@@ -2353,6 +2350,9 @@
   </si>
   <si>
     <t>Novorođenče; predškolska dob; školska dob</t>
+  </si>
+  <si>
+    <t>Novorođenče; Predškolska dob; Školska dob; Radni vijek</t>
   </si>
 </sst>
 </file>
@@ -3281,14 +3281,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3296,17 +3293,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3316,6 +3313,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9591,7 +9591,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2535653E-3F3D-41C5-B70A-E522D18EB692}" name="PivotTable2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2535653E-3F3D-41C5-B70A-E522D18EB692}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B180" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -11774,16 +11774,16 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11803,127 +11803,134 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="170"/>
+      <c r="D6" s="169"/>
     </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="171"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="163" t="e">
+      <c r="C8" s="162" t="e">
         <f>VLOOKUP(C7,All,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="164"/>
+      <c r="D8" s="163"/>
     </row>
     <row r="9" spans="1:21" ht="78" customHeight="1">
-      <c r="B9" s="165"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
     </row>
     <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="160" t="e">
+      <c r="C10" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,6,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="167"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="160" t="e">
+      <c r="C11" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,7,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="161"/>
+      <c r="D11" s="167"/>
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="160" t="e">
+      <c r="C12" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,8,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="161"/>
+      <c r="D12" s="167"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="160" t="e">
+      <c r="C13" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,9,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="161"/>
+      <c r="D13" s="167"/>
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="160" t="e">
+      <c r="C14" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,10,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="161"/>
+      <c r="D14" s="167"/>
     </row>
     <row r="15" spans="1:21" ht="62.25" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="163" t="e">
+      <c r="C15" s="162" t="e">
         <f>VLOOKUP($C$7,Usluge,11,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="164"/>
+      <c r="D15" s="163"/>
     </row>
     <row r="16" spans="1:21" ht="126" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="163" t="e">
+      <c r="C16" s="162" t="e">
         <f>VLOOKUP($C$7,Usluge,12,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="163"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="160" t="e">
+      <c r="C17" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,13,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="167"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="162" t="e">
+      <c r="C18" s="171" t="e">
         <f>VLOOKUP($C$7,Usluge,15,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="162"/>
+      <c r="D18" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C8:D9"/>
@@ -11931,13 +11938,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11967,8 +11967,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -12107,7 +12107,7 @@
         <v>99</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E3" s="115"/>
       <c r="F3" s="115" t="s">
@@ -12154,7 +12154,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="115" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115" t="s">
@@ -12203,7 +12203,7 @@
         <v>378</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E5" s="119" t="s">
         <v>380</v>
@@ -12354,7 +12354,7 @@
         <v>134</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E8" s="124" t="s">
         <v>380</v>
@@ -12407,7 +12407,7 @@
         <v>138</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E9" s="124" t="s">
         <v>380</v>
@@ -12460,7 +12460,7 @@
         <v>141</v>
       </c>
       <c r="D10" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E10" s="124" t="s">
         <v>380</v>
@@ -12513,7 +12513,7 @@
         <v>263</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E11" s="115" t="s">
         <v>380</v>
@@ -12560,7 +12560,7 @@
         <v>208</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E12" s="124" t="s">
         <v>395</v>
@@ -12613,7 +12613,7 @@
         <v>211</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E13" s="115" t="s">
         <v>398</v>
@@ -12664,7 +12664,7 @@
         <v>109</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E14" s="115" t="s">
         <v>398</v>
@@ -12758,7 +12758,7 @@
         <v>144</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E16" s="115" t="s">
         <v>380</v>
@@ -12962,7 +12962,7 @@
         <v>149</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E20" s="115" t="s">
         <v>380</v>
@@ -13013,7 +13013,7 @@
         <v>152</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E21" s="115" t="s">
         <v>380</v>
@@ -13064,7 +13064,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E22" s="115" t="s">
         <v>398</v>
@@ -13113,7 +13113,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E23" s="124" t="s">
         <v>380</v>
@@ -13166,7 +13166,7 @@
         <v>336</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E24" s="115"/>
       <c r="F24" s="115" t="s">
@@ -13213,7 +13213,7 @@
         <v>203</v>
       </c>
       <c r="D25" s="115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E25" s="124" t="s">
         <v>380</v>
@@ -13648,9 +13648,9 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14272,7 +14272,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="135" t="s">
-        <v>436</v>
+        <v>33</v>
       </c>
       <c r="E18" s="135" t="s">
         <v>419</v>
@@ -14394,10 +14394,10 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14441,14 +14441,14 @@
         <v>51</v>
       </c>
       <c r="D2" s="135" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E2" s="135" t="s">
         <v>306</v>
       </c>
       <c r="F2" s="86"/>
     </row>
-    <row r="3" spans="1:6" ht="189">
+    <row r="3" spans="1:6" ht="178.5">
       <c r="A3" s="135" t="s">
         <v>16</v>
       </c>
@@ -14456,10 +14456,10 @@
         <v>195</v>
       </c>
       <c r="C3" s="135" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="D3" s="135" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E3" s="135" t="s">
         <v>197</v>
@@ -14476,10 +14476,10 @@
         <v>165</v>
       </c>
       <c r="C4" s="135" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" s="135" t="s">
         <v>441</v>
-      </c>
-      <c r="D4" s="135" t="s">
-        <v>442</v>
       </c>
       <c r="E4" s="135" t="s">
         <v>166</v>
@@ -14496,7 +14496,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E5" s="135" t="s">
         <v>308</v>
@@ -14514,7 +14514,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="135" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E6" s="135" t="s">
         <v>252</v>
@@ -14532,7 +14532,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E7" s="135" t="s">
         <v>310</v>
@@ -14550,7 +14550,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E8" s="135" t="s">
         <v>254</v>
@@ -14568,7 +14568,7 @@
         <v>417</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E9" s="135" t="s">
         <v>200</v>
@@ -14586,7 +14586,7 @@
         <v>417</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E10" s="135" t="s">
         <v>202</v>
@@ -14645,27 +14645,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" t="s">
         <v>446</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>447</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>448</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>449</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>450</v>
-      </c>
-      <c r="F1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -14685,7 +14685,7 @@
     </row>
     <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -14700,15 +14700,15 @@
         <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
         <v>255</v>
@@ -14725,7 +14725,7 @@
     </row>
     <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -14745,7 +14745,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -14780,15 +14780,15 @@
         <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="87" t="s">
         <v>455</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>456</v>
       </c>
       <c r="C8" t="s">
         <v>190</v>
@@ -14800,12 +14800,12 @@
         <v>191</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -14817,15 +14817,15 @@
         <v>271</v>
       </c>
       <c r="F9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
         <v>378</v>
@@ -14837,12 +14837,12 @@
         <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -14862,10 +14862,10 @@
     </row>
     <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
@@ -14882,7 +14882,7 @@
     </row>
     <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -14922,7 +14922,7 @@
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -14942,7 +14942,7 @@
     </row>
     <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -14982,7 +14982,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
@@ -14997,12 +14997,12 @@
         <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -15022,7 +15022,7 @@
     </row>
     <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
@@ -15042,7 +15042,7 @@
     </row>
     <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -15062,7 +15062,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -15082,7 +15082,7 @@
     </row>
     <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" s="88" t="s">
         <v>28</v>
@@ -15102,10 +15102,10 @@
     </row>
     <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C24" t="s">
         <v>172</v>
@@ -15117,12 +15117,12 @@
         <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -15139,7 +15139,7 @@
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -15154,12 +15154,12 @@
         <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -15168,7 +15168,7 @@
         <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E27" t="s">
         <v>110</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -15196,7 +15196,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -15211,12 +15211,12 @@
         <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -15231,21 +15231,21 @@
         <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C31" t="s">
         <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E31" t="s">
         <v>110</v>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
@@ -15268,12 +15268,12 @@
         <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -15290,7 +15290,7 @@
     </row>
     <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -15327,7 +15327,7 @@
     </row>
     <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -15339,12 +15339,12 @@
         <v>427</v>
       </c>
       <c r="F36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
@@ -15359,12 +15359,12 @@
         <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -15384,10 +15384,10 @@
     </row>
     <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C39" t="s">
         <v>99</v>
@@ -15404,10 +15404,10 @@
     </row>
     <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C40" t="s">
         <v>270</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -15444,7 +15444,7 @@
     </row>
     <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -15464,7 +15464,7 @@
     </row>
     <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -15504,7 +15504,7 @@
     </row>
     <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
@@ -15519,15 +15519,15 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B46" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C46" t="s">
         <v>302</v>
@@ -15541,7 +15541,7 @@
     </row>
     <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -15561,7 +15561,7 @@
     </row>
     <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -15581,7 +15581,7 @@
     </row>
     <row r="49" spans="1:6" hidden="1">
       <c r="A49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B49" s="88" t="s">
         <v>27</v>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -15621,10 +15621,10 @@
     </row>
     <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C51" t="s">
         <v>159</v>
@@ -15636,12 +15636,12 @@
         <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -15656,18 +15656,18 @@
         <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B53" s="87" t="s">
+        <v>469</v>
+      </c>
+      <c r="C53" s="87" t="s">
         <v>470</v>
-      </c>
-      <c r="C53" s="87" t="s">
-        <v>471</v>
       </c>
       <c r="D53" t="s">
         <v>51</v>
@@ -15678,7 +15678,7 @@
     </row>
     <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B54" s="87" t="s">
         <v>12</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -15715,7 +15715,7 @@
     </row>
     <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -15732,7 +15732,7 @@
     </row>
     <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -15744,7 +15744,7 @@
         <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F57" t="s">
         <v>252</v>
@@ -15752,7 +15752,7 @@
     </row>
     <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -15769,7 +15769,7 @@
     </row>
     <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B59" t="s">
         <v>49</v>
@@ -15781,15 +15781,15 @@
         <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s">
         <v>36</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
@@ -15829,7 +15829,7 @@
     </row>
     <row r="62" spans="1:6" hidden="1">
       <c r="A62" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -15899,24 +15899,24 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" t="s">
         <v>446</v>
       </c>
-      <c r="B1" t="s">
-        <v>447</v>
-      </c>
       <c r="D1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" t="s">
         <v>450</v>
       </c>
-      <c r="E1" t="s">
-        <v>451</v>
-      </c>
       <c r="F1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="101" customFormat="1">
       <c r="A2" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2" s="101" t="s">
         <v>68</v>
@@ -15933,7 +15933,7 @@
     </row>
     <row r="3" spans="1:6" s="90" customFormat="1" hidden="1">
       <c r="A3" s="89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>38</v>
@@ -15942,7 +15942,7 @@
         <v>222</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F3" s="90" t="s">
         <v>51</v>
@@ -15950,10 +15950,10 @@
     </row>
     <row r="4" spans="1:6" s="101" customFormat="1">
       <c r="A4" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>110</v>
@@ -15976,7 +15976,7 @@
         <v>222</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F5" s="90" t="s">
         <v>436</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="6" spans="1:6" s="101" customFormat="1">
       <c r="A6" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B6" s="101" t="s">
         <v>69</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="7" spans="1:6" s="101" customFormat="1">
       <c r="A7" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B7" s="101" t="s">
         <v>62</v>
@@ -16010,7 +16010,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F7" s="101" t="s">
         <v>60</v>
@@ -16021,13 +16021,13 @@
         <v>98</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D8" s="98" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F8" s="98" t="s">
         <v>417</v>
@@ -16044,7 +16044,7 @@
         <v>271</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F9" s="94" t="s">
         <v>417</v>
@@ -16052,16 +16052,16 @@
     </row>
     <row r="10" spans="1:6" s="101" customFormat="1">
       <c r="A10" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D10" s="101" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F10" s="101" t="s">
         <v>379</v>
@@ -16069,7 +16069,7 @@
     </row>
     <row r="11" spans="1:6" s="106" customFormat="1">
       <c r="A11" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B11" s="106" t="s">
         <v>42</v>
@@ -16086,10 +16086,10 @@
     </row>
     <row r="12" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A12" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D12" s="101" t="s">
         <v>110</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="13" spans="1:6" s="101" customFormat="1">
       <c r="A13" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B13" s="101" t="s">
         <v>17</v>
@@ -16120,7 +16120,7 @@
     </row>
     <row r="14" spans="1:6" s="101" customFormat="1">
       <c r="A14" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B14" s="101" t="s">
         <v>20</v>
@@ -16137,7 +16137,7 @@
     </row>
     <row r="15" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A15" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>53</v>
@@ -16154,7 +16154,7 @@
     </row>
     <row r="16" spans="1:6" s="101" customFormat="1">
       <c r="A16" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B16" s="101" t="s">
         <v>21</v>
@@ -16171,7 +16171,7 @@
     </row>
     <row r="17" spans="1:6" s="101" customFormat="1">
       <c r="A17" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B17" s="101" t="s">
         <v>63</v>
@@ -16188,7 +16188,7 @@
     </row>
     <row r="18" spans="1:6" s="101" customFormat="1">
       <c r="A18" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B18" s="101" t="s">
         <v>63</v>
@@ -16197,7 +16197,7 @@
         <v>110</v>
       </c>
       <c r="E18" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F18" s="101" t="s">
         <v>60</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="19" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A19" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B19" s="101" t="s">
         <v>46</v>
@@ -16222,7 +16222,7 @@
     </row>
     <row r="20" spans="1:6" s="90" customFormat="1" hidden="1">
       <c r="A20" s="89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B20" s="90" t="s">
         <v>47</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="21" spans="1:6" s="101" customFormat="1">
       <c r="A21" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B21" s="101" t="s">
         <v>25</v>
@@ -16256,7 +16256,7 @@
     </row>
     <row r="22" spans="1:6" s="101" customFormat="1">
       <c r="A22" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B22" s="101" t="s">
         <v>64</v>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="23" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A23" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B23" s="101" t="s">
         <v>28</v>
@@ -16293,13 +16293,13 @@
         <v>98</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D24" s="101" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F24" s="101" t="s">
         <v>417</v>
@@ -16333,7 +16333,7 @@
         <v>110</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F26" s="101" t="s">
         <v>421</v>
@@ -16350,12 +16350,12 @@
         <v>110</v>
       </c>
       <c r="F27" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="101" customFormat="1">
       <c r="A28" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B28" s="101" t="s">
         <v>65</v>
@@ -16372,7 +16372,7 @@
     </row>
     <row r="29" spans="1:6" s="101" customFormat="1">
       <c r="A29" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B29" s="101" t="s">
         <v>66</v>
@@ -16381,7 +16381,7 @@
         <v>110</v>
       </c>
       <c r="E29" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>60</v>
@@ -16389,7 +16389,7 @@
     </row>
     <row r="30" spans="1:6" s="101" customFormat="1">
       <c r="A30" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B30" s="101" t="s">
         <v>67</v>
@@ -16398,7 +16398,7 @@
         <v>110</v>
       </c>
       <c r="E30" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F30" s="101" t="s">
         <v>60</v>
@@ -16409,18 +16409,18 @@
         <v>167</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D31" s="101" t="s">
         <v>110</v>
       </c>
       <c r="F31" s="101" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="106" customFormat="1">
       <c r="A32" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B32" s="106" t="s">
         <v>70</v>
@@ -16429,7 +16429,7 @@
         <v>88</v>
       </c>
       <c r="E32" s="106" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F32" s="106" t="s">
         <v>60</v>
@@ -16460,7 +16460,7 @@
         <v>222</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F34" s="90" t="s">
         <v>51</v>
@@ -16491,7 +16491,7 @@
         <v>427</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="101" customFormat="1">
@@ -16505,7 +16505,7 @@
         <v>110</v>
       </c>
       <c r="E37" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>60</v>
@@ -16530,10 +16530,10 @@
     </row>
     <row r="39" spans="1:6" s="101" customFormat="1">
       <c r="A39" s="100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B39" s="102" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D39" s="101" t="s">
         <v>110</v>
@@ -16550,7 +16550,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="95" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D40" s="94" t="s">
         <v>271</v>
@@ -16564,7 +16564,7 @@
     </row>
     <row r="41" spans="1:6" s="106" customFormat="1">
       <c r="A41" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B41" s="106" t="s">
         <v>8</v>
@@ -16581,7 +16581,7 @@
     </row>
     <row r="42" spans="1:6" s="106" customFormat="1">
       <c r="A42" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B42" s="106" t="s">
         <v>9</v>
@@ -16598,7 +16598,7 @@
     </row>
     <row r="43" spans="1:6" s="106" customFormat="1">
       <c r="A43" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B43" s="106" t="s">
         <v>10</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="44" spans="1:6" s="106" customFormat="1" hidden="1">
       <c r="A44" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B44" s="106" t="s">
         <v>34</v>
@@ -16632,7 +16632,7 @@
     </row>
     <row r="45" spans="1:6" s="106" customFormat="1" hidden="1">
       <c r="A45" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B45" s="106" t="s">
         <v>35</v>
@@ -16641,7 +16641,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="106" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F45" s="106" t="s">
         <v>394</v>
@@ -16652,13 +16652,13 @@
         <v>98</v>
       </c>
       <c r="B46" s="92" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D46" s="90" t="s">
         <v>222</v>
       </c>
       <c r="E46" s="92" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F46" s="90" t="s">
         <v>51</v>
@@ -16675,7 +16675,7 @@
         <v>222</v>
       </c>
       <c r="E47" s="92" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F47" s="90" t="s">
         <v>51</v>
@@ -16683,7 +16683,7 @@
     </row>
     <row r="48" spans="1:6" s="106" customFormat="1">
       <c r="A48" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B48" s="106" t="s">
         <v>26</v>
@@ -16700,7 +16700,7 @@
     </row>
     <row r="49" spans="1:6" s="106" customFormat="1">
       <c r="A49" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B49" s="106" t="s">
         <v>27</v>
@@ -16737,13 +16737,13 @@
         <v>98</v>
       </c>
       <c r="B51" s="108" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D51" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="106" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F51" s="106" t="s">
         <v>421</v>
@@ -16760,7 +16760,7 @@
         <v>88</v>
       </c>
       <c r="E52" s="106" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F52" s="106" t="s">
         <v>417</v>
@@ -16771,7 +16771,7 @@
         <v>167</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D53" s="101" t="s">
         <v>110</v>
@@ -16870,7 +16870,7 @@
         <v>199</v>
       </c>
       <c r="E59" s="98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F59" s="98" t="s">
         <v>40</v>
@@ -17077,7 +17077,7 @@
         <v>316</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>318</v>
@@ -17085,7 +17085,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q2" s="41"/>
     </row>
@@ -17106,7 +17106,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>102</v>
@@ -17124,7 +17124,7 @@
         <v>106</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>108</v>
@@ -17132,7 +17132,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q3" s="41"/>
     </row>
@@ -17172,7 +17172,7 @@
         <v>260</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>262</v>
@@ -17181,7 +17181,7 @@
         <v>258</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="41"/>
     </row>
@@ -17223,7 +17223,7 @@
         <v>130</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>132</v>
@@ -17232,7 +17232,7 @@
         <v>133</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q5" s="41"/>
     </row>
@@ -17271,7 +17271,7 @@
         <v>321</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q6" s="41"/>
     </row>
@@ -17286,7 +17286,7 @@
         <v>322</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>110</v>
@@ -17320,7 +17320,7 @@
         <v>328</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q7" s="41"/>
     </row>
@@ -17371,7 +17371,7 @@
         <v>95</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="41"/>
     </row>
@@ -17422,7 +17422,7 @@
         <v>95</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q9" s="41"/>
     </row>
@@ -17473,7 +17473,7 @@
         <v>95</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="41"/>
     </row>
@@ -17520,7 +17520,7 @@
       </c>
       <c r="O11" s="20"/>
       <c r="P11" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q11" s="41"/>
     </row>
@@ -17571,7 +17571,7 @@
         <v>95</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q12" s="47"/>
     </row>
@@ -17622,7 +17622,7 @@
         <v>220</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q13" s="47"/>
     </row>
@@ -17669,7 +17669,7 @@
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q14" s="41"/>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q15" s="41"/>
     </row>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="O16" s="20"/>
       <c r="P16" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="47"/>
     </row>
@@ -17814,7 +17814,7 @@
       </c>
       <c r="O17" s="20"/>
       <c r="P17" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q17" s="41"/>
     </row>
@@ -17865,7 +17865,7 @@
         <v>328</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q18" s="51"/>
     </row>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="41"/>
     </row>
@@ -17963,7 +17963,7 @@
         <v>250</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q20" s="41"/>
     </row>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="O21" s="20"/>
       <c r="P21" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q21" s="41"/>
     </row>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q22" s="41"/>
     </row>
@@ -18110,7 +18110,7 @@
       </c>
       <c r="O23" s="20"/>
       <c r="P23" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q23" s="47"/>
     </row>
@@ -18161,7 +18161,7 @@
         <v>95</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="54"/>
     </row>
@@ -18197,20 +18197,20 @@
         <v>315</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L25" s="19" t="s">
         <v>405</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19" t="s">
         <v>340</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="56"/>
     </row>
@@ -18228,7 +18228,7 @@
         <v>88</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>204</v>
@@ -18261,7 +18261,7 @@
         <v>95</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="47"/>
     </row>
@@ -18282,7 +18282,7 @@
         <v>110</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>119</v>
@@ -18301,12 +18301,12 @@
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q27" s="47"/>
     </row>
@@ -18342,10 +18342,10 @@
         <v>315</v>
       </c>
       <c r="K28" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="L28" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>488</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>344</v>
@@ -18355,7 +18355,7 @@
         <v>345</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="47"/>
     </row>
@@ -18404,7 +18404,7 @@
         <v>328</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="47"/>
     </row>
@@ -18453,7 +18453,7 @@
         <v>328</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="47"/>
     </row>
@@ -18495,14 +18495,14 @@
         <v>227</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N31" s="44" t="s">
         <v>229</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q31" s="47"/>
     </row>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q32" s="47"/>
     </row>
@@ -18600,7 +18600,7 @@
       </c>
       <c r="O33" s="21"/>
       <c r="P33" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q33" s="47"/>
     </row>
@@ -18621,27 +18621,27 @@
         <v>88</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="L34" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="M34" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>492</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="20" t="s">
         <v>354</v>
       </c>
       <c r="P34" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q34" s="47"/>
     </row>
@@ -18680,7 +18680,7 @@
       <c r="N35" s="44"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q35" s="47"/>
     </row>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="O36" s="60"/>
       <c r="P36" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q36" s="47"/>
     </row>
@@ -18762,7 +18762,7 @@
       <c r="N37" s="44"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q37" s="47"/>
     </row>
@@ -18780,7 +18780,7 @@
         <v>417</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>173</v>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="O38" s="60"/>
       <c r="P38" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q38" s="47"/>
     </row>
@@ -18829,7 +18829,7 @@
         <v>60</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>173</v>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="O39" s="60"/>
       <c r="P39" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q39" s="47"/>
     </row>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="O40" s="60"/>
       <c r="P40" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q40" s="47"/>
     </row>
@@ -18942,7 +18942,7 @@
       <c r="N41" s="44"/>
       <c r="O41" s="60"/>
       <c r="P41" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q41" s="47"/>
     </row>
@@ -18960,7 +18960,7 @@
         <v>428</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>272</v>
@@ -18979,7 +18979,7 @@
       <c r="N42" s="44"/>
       <c r="O42" s="60"/>
       <c r="P42" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q42" s="47"/>
     </row>
@@ -19012,7 +19012,7 @@
       <c r="N43" s="44"/>
       <c r="O43" s="60"/>
       <c r="P43" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q43" s="47"/>
     </row>
@@ -19049,7 +19049,7 @@
       <c r="N44" s="44"/>
       <c r="O44" s="60"/>
       <c r="P44" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q44" s="47"/>
     </row>
@@ -19086,7 +19086,7 @@
       <c r="N45" s="44"/>
       <c r="O45" s="60"/>
       <c r="P45" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q45" s="47"/>
     </row>
@@ -19115,7 +19115,7 @@
       <c r="N46" s="44"/>
       <c r="O46" s="60"/>
       <c r="P46" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q46" s="47"/>
     </row>
@@ -19142,7 +19142,7 @@
       <c r="N47" s="44"/>
       <c r="O47" s="60"/>
       <c r="P47" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q47" s="47"/>
     </row>
@@ -19173,7 +19173,7 @@
       <c r="N48" s="60"/>
       <c r="O48" s="60"/>
       <c r="P48" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q48" s="47"/>
     </row>
@@ -19222,7 +19222,7 @@
       </c>
       <c r="O49" s="60"/>
       <c r="P49" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q49" s="47"/>
     </row>
@@ -19251,7 +19251,7 @@
       <c r="N50" s="44"/>
       <c r="O50" s="60"/>
       <c r="P50" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q50" s="47"/>
     </row>
@@ -19294,7 +19294,7 @@
       </c>
       <c r="O51" s="60"/>
       <c r="P51" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q51" s="47"/>
     </row>
@@ -19327,7 +19327,7 @@
       <c r="N52" s="60"/>
       <c r="O52" s="60"/>
       <c r="P52" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q52" s="47"/>
     </row>
@@ -19362,7 +19362,7 @@
       <c r="N53" s="44"/>
       <c r="O53" s="60"/>
       <c r="P53" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q53" s="47"/>
     </row>
@@ -19395,7 +19395,7 @@
       <c r="N54" s="44"/>
       <c r="O54" s="60"/>
       <c r="P54" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="74.099999999999994" customHeight="1">
@@ -19425,7 +19425,7 @@
       <c r="N55" s="60"/>
       <c r="O55" s="60"/>
       <c r="P55" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="102.6" customHeight="1">
@@ -19457,7 +19457,7 @@
       <c r="N56" s="60"/>
       <c r="O56" s="60"/>
       <c r="P56" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="66.95" customHeight="1">
@@ -19471,7 +19471,7 @@
         <v>165</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E57" s="60"/>
       <c r="F57" s="60"/>
@@ -19487,7 +19487,7 @@
       <c r="N57" s="60"/>
       <c r="O57" s="60"/>
       <c r="P57" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="69.599999999999994" customHeight="1">
@@ -19517,7 +19517,7 @@
       <c r="N58" s="60"/>
       <c r="O58" s="60"/>
       <c r="P58" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="93" customHeight="1">
@@ -19547,7 +19547,7 @@
       <c r="N59" s="60"/>
       <c r="O59" s="60"/>
       <c r="P59" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="83.1" customHeight="1">
@@ -19577,7 +19577,7 @@
       <c r="N60" s="60"/>
       <c r="O60" s="60"/>
       <c r="P60" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="66.95" customHeight="1">
@@ -19607,7 +19607,7 @@
       <c r="N61" s="60"/>
       <c r="O61" s="60"/>
       <c r="P61" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="77.099999999999994" customHeight="1">
@@ -19637,7 +19637,7 @@
       <c r="N62" s="60"/>
       <c r="O62" s="60"/>
       <c r="P62" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="99.6" customHeight="1">
@@ -19667,7 +19667,7 @@
       <c r="N63" s="60"/>
       <c r="O63" s="60"/>
       <c r="P63" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="72" customHeight="1">
@@ -19693,7 +19693,7 @@
       <c r="N64" s="60"/>
       <c r="O64" s="60"/>
       <c r="P64" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -19837,13 +19837,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>51</v>
@@ -19869,7 +19869,7 @@
         <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -19895,10 +19895,10 @@
     </row>
     <row r="3" spans="1:9" ht="63">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
         <v>222</v>
@@ -19924,10 +19924,10 @@
     </row>
     <row r="4" spans="1:9" ht="115.5">
       <c r="A4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" t="s">
         <v>504</v>
-      </c>
-      <c r="B4" t="s">
-        <v>505</v>
       </c>
       <c r="C4" t="s">
         <v>186</v>
@@ -19999,7 +19999,7 @@
     </row>
     <row r="7" spans="1:9" ht="94.5">
       <c r="C7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>

--- a/Mapping of services.xlsx
+++ b/Mapping of services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\amra-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c4b80eda687d6f6/2023_New Care_Elderly and PwD/3_phase Flowchart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094ED9C-6FBD-4F4D-A218-766FB9FD0FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4A42EE-346C-434E-A952-350CDFCB88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="13" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="11" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="14" state="hidden" r:id="rId1"/>
@@ -24,19 +24,19 @@
     <sheet name="4" sheetId="11" r:id="rId9"/>
     <sheet name="5" sheetId="12" r:id="rId10"/>
     <sheet name="Dashboard" sheetId="3" state="hidden" r:id="rId11"/>
-    <sheet name="Administrativni postupci" sheetId="1" r:id="rId12"/>
-    <sheet name="Diskrecione usluge" sheetId="5" r:id="rId13"/>
-    <sheet name="Neinstitucionalizirana prava" sheetId="13" r:id="rId14"/>
+    <sheet name="Neinstitucionalizirana prava" sheetId="13" r:id="rId12"/>
+    <sheet name="Administrativni postupci" sheetId="1" r:id="rId13"/>
+    <sheet name="Diskrecione usluge" sheetId="5" r:id="rId14"/>
     <sheet name="RASPORED ZA INFOGRAFIKU" sheetId="19" r:id="rId15"/>
     <sheet name="INFOGRAF" sheetId="23" r:id="rId16"/>
-    <sheet name="All" sheetId="15" r:id="rId17"/>
+    <sheet name="All" sheetId="15" state="hidden" r:id="rId17"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Administrativni postupci'!$A$1:$Q$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Administrativni postupci'!$A$1:$Q$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">All!$A$1:$P$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'All (2)'!$A$1:$P$175</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Diskrecione usluge'!$O$1:$O$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Diskrecione usluge'!$O$1:$O$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">INFOGRAF!$D$1:$F$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'RASPORED ZA INFOGRAFIKU'!$A$1:$F$62</definedName>
     <definedName name="All">All!$B$35:$P$54</definedName>
@@ -52,7 +52,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId19"/>
+    <pivotCache cacheId="358" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="519">
   <si>
     <t>Životna dob</t>
   </si>
@@ -1684,24 +1684,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
       <t xml:space="preserve">Prvi korak u slučaju sumnje na određeni stupanj invaliditeta podrazumijeva </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="13.5"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>postavljanje dijagnoze i medicinsko vještačenje</t>
     </r>
     <r>
       <rPr>
         <sz val="13.5"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>. Dijagnoza se postavlja u suradnji s liječnicima i specijalistima, nakon čega je potrebno zakazati medicinsko vještačenje u odgovarajućem zdravstvenom institutu ili bolnici. Proces dijagnosticiranja može se sažeti kroz sljedeće korake:</t>
     </r>
@@ -1729,6 +1732,65 @@
   </si>
   <si>
     <t>Ministarstvo/organizacija</t>
+  </si>
+  <si>
+    <t>Pojašnjenje (Član)</t>
+  </si>
+  <si>
+    <t>Zakon o socijalnoj zaštiti, zaštiti civilnih žrtava rata i zaštiti porodice sa djecom</t>
+  </si>
+  <si>
+    <t>Radni vijek; Treća životna dob</t>
+  </si>
+  <si>
+    <t>Novorođenče; Predškolska dob; Školska dob; Radni vijek;</t>
+  </si>
+  <si>
+    <t>Zakon o penzijskom i invalidskom osiguranju</t>
+  </si>
+  <si>
+    <t>Zakon o radu Federacije BiH</t>
+  </si>
+  <si>
+    <t>Zakon o profesionalnoj rehabilitaciji, osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Član 15.
+Osobe s invaliditetom upošljavaju se i rade na tržištu rada pod opdim i posebnim uvjetima.
+Pod općim uvjetima upošljavaju se osobe s invaliditetom na otvorenome tržištu rada, u državnim tijelima, tijelima
+pravosuđa, tijelima lokalne uprave, javnim službama, ustanovama, fondovima, javnim poduzećima, gospodarskim društvima i drugim pravnim osobama koje nisu osnovane za upošljavanje osoba s invaliditetom, sukladno zakonu.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prednost pri upošljavanju u subjektima iz stavka 2. ovoga članka u okviru javnoga sektora imaju osobe s invaliditetom ako, pored općih, ispunjavaju i posebne uvjete za radno mjesto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+Pod posebnim uvjetima upošljavaju se osobe s invaliditetom u ustanovi ili gospodarskom društvu što su osnovani radi upošljavanja osoba s invaliditetom.</t>
+    </r>
+  </si>
+  <si>
+    <t>Novorođenče; Predškolska dob; Školska dob; Radni vijek</t>
+  </si>
+  <si>
+    <t>Zakon o roditeljima njegovateljima u Federaciji Bosne i Hercegovine</t>
+  </si>
+  <si>
+    <t>Novorođenče; Predškolska dob; Školska dob; Radni vijek; Treća životna dob</t>
   </si>
   <si>
     <t>Godine</t>
@@ -1753,7 +1815,7 @@
     <t>6 mjeseci</t>
   </si>
   <si>
-    <t>Radni vijek, treća životna dob</t>
+    <t>Radni vijek; treća životna dob</t>
   </si>
   <si>
     <t xml:space="preserve">Državljanstvo Bosne i Hercegovine;Potreba za tuđom njegom i pomoći civilne žrtve rata utvrđuje se na osnovu nalaza i mišljenja nadležne ljekarske komisije određene propisom ministra Federalnog ministarstva rada i socijalne politike.
@@ -1779,7 +1841,7 @@
     <t>Samo za osobe za prebivalištem u Općini Novo Sarajevo, Sarajevo</t>
   </si>
   <si>
-    <t>Novorođenče, predškolska dob, školska dob, radni vijek, treća životna dob</t>
+    <t>Novorođenče; predškolska dob; školska dob; radni vijek; treća životna dob</t>
   </si>
   <si>
     <t>Svi</t>
@@ -1821,19 +1883,80 @@
     <t>Penzioner ili lice starije od 60. godina bez primanja</t>
   </si>
   <si>
+    <t>Posebni programi za osobe oboljele od teških i rijetkih bolesti (npr. enteralna prehrana za djecu i odrasle, bezglutensko brašno za osobe oboljele od celijakije)</t>
+  </si>
+  <si>
+    <t>Pravo na liječenje rijetkih i teških oboljenja po posebnim protokolima (reumatoidini artritis, juvenilni idiopatski artritis, enteralna prehrana, bezglutensko brašno za oboljele od celijaklije): 1.	Lijekovi za oboljele od plućne arterijske hipertenzije
+2.	Lijekovi za palijativnu njegu
+3.	Lijekovi za liječenje tuberkuloznih pacijenata nakon bolničkog liječenja
+4.	Biološka terapija za oboljele od juvenilnog idiopatskog artritisa i plak psorijaze kod djece
+5.	Biološka terapija za oboljele od reumatoidnog artritisa
+6.	Lijekovi za oboljele od cistične fibroze
+7.	Lijekovi za oboljele od akromegalije
+8.	Enteralna prehrana za djecu i odrasle
+9.	Lijekovi (hormonalna terapija) za lica sa utvrđenom apsolutnom deficijencijom hormona rasta
+10.	Bezglutensko brašno za oboljele od celijaklije</t>
+  </si>
+  <si>
     <t xml:space="preserve">Osigurano lice, nakon što mu ovlašteni ljekar popuni prijedlog za medicinsku rehabilitaciju, u poslovnicu Zavoda predaje: prijedlog za medicinsku rehabilitaciju, kopiju zdravstvene knjižice, kopiju medicinske dokumentacije. </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kzzosa.ba/wp-content/uploads/2023/08/Procedura-o-utvrdjivanju-prava-osiguranih-osoba-na-medicinsku-rehabilitaciju-11_2022.pdf </t>
   </si>
   <si>
+    <t>Medicinska sredstva - ortopedska pomagala (npr. invalidska kolica, pelene, GPS narukvice za djecu, perike od prirodne kose za djecu, senzori, inzulinske pumpice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pravo na medicinska sredstva/ortopedska pomagala za osiguranike u Kantonu Sarajevo: Lista medicinskih sredstava/ortopedskih pomagala na koje, na preporuku nadležnog ljekara, osiguranici Kantona Sarajevo, ostvaruju pravo u okviru obaveznog zdravstvenog osiguranja:
+A - Ortopedska medicinska sredstva:
+1) protetička sredstva (proteze);
+2) ortotička sredstva (ortoze);
+3) ortopedske cipele i ortopedski ulošci;
+4) invalidska kolica;
+5) pomoćna medicinskog sredstva za olakšavanje kretanja;
+6) antidekubitalni dušek;
+7) sanitarna medicinska sredstva;
+B - Očna i tiflotehnička medicinska sredstva:
+1) očna medicinska sredstva;
+2) tiflotehnička medicinska sredstva;
+C - Slušna medicinska sredstva i medicinska sredstva za omogućavanje glasnog govora:
+1) slušna medicinska sredstva;
+2) medicinska sredstva za omogućavanje glasnog govora;
+D - Stomatološka medicinska sredstva
+1) Parcijalna proteza
+2) Totalna proteza
+3) Pokretni ortodontski aparat
+4) Fiksni ortodontski apparat
+E - Ostala medicinska sredstva:
+1) medicinska sredstva za disanje;
+2) vještačka dojka i grudnjak;
+3) medicinska sredstva za gastrointestinalni i urogenitalni sistem;
+4) pelene i anatomski ulošci;
+5) medicinska sredstva kod šećerne bolesti (trakice za šećer, senzori za kontinuirano mjerenje šećera u krvi, inzulinska pumpa);
+6) zavojni materijali;
+7) kompresivni materijali koji se koriste kod limfedema;
+8) GPS narukvica za djecu;
+9) Perika od prirodne kose za djecu;
+F - Medicinska sredstva koja se koriste pri operativnim zahvatima u bolničkim zdravstvenim ustanovama:
+1) endoproteze zglobova;
+2) vaskularne endoproteze;
+3) elektrostimulator srca sa pripadajućom elektrodom
+4) stapleri i mrežice;
+5) proteze dojke i ekspander;
+6) intraokularne leće.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Osigurano lice, nakon što mu ovlašteni ljekar popuni obrazac za medicinsko sredstvo, u poslovnicu Zavoda predaje: obrazac o preporuci medicinskog sredstva, kopiju zdravstvene knjižice, kopiju medicinske dokumentacije. </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kzzosa.ba/wp-content/uploads/2023/08/Uputstvo-o-nacinu-i-postupku-ostvarivanja-prava-na-koristenje-medicinskih-sredstava-u-ZZO-KS-11_22.pdf </t>
   </si>
   <si>
-    <t>Predškolska dob, školska dob</t>
+    <t xml:space="preserve">ZA OVAJ POSTUPAK DODATI ISKOPIRANO SVE: </t>
+  </si>
+  <si>
+    <t>Novorođenče; Predškolska dob; školska dob</t>
   </si>
   <si>
     <t>Djeca i mladi</t>
@@ -1845,13 +1968,19 @@
     <t xml:space="preserve">https://www.kzzosa.ba/wp-content/uploads/2023/08/POSLOVNIK-O-RADU-KOMISIJE-ZA-TESKO-OBOLJELU-DJECU-SA-KS-IZVAN-KS.pdf </t>
   </si>
   <si>
+    <t>Predškolska dob; školska dob</t>
+  </si>
+  <si>
     <t>Djeca</t>
   </si>
   <si>
-    <t>Novorođenče, predškolska dob, školska dob</t>
+    <t>Novorođenče; predškolska dob; školska dob</t>
   </si>
   <si>
     <t>Kantonalni centar za socijalni rad - preko općinskih službi (općina prema mjestu prebivališta)</t>
+  </si>
+  <si>
+    <t>Novorođenče; predškolska dob; školska dob; radni vijek</t>
   </si>
   <si>
     <t xml:space="preserve">Pravilnik o načinu ostvarivanja prava iz obaveznog zdravstvenog osiguranja ("Sl.novine FBiH" br 31/02 i 20/19) i odluke ZZOKS; Pravilnik o priznavanju troškova skupih covid lijekova i lijekova koji nisu obuhvaćeni Listom lijekova Kantona Sarajevo </t>
@@ -1985,9 +2114,6 @@
     <t>Pravni okvir</t>
   </si>
   <si>
-    <t>Novorođenče; Predškolska dob; Školska dob; Radni vijek; Treća životna dob</t>
-  </si>
-  <si>
     <t>PWD</t>
   </si>
   <si>
@@ -2052,27 +2178,6 @@
     <t>PwD</t>
   </si>
   <si>
-    <t>Pojašnjenje (Član)</t>
-  </si>
-  <si>
-    <t>Zakon o socijalnoj zaštiti, zaštiti civilnih žrtava rata i zaštiti porodice sa djecom</t>
-  </si>
-  <si>
-    <t>Novorođenče; Predškolska dob; Školska dob; Radni vijek;</t>
-  </si>
-  <si>
-    <t>Zakon o penzijskom i invalidskom osiguranju</t>
-  </si>
-  <si>
-    <t>Zakon o radu Federacije BiH</t>
-  </si>
-  <si>
-    <t>Zakon o profesionalnoj rehabilitaciji, osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</t>
-  </si>
-  <si>
-    <t>Zakon o roditeljima njegovateljima u Federaciji Bosne i Hercegovine</t>
-  </si>
-  <si>
     <t>KATEGORJA</t>
   </si>
   <si>
@@ -2100,55 +2205,64 @@
     <t>Izdavanje međunarodnog znaka pristupačnosti za obilježvanje vozila</t>
   </si>
   <si>
+    <t>Radni vijek, treća životna dob</t>
+  </si>
+  <si>
     <t>DISKRECIONE</t>
   </si>
   <si>
+    <t>Novorođenče, predškolska dob, školska dob</t>
+  </si>
+  <si>
+    <t>Ocjenjivanje sposobnosti djece</t>
+  </si>
+  <si>
+    <t>Novorođenče, predškolska dob, školska dob, radni vijek, treća životna dob</t>
+  </si>
+  <si>
+    <t>Usluge centara za prevenciju (logopedi, defektolozi)</t>
+  </si>
+  <si>
+    <t>Nadležni dom zdravlja</t>
+  </si>
+  <si>
+    <t>Jednokratna novčana pomoć</t>
+  </si>
+  <si>
+    <t>NEINSTITUCIONALIZIRANA</t>
+  </si>
+  <si>
+    <t>Predškolska dob, školska dob</t>
+  </si>
+  <si>
+    <t>RTV BIH</t>
+  </si>
+  <si>
     <t>Umanjenje poreza na dohodak za zaposlene po osnovu invaliditeta djeteta</t>
   </si>
   <si>
     <t>Poreska uprava općine prema mjestu boravka</t>
   </si>
   <si>
+    <t>Dodatak za njegu i pomoć od strane drugog lica za civilne žrtve rata</t>
+  </si>
+  <si>
+    <t>Oslobađanje plaćanja uvoznih dadžbina, carine i PDV-a prilikom uvoza automobila</t>
+  </si>
+  <si>
+    <t>Pravo na druge primjerene oblike pomoći djeci u predškolskim ustanovama, redovnim osnovnim i srednjim školama i ustanovama osnovnoškolskog i srednjoškolskog odgoja obrazovanja i rehabilitacije za učenike sa teškoćama (ustanove): program edukacijsko rehabilitacijskih tretmana, program produženog stručnog postupka, rehabilitacijski programi</t>
+  </si>
+  <si>
+    <t>Pravo na dnevni boravak u posebnim ustanovama ili smještaj u domovima toko obrazovanja</t>
+  </si>
+  <si>
+    <t>Djeca i odrasle osobe koji su uključeni u specijalno školovanje imaju pravo na dnevni boravak u posebnim ustanovama ili smještaj u internatskim ustanovama ako to preporuči Stručna komisija ili Stručna institucija. Potpuno pokrića troškova dnevnog boravka od strane Centra</t>
+  </si>
+  <si>
     <t>Željeznice FBiH</t>
   </si>
   <si>
-    <t>Jednokratna novčana pomoć</t>
-  </si>
-  <si>
-    <t>Ocjenjivanje sposobnosti djece</t>
-  </si>
-  <si>
-    <t>NEINSTITUCIONALIZIRANA</t>
-  </si>
-  <si>
-    <t>Radni vijek; Treća životna dob</t>
-  </si>
-  <si>
     <t>Pravo na penziju roditelja u slučaju smrti</t>
-  </si>
-  <si>
-    <t>RTV BIH</t>
-  </si>
-  <si>
-    <t>Dodatak za njegu i pomoć od strane drugog lica za civilne žrtve rata</t>
-  </si>
-  <si>
-    <t>Oslobađanje plaćanja uvoznih dadžbina, carine i PDV-a prilikom uvoza automobila</t>
-  </si>
-  <si>
-    <t>Pravo na druge primjerene oblike pomoći djeci u predškolskim ustanovama, redovnim osnovnim i srednjim školama i ustanovama osnovnoškolskog i srednjoškolskog odgoja obrazovanja i rehabilitacije za učenike sa teškoćama (ustanove): program edukacijsko rehabilitacijskih tretmana, program produženog stručnog postupka, rehabilitacijski programi</t>
-  </si>
-  <si>
-    <t>Usluge centara za prevenciju (logopedi, defektolozi)</t>
-  </si>
-  <si>
-    <t>Nadležni dom zdravlja</t>
-  </si>
-  <si>
-    <t>Pravo na dnevni boravak u posebnim ustanovama ili smještaj u domovima toko obrazovanja</t>
-  </si>
-  <si>
-    <t>Djeca i odrasle osobe koji su uključeni u specijalno školovanje imaju pravo na dnevni boravak u posebnim ustanovama ili smještaj u internatskim ustanovama ako to preporuči Stručna komisija ili Stručna institucija. Potpuno pokrića troškova dnevnog boravka od strane Centra</t>
   </si>
   <si>
     <t>Članak 15.
@@ -2333,33 +2447,12 @@
   <si>
     <t>Porodični život</t>
   </si>
-  <si>
-    <t>Zakon o socijalnoj zaštiti; zaštiti civilnih žrtava rata i zaštiti porodice sa djecom</t>
-  </si>
-  <si>
-    <t>Zakon o profesionalnoj rehabilitaciji; osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</t>
-  </si>
-  <si>
-    <t>Radni vijek; treća životna dob</t>
-  </si>
-  <si>
-    <t>Novorođenče; predškolska dob; školska dob; radni vijek; treća životna dob</t>
-  </si>
-  <si>
-    <t>Predškolska dob; školska dob</t>
-  </si>
-  <si>
-    <t>Novorođenče; predškolska dob; školska dob</t>
-  </si>
-  <si>
-    <t>Novorođenče; Predškolska dob; Školska dob; Radni vijek</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2641,14 +2734,18 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b/>
       <sz val="13.5"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2724,6 +2821,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,7 +2999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3269,8 +3372,15 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3325,13 +3435,21 @@
   <dxfs count="57">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3372,261 +3490,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3861,6 +3724,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -3876,13 +3746,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3918,6 +3781,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4279,6 +4152,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4310,13 +4190,6 @@
         </patternFill>
       </fill>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4352,6 +4225,243 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF374151"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9591,7 +9701,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2535653E-3F3D-41C5-B70A-E522D18EB692}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2535653E-3F3D-41C5-B70A-E522D18EB692}" name="PivotTable2" cacheId="358" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B180" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -10442,69 +10552,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}" name="Table2" displayName="Table2" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{1F9E85E2-0B42-4580-82E0-6EEF465356B7}" name="#" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{4219DB81-11D2-48FE-B7E2-5608FFF50B55}" name="Naziv " dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{694A58F1-2A0C-4062-B856-7D3DE3AB2B87}" name="Opis" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{E6B32774-7F5A-4404-BA91-DAEFC1C6DC74}" name="Životna dob" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{F53571F7-E67A-4D75-B971-A9E579E334CE}" name="Godine" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{C56B24ED-F555-4C1E-8F1F-95E0A9F19EBD}" name="Tip usluge/prava/benefita" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{E061CC34-19FF-417C-8134-E10A7AFAB410}" name="Institucija" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{772F549A-88E3-465F-A720-D9DB53E72F53}" name="Adresa" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{4CEF74C2-07E0-4B89-85D3-C9E9B9A1743A}" name="Web stranica" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{DF65403C-1AF1-4456-B8F7-E59BD4641A90}" name="Telefon" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{691CF05D-6BDD-4AAD-97E1-9C52B75F2E41}" name="Email" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{AE92B2E5-DC89-43B9-A62F-8B64611EDD93}" name="Pravni osnov" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{6CEED575-5B30-4A77-AB59-1EC60905A98A}" name="Proces aplikacije" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{FFE031DC-1278-4B8E-AE6A-C8D486B3F7DB}" name="Lista neophodnih dokumenata" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{A3CB64C4-787A-4D5D-A31E-037D47BCA561}" name="Link za informacije o prijavi" dataDxfId="37"/>
-    <tableColumn id="16" xr3:uid="{2A4E65B2-B182-44CE-8C1E-844CC2177CFC}" name="Vremenski okvir" dataDxfId="36"/>
-    <tableColumn id="17" xr3:uid="{D7268B50-AA0A-4678-B0CA-B96626BF4CE7}" name="Dodatne napomene" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+  <autoFilter ref="A1:F11" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3CD3A6FA-48B3-4742-8A53-DD72379ADF8D}" name="Naziv " dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{822BDE87-6F30-4A0E-A5E2-A9CA37AF424B}" name="Opis" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{58D77055-6C4D-4085-8930-2E537F7B48A2}" name="Životna dob" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{63ED1170-2807-4400-9BED-30ED8580EBF4}" name="Pravni osnov" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{EDBC30B4-6F48-4A07-8E16-A1D618F93B57}" name="Pojašnjenje (Član)" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{97503B81-1CB4-45AC-A9F3-58BBE73723CB}" name="Web stranica" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5FC73C86-88F7-4509-A95A-5168F4D44A8C}" name="Table5" displayName="Table5" ref="A1:N19" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{93C9BA4B-E353-4D19-A8B1-FD649D881751}" name="Naziv " dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{37CD3CA4-A5B4-48AA-8EAB-A634118E07F6}" name="Opis" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{166DA75C-3FDE-4343-A1C5-D2960F08F3B9}" name="Tip usluge/prava/benefita" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{7400F049-A05D-4A4E-99A4-43B56FBA226C}" name="Životna dob" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{762D7820-5F72-4954-AFF5-8563D1F25EDF}" name="Korisnici" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{037E89ED-4586-4EB8-8009-1DC090C06F9E}" name="Ministartvo/Organizacija" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{2DE3B312-9D8F-4CF9-8624-2A6E25D376D2}" name="Adresa" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{F2FDB37F-57A2-4F5E-8AE1-29D816260855}" name="Web stranica" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{9507BFE2-DD4B-41AE-A7ED-EE3EA04689F9}" name="Telefon" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{422D2703-FD84-4A66-A590-54DC013958FF}" name="Email" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{7DAAC0A0-5795-416B-8172-BF7FB16CF71C}" name="Pravni okvir" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{3FECE412-1757-4D30-BE43-D03589D55C54}" name="Proces aplikacije" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{9CCCC0FB-8F10-4A5D-BA9F-34BEB2AACEA9}" name="Lista neophodnih dokumenata" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{897F94AA-266F-4177-BC01-F1BA673F652B}" name="Link za informacije o prijavi" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}" name="Table2" displayName="Table2" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
+  <autoFilter ref="A1:Q31" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{1F9E85E2-0B42-4580-82E0-6EEF465356B7}" name="#" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{4219DB81-11D2-48FE-B7E2-5608FFF50B55}" name="Naziv " dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{694A58F1-2A0C-4062-B856-7D3DE3AB2B87}" name="Opis" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{E6B32774-7F5A-4404-BA91-DAEFC1C6DC74}" name="Životna dob" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{F53571F7-E67A-4D75-B971-A9E579E334CE}" name="Godine" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{C56B24ED-F555-4C1E-8F1F-95E0A9F19EBD}" name="Tip usluge/prava/benefita" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{E061CC34-19FF-417C-8134-E10A7AFAB410}" name="Institucija" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{772F549A-88E3-465F-A720-D9DB53E72F53}" name="Adresa" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{4CEF74C2-07E0-4B89-85D3-C9E9B9A1743A}" name="Web stranica" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{DF65403C-1AF1-4456-B8F7-E59BD4641A90}" name="Telefon" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{691CF05D-6BDD-4AAD-97E1-9C52B75F2E41}" name="Email" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{AE92B2E5-DC89-43B9-A62F-8B64611EDD93}" name="Pravni osnov" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{6CEED575-5B30-4A77-AB59-1EC60905A98A}" name="Proces aplikacije" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{FFE031DC-1278-4B8E-AE6A-C8D486B3F7DB}" name="Lista neophodnih dokumenata" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{A3CB64C4-787A-4D5D-A31E-037D47BCA561}" name="Link za informacije o prijavi" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{2A4E65B2-B182-44CE-8C1E-844CC2177CFC}" name="Vremenski okvir" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{D7268B50-AA0A-4678-B0CA-B96626BF4CE7}" name="Dodatne napomene" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:F11" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3CD3A6FA-48B3-4742-8A53-DD72379ADF8D}" name="Naziv " dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{822BDE87-6F30-4A0E-A5E2-A9CA37AF424B}" name="Opis" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{58D77055-6C4D-4085-8930-2E537F7B48A2}" name="Životna dob" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{63ED1170-2807-4400-9BED-30ED8580EBF4}" name="Pravni osnov" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{EDBC30B4-6F48-4A07-8E16-A1D618F93B57}" name="Pojašnjenje (Član)" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{97503B81-1CB4-45AC-A9F3-58BBE73723CB}" name="Web stranica" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5FC73C86-88F7-4509-A95A-5168F4D44A8C}" name="Table5" displayName="Table5" ref="A1:N19" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{93C9BA4B-E353-4D19-A8B1-FD649D881751}" name="Naziv " dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{37CD3CA4-A5B4-48AA-8EAB-A634118E07F6}" name="Opis" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{166DA75C-3FDE-4343-A1C5-D2960F08F3B9}" name="Tip usluge/prava/benefita" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{7400F049-A05D-4A4E-99A4-43B56FBA226C}" name="Životna dob" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{762D7820-5F72-4954-AFF5-8563D1F25EDF}" name="Korisnici" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{037E89ED-4586-4EB8-8009-1DC090C06F9E}" name="Ministartvo/Organizacija" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{2DE3B312-9D8F-4CF9-8624-2A6E25D376D2}" name="Adresa" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{F2FDB37F-57A2-4F5E-8AE1-29D816260855}" name="Web stranica" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{9507BFE2-DD4B-41AE-A7ED-EE3EA04689F9}" name="Telefon" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{422D2703-FD84-4A66-A590-54DC013958FF}" name="Email" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{7DAAC0A0-5795-416B-8172-BF7FB16CF71C}" name="Pravni okvir" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{3FECE412-1757-4D30-BE43-D03589D55C54}" name="Proces aplikacije" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{9CCCC0FB-8F10-4A5D-BA9F-34BEB2AACEA9}" name="Lista neophodnih dokumenata" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{897F94AA-266F-4177-BC01-F1BA673F652B}" name="Link za informacije o prijavi" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}" name="Zivotnadob" displayName="Zivotnadob" ref="D1:D5" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}" name="Zivotnadob" displayName="Zivotnadob" ref="D1:D5" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="D1:D5" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5BD196D3-17BC-4525-A2D1-C125915FE5E4}" name="Životna dob"/>
@@ -10986,7 +11097,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798A0B4F-D645-43E9-AE82-B6A9F06932BD}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
@@ -10999,7 +11110,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.45" customHeight="1">
       <c r="A1" s="13" t="str" cm="1">
-        <f t="array" ref="A1:A12">_xlfn._xlws.FILTER('Administrativni postupci'!$B$2:$B$96,ISNUMBER(SEARCH("Novorođenče",'Administrativni postupci'!$D$2:$D$96)), "0")</f>
+        <f t="array" ref="A1:A13">_xlfn._xlws.FILTER('Administrativni postupci'!$B$2:$B$96,ISNUMBER(SEARCH("Novorođenče",'Administrativni postupci'!$D$2:$D$96)), "0")</f>
         <v>Jednokratna novčana pomoć licima i domaćinstvima sa područja općine Novo Sarajevo</v>
       </c>
       <c r="B1" s="14" t="str" cm="1">
@@ -11047,21 +11158,21 @@
         <v>Pravo na kućnu njegu</v>
       </c>
       <c r="M1" s="13" t="str" cm="1">
-        <f t="array" ref="M1:M23">_xlfn._xlws.FILTER('Administrativni postupci'!$B$2:$B$96,ISNUMBER(SEARCH("Treća životna dob",'Administrativni postupci'!$D$2:$D$96)), "0")</f>
+        <f t="array" ref="M1:M22">_xlfn._xlws.FILTER('Administrativni postupci'!$B$2:$B$96,ISNUMBER(SEARCH("Treća životna dob",'Administrativni postupci'!$D$2:$D$96)), "0")</f>
         <v>Usluga dnevnog ili poludnevnog boravka u Centar za dnevni boravak – Gerontološki centar</v>
       </c>
       <c r="N1" s="13" t="str" cm="1">
-        <f t="array" ref="N1:N10">_xlfn._xlws.FILTER('Diskrecione usluge'!$A$2:$A$95,ISNUMBER(SEARCH("Treća životna dob",'Diskrecione usluge'!$D$2:$D$95)), "0")</f>
+        <f t="array" ref="N1:N9">_xlfn._xlws.FILTER('Diskrecione usluge'!$A$2:$A$95,ISNUMBER(SEARCH("Treća životna dob",'Diskrecione usluge'!$D$2:$D$95)), "0")</f>
         <v>Ambulanta "Sve na jednom mjestu" za djecu i osobe s poteškoćama u razvoju</v>
       </c>
       <c r="O1" s="13" t="str" cm="1">
-        <f t="array" ref="O1:O4">_xlfn._xlws.FILTER('Neinstitucionalizirana prava'!$A$2:$A$98,ISNUMBER(SEARCH("Treća životna dob",'Neinstitucionalizirana prava'!$C$2:$C$98)), "0")</f>
+        <f t="array" ref="O1:O2">_xlfn._xlws.FILTER('Neinstitucionalizirana prava'!$A$2:$A$98,ISNUMBER(SEARCH("Treća životna dob",'Neinstitucionalizirana prava'!$C$2:$C$98)), "0")</f>
         <v>Pravo na kućnu njegu</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="13" t="str">
-        <v>Kupovina lijekova po posebnim protokolima</v>
+        <v>Posebni programi za osobe oboljele od teških i rijetkih bolesti (npr. enteralna prehrana za djecu i odrasle, bezglutensko brašno za osobe oboljele od celijakije)</v>
       </c>
       <c r="B2" s="13" t="str">
         <v>Usluge centara za prevenciju i rehabilitaciju, defektologa, logopeda</v>
@@ -11070,7 +11181,7 @@
         <v>Pravo roditelja njegovatelja na osiguranje</v>
       </c>
       <c r="D2" t="str">
-        <v>Kupovina lijekova po posebnim protokolima</v>
+        <v>Posebni programi za osobe oboljele od teških i rijetkih bolesti (npr. enteralna prehrana za djecu i odrasle, bezglutensko brašno za osobe oboljele od celijakije)</v>
       </c>
       <c r="E2" t="str">
         <v>Usluge centara za prevenciju i rehabilitaciju, defektologa, logopeda</v>
@@ -11079,7 +11190,7 @@
         <v>Pravo roditelja njegovatelja na osiguranje</v>
       </c>
       <c r="G2" s="13" t="str">
-        <v>Kupovina lijekova po posebnim protokolima</v>
+        <v>Posebni programi za osobe oboljele od teških i rijetkih bolesti (npr. enteralna prehrana za djecu i odrasle, bezglutensko brašno za osobe oboljele od celijakije)</v>
       </c>
       <c r="H2" s="13" t="str">
         <v>Asistent u nastavi</v>
@@ -11103,7 +11214,7 @@
         <v>Jednokratna novčana pomoć za invalidna lica</v>
       </c>
       <c r="O2" s="13" t="str">
-        <v>Pravo roditelja njegovatelja na osiguranje</v>
+        <v>Prednost u primanju usluga u zdravstvenom i drugim institucijama</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -11149,13 +11260,11 @@
       <c r="N3" s="13" t="str">
         <v>Jednokratna novčana pomoć za stanovnike starije od 80 godina</v>
       </c>
-      <c r="O3" s="13" t="str">
-        <v>Pravo roditelja njegovatelja na pokrivanje troškova sahrane/dženaze</v>
-      </c>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="13" t="str">
-        <v>Medicinska sredstva - ortopedska pomagala</v>
+        <v>Medicinska sredstva - ortopedska pomagala (npr. invalidska kolica, pelene, GPS narukvice za djecu, perike od prirodne kose za djecu, senzori, inzulinske pumpice)</v>
       </c>
       <c r="B4" s="13" t="str">
         <v>Jednokratna novčana pomoć za teško bolesne osobe i umjetnu oplodnju</v>
@@ -11164,7 +11273,7 @@
         <v>Prednost u primanju usluga u zdravstvenom i drugim institucijama</v>
       </c>
       <c r="D4" t="str">
-        <v>Medicinska sredstva - ortopedska pomagala</v>
+        <v>Medicinska sredstva - ortopedska pomagala (npr. invalidska kolica, pelene, GPS narukvice za djecu, perike od prirodne kose za djecu, senzori, inzulinske pumpice)</v>
       </c>
       <c r="E4" t="str">
         <v>Jednokratna novčana pomoć za teško bolesne osobe i umjetnu oplodnju</v>
@@ -11173,7 +11282,7 @@
         <v>Prednost u primanju usluga u zdravstvenom i drugim institucijama</v>
       </c>
       <c r="G4" s="13" t="str">
-        <v>Medicinska sredstva - ortopedska pomagala</v>
+        <v>Medicinska sredstva - ortopedska pomagala (npr. invalidska kolica, pelene, GPS narukvice za djecu, perike od prirodne kose za djecu, senzori, inzulinske pumpice)</v>
       </c>
       <c r="H4" s="13" t="str">
         <v>Jednokratna novčana pomoć za invalidna lica</v>
@@ -11182,7 +11291,7 @@
         <v xml:space="preserve">Pravo na srednje obrazovanje u redovnim ili specijalnim školama </v>
       </c>
       <c r="J4" t="str">
-        <v>Kupovina lijekova po posebnim protokolima</v>
+        <v>Posebni programi za osobe oboljele od teških i rijetkih bolesti (npr. enteralna prehrana za djecu i odrasle, bezglutensko brašno za osobe oboljele od celijakije)</v>
       </c>
       <c r="K4" t="str">
         <v>Oslobađanje plaćanja  uvoznih dadžbina, carine i PDV-a prilikom uvoza automobila</v>
@@ -11196,13 +11305,11 @@
       <c r="N4" s="13" t="str">
         <v>Jednokratna novčana pomoć za teško bolesne osobe i umjetnu oplodnju</v>
       </c>
-      <c r="O4" s="13" t="str">
-        <v>Prednost u primanju usluga u zdravstvenom i drugim institucijama</v>
-      </c>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="13" t="str">
-        <v>Ocjenjivanje sposobnosti, razvrstavanje djece i omladine ometene u psiho-fizičkom razvoju</v>
+        <v>Novčana pomoć i upućivanje na dijagnostiku i liječenje djece</v>
       </c>
       <c r="B5" s="13" t="str">
         <v>Osnovna dijagnostika</v>
@@ -11242,7 +11349,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="13" t="str">
-        <v>Pravo na ličnu invalidninu, dodatak za njegu i pomoć drugog lica i ortopedski dodatak</v>
+        <v>Ocjenjivanje sposobnosti, razvrstavanje djece i omladine ometene u psiho-fizičkom razvoju</v>
       </c>
       <c r="B6" s="13" t="str">
         <v xml:space="preserve">Osnovni paket fiksne telefonije - socijalni </v>
@@ -11264,7 +11371,7 @@
         <v>Pravo roditelja njegovatelja na pokrivanje troškova sahrane/dženaze</v>
       </c>
       <c r="J6" t="str">
-        <v>Medicinska sredstva - ortopedska pomagala</v>
+        <v>Medicinska sredstva - ortopedska pomagala (npr. invalidska kolica, pelene, GPS narukvice za djecu, perike od prirodne kose za djecu, senzori, inzulinske pumpice)</v>
       </c>
       <c r="K6" t="str">
         <v xml:space="preserve">Osnovni paket fiksne telefonije - socijalni </v>
@@ -11282,7 +11389,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="13" t="str">
-        <v>Pravo na stalnu novčanu pomoć</v>
+        <v>Pravo na ličnu invalidninu, dodatak za njegu i pomoć drugog lica i ortopedski dodatak</v>
       </c>
       <c r="B7" s="13" t="str">
         <v>Umanjenje poreza na dohodak za zaposlene</v>
@@ -11313,7 +11420,7 @@
         <v>Prednost u primanju usluga u zdravstvenom i drugim institucijama</v>
       </c>
       <c r="M7" s="13" t="str">
-        <v>Kupovina lijekova po posebnim protokolima</v>
+        <v>Posebni programi za osobe oboljele od teških i rijetkih bolesti (npr. enteralna prehrana za djecu i odrasle, bezglutensko brašno za osobe oboljele od celijakije)</v>
       </c>
       <c r="N7" s="13" t="str">
         <v xml:space="preserve">Osnovni paket fiksne telefonije - socijalni </v>
@@ -11322,7 +11429,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="13" t="str">
-        <v>Pravo na zdravstvenu zaštitu</v>
+        <v>Pravo na stalnu novčanu pomoć</v>
       </c>
       <c r="B8" s="13" t="str">
         <v>Posebna ishrana - enteralna prehrana za djecu i odrasle; bezglutensko brašno za oboljele od celijaklije</v>
@@ -11351,13 +11458,13 @@
         <v>Medicinska rehabilitacija/banjsko liječenje kao produženo bolničko liječenje</v>
       </c>
       <c r="N8" s="13" t="str">
-        <v>Umanjenje poreza na dohodak za zaposlene</v>
+        <v>Posebna ishrana - enteralna prehrana za djecu i odrasle; bezglutensko brašno za oboljele od celijaklije</v>
       </c>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13" t="str">
-        <v>Priznavanje statusa roditelja njegovatelja</v>
+        <v>Pravo na zdravstvenu zaštitu</v>
       </c>
       <c r="B9" s="13" t="str">
         <v>Povlastice u željezničkom saobraćaju</v>
@@ -11383,16 +11490,16 @@
         <v>Povlastice u željezničkom saobraćaju</v>
       </c>
       <c r="M9" s="13" t="str">
-        <v>Medicinska sredstva - ortopedska pomagala</v>
+        <v>Medicinska sredstva - ortopedska pomagala (npr. invalidska kolica, pelene, GPS narukvice za djecu, perike od prirodne kose za djecu, senzori, inzulinske pumpice)</v>
       </c>
       <c r="N9" s="13" t="str">
-        <v>Posebna ishrana - enteralna prehrana za djecu i odrasle; bezglutensko brašno za oboljele od celijaklije</v>
+        <v>Povlastice u željezničkom saobraćaju</v>
       </c>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="13" t="str">
-        <v>Refundacija troškova lijekova i liječenja</v>
+        <v>Priznavanje statusa roditelja njegovatelja</v>
       </c>
       <c r="B10" s="13" t="str">
         <v>Uvećani dječiji doplatak</v>
@@ -11417,14 +11524,12 @@
       <c r="M10" s="13" t="str">
         <v>Medicinsko - sanitetski materijal za RVI sa područja Kantona Sarajevo</v>
       </c>
-      <c r="N10" s="13" t="str">
-        <v>Povlastice u željezničkom saobraćaju</v>
-      </c>
+      <c r="N10" s="13"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="13" t="str">
-        <v>Smještaj u Gerontološki centar – Privatni ugovori potpisani sa fizičkim licima</v>
+        <v>Refundacija troškova lijekova i liječenja</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -11452,7 +11557,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="str">
-        <v>Smještaj u hospis</v>
+        <v>Smještaj u Gerontološki centar – Privatni ugovori potpisani sa fizičkim licima</v>
       </c>
       <c r="D12" t="str">
         <v>Refundacija troškova lijekova i liječenja</v>
@@ -11477,6 +11582,9 @@
       </c>
     </row>
     <row r="13" spans="1:15">
+      <c r="A13" t="str">
+        <v>Smještaj u hospis</v>
+      </c>
       <c r="D13" t="str">
         <v>Smještaj u Gerontološki centar – Privatni ugovori potpisani sa fizičkim licima</v>
       </c>
@@ -11521,7 +11629,7 @@
         <v>Smještaj u Gerontološki centar – Privatni ugovori potpisani sa fizičkim licima</v>
       </c>
       <c r="M15" t="str">
-        <v>Priznavanje statusa roditelja njegovatelja</v>
+        <v>Refundacija troškova lijekova i liječenja</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -11535,41 +11643,36 @@
         <v>Smještaj u hospis</v>
       </c>
       <c r="M16" t="str">
-        <v>Refundacija troškova lijekova i liječenja</v>
+        <v>Smještaj u Gerontološki centar – Privatni ugovori potpisani sa fizičkim licima</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="str">
-        <v>Smještaj u Gerontološki centar – Privatni ugovori potpisani sa fizičkim licima</v>
+        <v>Smještaj u hospis</v>
       </c>
     </row>
     <row r="18" spans="13:13">
       <c r="M18" t="str">
-        <v>Smještaj u hospis</v>
+        <v>Smještaj u ustanovu, njega, rehabilitacija i socijalna zaštita – Dom za djecu bez roditeljskog staranja</v>
       </c>
     </row>
     <row r="19" spans="13:13">
       <c r="M19" t="str">
-        <v>Smještaj u ustanovu, njega, rehabilitacija i socijalna zaštita – Dom za djecu bez roditeljskog staranja</v>
+        <v>Smještaj u ustanovu, njega, rehabilitacija i socijalna zaštita – Gerontološki centar</v>
       </c>
     </row>
     <row r="20" spans="13:13">
       <c r="M20" t="str">
-        <v>Smještaj u ustanovu, njega, rehabilitacija i socijalna zaštita – Gerontološki centar</v>
+        <v>Stalna novčana pomoć za kupovinu hljeba i mlijeka lica starija od 60 godina bez primanja</v>
       </c>
     </row>
     <row r="21" spans="13:13">
       <c r="M21" t="str">
-        <v>Stalna novčana pomoć za kupovinu hljeba i mlijeka lica starija od 60 godina bez primanja</v>
+        <v>Stalna novčana pomoć za kupovinu hljeba i mlijeka penzioneri sa minimalnom penzijom</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="str">
-        <v>Stalna novčana pomoć za kupovinu hljeba i mlijeka penzioneri sa minimalnom penzijom</v>
-      </c>
-    </row>
-    <row r="23" spans="13:13">
-      <c r="M23" t="str">
         <v>Zdravstvena zaštita starijih od 65 godina</v>
       </c>
     </row>
@@ -11583,8 +11686,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -11613,23 +11716,25 @@
         <v>361</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E12" s="154" t="str">
         <f>VLOOKUP(C12,Table2[[Naziv ]:[Dodatne napomene]],2,0)</f>
-        <v>Pravo na liječenje rijetkih i teških oboljenja po posebnim protokolima (reumatoidini artritis, juvenilni idiopatski artritis, enteralna prehrana, bezglutensko brašno za oboljele od celijaklije)</v>
+        <v>Zdravstvena zaštita osoba starijih od 65 godina života, pod uslovom da nemaju zdravstveno osiguranje po drugom osnovu. Plaćanje neposrednog učešća u troškovima zdravstvene zaštite starijih od 65 godina života vršit će MRSRI KS, pod uslovom da nisu zdravstveno osigurani po drugom osnovu.</v>
       </c>
       <c r="F12" s="152" t="str">
         <f>VLOOKUP(C12,Table2[[Naziv ]:[Dodatne napomene]],6,0)</f>
-        <v>Zavod zdravstvenog osiguranja Kantona Sarajevo/zdravstvene ustanove</v>
-      </c>
-      <c r="G12" s="152" t="str">
+        <v xml:space="preserve">Općina, nadležna općinska služba
+Ministarstvo za rad, socijalnu politiku, raseljena lica i izbjeglice Kantona Sarajevo
+</v>
+      </c>
+      <c r="G12" s="152">
         <f>VLOOKUP(C12,Table2[[Naziv ]:[Dodatne napomene]],7,0)</f>
-        <v>Ložionička 2, 71000 Sarajevo, Bosna i Hercegovina</v>
+        <v>0</v>
       </c>
       <c r="H12" s="153">
         <f>VLOOKUP(C12,Table2[[Naziv ]:[Dodatne napomene]],9,0)</f>
-        <v>38733725207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
@@ -11658,7 +11763,7 @@
       </c>
       <c r="H14" s="153">
         <f>VLOOKUP('1'!C14,Table5[],9,0)</f>
-        <v>38733653093</v>
+        <v>387733637384</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
@@ -11676,12 +11781,12 @@
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="158" t="e">
+      <c r="F16" s="161" t="e">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
     </row>
     <row r="17" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -11774,16 +11879,16 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="164" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11803,124 +11908,124 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="169"/>
+      <c r="D6" s="172"/>
     </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="170"/>
+      <c r="D7" s="173"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="162" t="e">
+      <c r="C8" s="165" t="e">
         <f>VLOOKUP(C7,All,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="163"/>
+      <c r="D8" s="166"/>
     </row>
     <row r="9" spans="1:21" ht="78" customHeight="1">
-      <c r="B9" s="160"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="168"/>
     </row>
     <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="166" t="e">
+      <c r="C10" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,6,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="167"/>
+      <c r="D10" s="170"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="166" t="e">
+      <c r="C11" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,7,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="167"/>
+      <c r="D11" s="170"/>
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="166" t="e">
+      <c r="C12" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,8,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="170"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="166" t="e">
+      <c r="C13" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,9,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="170"/>
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="166" t="e">
+      <c r="C14" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,10,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="170"/>
     </row>
     <row r="15" spans="1:21" ht="62.25" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="162" t="e">
+      <c r="C15" s="165" t="e">
         <f>VLOOKUP($C$7,Usluge,11,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="163"/>
+      <c r="D15" s="166"/>
     </row>
     <row r="16" spans="1:21" ht="126" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="162" t="e">
+      <c r="C16" s="165" t="e">
         <f>VLOOKUP($C$7,Usluge,12,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="163"/>
+      <c r="D16" s="166"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="166" t="e">
+      <c r="C17" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,13,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="170"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="171" t="e">
+      <c r="C18" s="174" t="e">
         <f>VLOOKUP($C$7,Usluge,15,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="171"/>
+      <c r="D18" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -11963,14 +12068,247 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79745D0-3A85-4CE4-80E0-563AD56B3BAC}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A1" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="84">
+      <c r="A2" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" s="135" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="86"/>
+    </row>
+    <row r="3" spans="1:6" ht="189">
+      <c r="A3" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="135" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="135" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="336">
+      <c r="A4" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="135" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="189">
+      <c r="A5" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="135" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="135"/>
+    </row>
+    <row r="6" spans="1:6" ht="315">
+      <c r="A6" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="135" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="135" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="86"/>
+    </row>
+    <row r="7" spans="1:6" ht="283.5">
+      <c r="A7" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="135" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="135" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="86"/>
+    </row>
+    <row r="8" spans="1:6" ht="220.5">
+      <c r="A8" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="135" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="135" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" s="135"/>
+    </row>
+    <row r="9" spans="1:6" ht="105">
+      <c r="A9" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="135" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="135" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="135"/>
+    </row>
+    <row r="10" spans="1:6" ht="115.5">
+      <c r="A10" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="135" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="135"/>
+    </row>
+    <row r="11" spans="1:6" ht="63">
+      <c r="A11" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="86"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
+    <sortCondition ref="A6:A11"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:A11">
+    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{F41ABE82-6260-4AB9-9FC0-3D6CD3B57FED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646CFECD-C102-4B70-A315-649D04135A21}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12008,13 +12346,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="110" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F1" s="112" t="s">
         <v>75</v>
       </c>
       <c r="G1" s="110" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H1" s="110" t="s">
         <v>77</v>
@@ -12041,7 +12379,7 @@
         <v>84</v>
       </c>
       <c r="P1" s="113" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="Q1" s="110" t="s">
         <v>85</v>
@@ -12061,7 +12399,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="115" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F2" s="115" t="s">
         <v>110</v>
@@ -12088,11 +12426,11 @@
         <v>317</v>
       </c>
       <c r="N2" s="115" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="O2" s="115"/>
       <c r="P2" s="117" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q2" s="115"/>
     </row>
@@ -12106,8 +12444,8 @@
       <c r="C3" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="115" t="s">
-        <v>508</v>
+      <c r="D3" s="156" t="s">
+        <v>384</v>
       </c>
       <c r="E3" s="115"/>
       <c r="F3" s="115" t="s">
@@ -12132,14 +12470,14 @@
         <v>106</v>
       </c>
       <c r="M3" s="115" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="N3" s="115" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="O3" s="115"/>
       <c r="P3" s="117" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q3" s="115"/>
     </row>
@@ -12153,8 +12491,8 @@
       <c r="C4" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="115" t="s">
-        <v>508</v>
+      <c r="D4" s="156" t="s">
+        <v>384</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115" t="s">
@@ -12186,7 +12524,7 @@
         <v>262</v>
       </c>
       <c r="P4" s="117" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="116" t="s">
         <v>258</v>
@@ -12200,13 +12538,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>378</v>
-      </c>
-      <c r="D5" s="115" t="s">
-        <v>509</v>
+        <v>389</v>
+      </c>
+      <c r="D5" s="156" t="s">
+        <v>390</v>
       </c>
       <c r="E5" s="119" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F5" s="119" t="s">
         <v>110</v>
@@ -12233,13 +12571,13 @@
         <v>130</v>
       </c>
       <c r="N5" s="119" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="O5" s="121" t="s">
         <v>132</v>
       </c>
       <c r="P5" s="122" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="Q5" s="119" t="s">
         <v>133</v>
@@ -12269,25 +12607,25 @@
         <v>265</v>
       </c>
       <c r="I6" s="115" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J6" s="115" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K6" s="115" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L6" s="115" t="s">
         <v>320</v>
       </c>
       <c r="M6" s="138" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="N6" s="138" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="O6" s="76" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="P6" s="117"/>
       <c r="Q6" s="115" t="s">
@@ -12308,7 +12646,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="115" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="F7" s="115" t="s">
         <v>110</v>
@@ -12347,17 +12685,17 @@
       <c r="A8" s="115">
         <v>7</v>
       </c>
-      <c r="B8" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>134</v>
+      <c r="B8" s="156" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="156" t="s">
+        <v>402</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="E8" s="124" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F8" s="124" t="s">
         <v>88</v>
@@ -12377,7 +12715,7 @@
       <c r="K8" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="124" t="s">
+      <c r="L8" s="156" t="s">
         <v>136</v>
       </c>
       <c r="M8" s="124" t="s">
@@ -12407,10 +12745,10 @@
         <v>138</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="E9" s="124" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F9" s="124" t="s">
         <v>88</v>
@@ -12437,10 +12775,10 @@
         <v>140</v>
       </c>
       <c r="N9" s="139" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="O9" s="140" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="P9" s="124" t="s">
         <v>95</v>
@@ -12449,21 +12787,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="118" customFormat="1" ht="120">
+    <row r="10" spans="1:17" s="118" customFormat="1" ht="409.5">
       <c r="A10" s="115">
         <v>9</v>
       </c>
-      <c r="B10" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="124" t="s">
-        <v>141</v>
+      <c r="B10" s="156" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="156" t="s">
+        <v>406</v>
       </c>
       <c r="D10" s="115" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="E10" s="124" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F10" s="124" t="s">
         <v>88</v>
@@ -12490,19 +12828,19 @@
         <v>143</v>
       </c>
       <c r="N10" s="139" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="O10" s="140" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="P10" s="124" t="s">
         <v>95</v>
       </c>
       <c r="Q10" s="124" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="118" customFormat="1" ht="63.75">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="118" customFormat="1" ht="76.5">
       <c r="A11" s="115">
         <v>10</v>
       </c>
@@ -12513,10 +12851,10 @@
         <v>263</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>508</v>
+        <v>384</v>
       </c>
       <c r="E11" s="115" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F11" s="115" t="s">
         <v>88</v>
@@ -12556,14 +12894,14 @@
       <c r="B12" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="115" t="s">
-        <v>510</v>
+      <c r="D12" s="156" t="s">
+        <v>410</v>
       </c>
       <c r="E12" s="124" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="F12" s="124" t="s">
         <v>88</v>
@@ -12590,10 +12928,10 @@
         <v>210</v>
       </c>
       <c r="N12" s="139" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="O12" s="140" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="P12" s="124" t="s">
         <v>95</v>
@@ -12612,11 +12950,11 @@
       <c r="C13" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="115" t="s">
-        <v>510</v>
+      <c r="D13" s="156" t="s">
+        <v>414</v>
       </c>
       <c r="E13" s="115" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F13" s="115" t="s">
         <v>88</v>
@@ -12663,11 +13001,11 @@
       <c r="C14" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="115" t="s">
-        <v>511</v>
+      <c r="D14" s="156" t="s">
+        <v>416</v>
       </c>
       <c r="E14" s="115" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>110</v>
@@ -12714,7 +13052,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="115" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F15" s="115" t="s">
         <v>110</v>
@@ -12758,10 +13096,10 @@
         <v>144</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="E16" s="115" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F16" s="115" t="s">
         <v>110</v>
@@ -12812,13 +13150,13 @@
         <v>60</v>
       </c>
       <c r="E17" s="117" t="s">
-        <v>370</v>
-      </c>
-      <c r="F17" s="124" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" s="115" t="s">
         <v>110</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="H17" s="115" t="s">
         <v>112</v>
@@ -12863,7 +13201,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="115" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F18" s="115" t="s">
         <v>110</v>
@@ -12914,7 +13252,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="115" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F19" s="115" t="s">
         <v>222</v>
@@ -12962,10 +13300,10 @@
         <v>149</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="E20" s="115" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F20" s="115" t="s">
         <v>110</v>
@@ -13013,10 +13351,10 @@
         <v>152</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="E21" s="115" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F21" s="115" t="s">
         <v>110</v>
@@ -13063,11 +13401,11 @@
       <c r="C22" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="115" t="s">
-        <v>509</v>
+      <c r="D22" s="156" t="s">
+        <v>418</v>
       </c>
       <c r="E22" s="115" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F22" s="115" t="s">
         <v>110</v>
@@ -13112,11 +13450,11 @@
       <c r="C23" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="115" t="s">
-        <v>509</v>
+      <c r="D23" s="156" t="s">
+        <v>390</v>
       </c>
       <c r="E23" s="124" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F23" s="124" t="s">
         <v>88</v>
@@ -13137,16 +13475,16 @@
         <v>92</v>
       </c>
       <c r="L23" s="139" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="M23" s="141" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="N23" s="139" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="O23" s="140" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="P23" s="124" t="s">
         <v>95</v>
@@ -13155,18 +13493,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="118" customFormat="1" ht="242.25">
+    <row r="24" spans="1:17" s="118" customFormat="1" ht="255">
       <c r="A24" s="115">
         <v>23</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="156" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="115" t="s">
         <v>336</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="E24" s="115"/>
       <c r="F24" s="115" t="s">
@@ -13191,10 +13529,10 @@
         <v>337</v>
       </c>
       <c r="M24" s="115" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="N24" s="115" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="O24" s="115"/>
       <c r="P24" s="117"/>
@@ -13213,10 +13551,10 @@
         <v>203</v>
       </c>
       <c r="D25" s="115" t="s">
-        <v>509</v>
+        <v>390</v>
       </c>
       <c r="E25" s="124" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F25" s="124" t="s">
         <v>88</v>
@@ -13269,7 +13607,7 @@
         <v>60</v>
       </c>
       <c r="E26" s="115" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F26" s="115" t="s">
         <v>110</v>
@@ -13361,7 +13699,7 @@
         <v>60</v>
       </c>
       <c r="E28" s="115" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="F28" s="115" t="s">
         <v>110</v>
@@ -13410,7 +13748,7 @@
         <v>60</v>
       </c>
       <c r="E29" s="115" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="F29" s="115" t="s">
         <v>110</v>
@@ -13449,38 +13787,38 @@
       <c r="A30" s="115">
         <v>29</v>
       </c>
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="156" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="124" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F30" s="124" t="s">
         <v>222</v>
       </c>
       <c r="G30" s="115" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="H30" s="115"/>
       <c r="I30" s="116"/>
       <c r="J30" s="115" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="K30" s="116"/>
       <c r="L30" s="115" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="M30" s="124" t="s">
         <v>227</v>
       </c>
       <c r="N30" s="115" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="O30" s="116" t="s">
         <v>229</v>
@@ -13521,11 +13859,11 @@
         <v>352</v>
       </c>
       <c r="N31" s="115" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="O31" s="115"/>
       <c r="P31" s="117" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="Q31" s="115" t="s">
         <v>354</v>
@@ -13537,10 +13875,10 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27 F13 F15 F17 F24" xr:uid="{B142B612-B83B-4802-8CE2-9604B24FEE64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27 F13 F24" xr:uid="{B142B612-B83B-4802-8CE2-9604B24FEE64}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -13642,15 +13980,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE97C4-5CE4-4386-BABA-CA4D0DFA0DEA}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13662,7 +14000,7 @@
     <col min="5" max="5" width="41.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="42.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
@@ -13684,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="133" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="F1" s="133" t="s">
         <v>76</v>
@@ -13702,7 +14040,7 @@
         <v>80</v>
       </c>
       <c r="K1" s="133" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="L1" s="133" t="s">
         <v>82</v>
@@ -13725,10 +14063,10 @@
         <v>88</v>
       </c>
       <c r="D2" s="135" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E2" s="135" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F2" s="135" t="s">
         <v>169</v>
@@ -13762,7 +14100,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="135" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F3" s="135" t="s">
         <v>294</v>
@@ -13794,7 +14132,7 @@
     </row>
     <row r="4" spans="1:14" ht="168">
       <c r="A4" s="135" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B4" s="135" t="s">
         <v>159</v>
@@ -13803,18 +14141,18 @@
         <v>88</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G4" s="135"/>
       <c r="H4" s="86"/>
       <c r="I4" s="135"/>
       <c r="J4" s="86"/>
       <c r="K4" s="135" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L4" s="135"/>
       <c r="M4" s="86"/>
@@ -13831,10 +14169,10 @@
         <v>110</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E5" s="135" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F5" s="135" t="s">
         <v>173</v>
@@ -13878,7 +14216,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="135" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="F6" s="135" t="s">
         <v>173</v>
@@ -13917,10 +14255,10 @@
         <v>88</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E7" s="135" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="F7" s="135" t="s">
         <v>173</v>
@@ -13958,7 +14296,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="135" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="D8" s="135"/>
       <c r="E8" s="135"/>
@@ -13991,10 +14329,10 @@
         <v>271</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E9" s="135" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F9" s="135" t="s">
         <v>272</v>
@@ -14023,10 +14361,10 @@
         <v>88</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E10" s="135" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F10" s="135" t="s">
         <v>184</v>
@@ -14048,10 +14386,10 @@
         <v>185</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E11" s="135"/>
       <c r="F11" s="135" t="s">
@@ -14082,8 +14420,8 @@
       <c r="C12" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="135" t="s">
-        <v>417</v>
+      <c r="D12" s="136" t="s">
+        <v>375</v>
       </c>
       <c r="E12" s="135"/>
       <c r="F12" s="135" t="s">
@@ -14094,7 +14432,7 @@
       <c r="I12" s="135"/>
       <c r="J12" s="86"/>
       <c r="K12" s="135" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="L12" s="135"/>
       <c r="M12" s="135" t="s">
@@ -14102,25 +14440,25 @@
       </c>
       <c r="N12" s="86"/>
     </row>
-    <row r="13" spans="1:14" ht="229.5">
+    <row r="13" spans="1:14" ht="242.25">
       <c r="A13" s="119" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B13" s="119" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C13" s="135" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E13" s="135"/>
       <c r="F13" s="115" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="115" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="H13" s="125" t="s">
         <v>91</v>
@@ -14133,7 +14471,7 @@
       </c>
       <c r="K13" s="135"/>
       <c r="L13" s="119" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M13" s="86"/>
       <c r="N13" s="86"/>
@@ -14147,7 +14485,7 @@
         <v>271</v>
       </c>
       <c r="D14" s="135" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E14" s="135"/>
       <c r="F14" s="135"/>
@@ -14193,7 +14531,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="135" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F16" s="135" t="s">
         <v>294</v>
@@ -14234,10 +14572,10 @@
         <v>88</v>
       </c>
       <c r="D17" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" s="135" t="s">
         <v>435</v>
-      </c>
-      <c r="E17" s="135" t="s">
-        <v>418</v>
       </c>
       <c r="F17" s="135" t="s">
         <v>233</v>
@@ -14272,10 +14610,10 @@
         <v>222</v>
       </c>
       <c r="D18" s="135" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="E18" s="135" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F18" s="135" t="s">
         <v>231</v>
@@ -14293,10 +14631,10 @@
         <v>110</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E19" s="135" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F19" s="135" t="s">
         <v>164</v>
@@ -14346,7 +14684,7 @@
     <sortCondition ref="A17:A19"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1" xr:uid="{AD625D9F-010B-4FD0-91E9-6E5C5A331511}"/>
@@ -14389,249 +14727,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79745D0-3A85-4CE4-80E0-563AD56B3BAC}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A1" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="133" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="133" t="s">
-        <v>438</v>
-      </c>
-      <c r="F1" s="133" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="84">
-      <c r="A2" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="135" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>506</v>
-      </c>
-      <c r="E2" s="135" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="86"/>
-    </row>
-    <row r="3" spans="1:6" ht="178.5">
-      <c r="A3" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="135" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="135" t="s">
-        <v>461</v>
-      </c>
-      <c r="D3" s="135" t="s">
-        <v>506</v>
-      </c>
-      <c r="E3" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="116" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="336">
-      <c r="A4" s="135" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="135" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="135" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4" s="135" t="s">
-        <v>441</v>
-      </c>
-      <c r="E4" s="135" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="189">
-      <c r="A5" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="135" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="135" t="s">
-        <v>506</v>
-      </c>
-      <c r="E5" s="135" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" s="135"/>
-    </row>
-    <row r="6" spans="1:6" ht="304.5">
-      <c r="A6" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="135" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="135" t="s">
-        <v>442</v>
-      </c>
-      <c r="E6" s="135" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="86"/>
-    </row>
-    <row r="7" spans="1:6" ht="273">
-      <c r="A7" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="135" t="s">
-        <v>506</v>
-      </c>
-      <c r="E7" s="135" t="s">
-        <v>310</v>
-      </c>
-      <c r="F7" s="86"/>
-    </row>
-    <row r="8" spans="1:6" ht="210">
-      <c r="A8" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="135" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="135" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8" s="135" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="135"/>
-    </row>
-    <row r="9" spans="1:6" ht="105">
-      <c r="A9" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="135" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="135" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" s="135" t="s">
-        <v>444</v>
-      </c>
-      <c r="E9" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="135"/>
-    </row>
-    <row r="10" spans="1:6" ht="115.5">
-      <c r="A10" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="136" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="135" t="s">
-        <v>417</v>
-      </c>
-      <c r="D10" s="135" t="s">
-        <v>444</v>
-      </c>
-      <c r="E10" s="135" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="135"/>
-    </row>
-    <row r="11" spans="1:6" ht="63">
-      <c r="A11" s="135" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135" t="s">
-        <v>417</v>
-      </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="86"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
-    <sortCondition ref="A6:A11"/>
-  </sortState>
-  <conditionalFormatting sqref="A2:A11">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{F41ABE82-6260-4AB9-9FC0-3D6CD3B57FED}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD402D6-5248-4450-A001-D79F85E5A884}">
   <sheetPr codeName="Sheet16" filterMode="1"/>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14645,27 +14750,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -14685,7 +14790,7 @@
     </row>
     <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -14700,21 +14805,21 @@
         <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
         <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="E4" t="s">
         <v>110</v>
@@ -14723,29 +14828,29 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -14763,9 +14868,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -14780,69 +14885,72 @@
         <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>455</v>
+        <v>461</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="87" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
+        <v>461</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>458</v>
+        <v>461</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E10" t="s">
         <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>452</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -14851,7 +14959,7 @@
         <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
@@ -14860,18 +14968,18 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>451</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>459</v>
+        <v>461</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>399</v>
+        <v>149</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>468</v>
       </c>
       <c r="E12" t="s">
         <v>110</v>
@@ -14880,18 +14988,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E13" t="s">
         <v>110</v>
@@ -14900,18 +15008,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E14" t="s">
         <v>110</v>
@@ -14922,7 +15030,7 @@
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -14940,29 +15048,29 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>451</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
+        <v>465</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -14980,9 +15088,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
@@ -14997,12 +15105,12 @@
         <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -15022,7 +15130,7 @@
     </row>
     <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
@@ -15040,29 +15148,29 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>451</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
+        <v>465</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>469</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -15080,66 +15188,69 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>451</v>
-      </c>
-      <c r="B23" s="88" t="s">
-        <v>28</v>
+        <v>465</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>454</v>
-      </c>
-      <c r="B24" t="s">
-        <v>458</v>
+        <v>461</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>389</v>
       </c>
       <c r="D24" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="E24" t="s">
         <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>471</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>377</v>
       </c>
       <c r="E25" t="s">
         <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -15148,18 +15259,18 @@
         <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E26" t="s">
         <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -15168,15 +15279,15 @@
         <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="E27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -15194,9 +15305,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -15211,12 +15322,12 @@
         <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -15231,29 +15342,32 @@
         <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B31" s="87" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s">
         <v>462</v>
       </c>
-      <c r="C31" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" t="s">
-        <v>440</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
@@ -15268,29 +15382,32 @@
         <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -15308,26 +15425,29 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>222</v>
+      </c>
+      <c r="F35" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -15336,15 +15456,15 @@
         <v>275</v>
       </c>
       <c r="E36" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="F36" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
@@ -15359,41 +15479,41 @@
         <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>454</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
+        <v>465</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>475</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E38" t="s">
-        <v>427</v>
-      </c>
-      <c r="F38" t="s">
-        <v>187</v>
+        <v>191</v>
+      </c>
+      <c r="F38" s="87" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C39" t="s">
         <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="E39" t="s">
         <v>100</v>
@@ -15404,16 +15524,16 @@
     </row>
     <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="C40" t="s">
         <v>270</v>
       </c>
       <c r="D40" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E40" t="s">
         <v>271</v>
@@ -15422,58 +15542,58 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="E41" t="s">
         <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>451</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
+        <v>461</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E42" t="s">
         <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E43" t="s">
         <v>88</v>
@@ -15482,18 +15602,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="E44" t="s">
         <v>88</v>
@@ -15502,32 +15622,32 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="E45" t="s">
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>452</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B46" s="87" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C46" t="s">
         <v>302</v>
@@ -15541,7 +15661,7 @@
     </row>
     <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -15559,9 +15679,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -15570,7 +15690,7 @@
         <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E48" t="s">
         <v>88</v>
@@ -15579,143 +15699,134 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>451</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>27</v>
+        <v>461</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E49" t="s">
         <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>417</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>454</v>
-      </c>
-      <c r="B51" s="87" t="s">
-        <v>467</v>
-      </c>
-      <c r="C51" t="s">
-        <v>159</v>
+        <v>465</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="E51" t="s">
         <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E52" t="s">
         <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>452</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D53" t="s">
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>454</v>
-      </c>
-      <c r="B54" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>183</v>
+        <v>465</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>454</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
+        <v>472</v>
+      </c>
+      <c r="B55" s="87" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -15727,12 +15838,12 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -15744,7 +15855,7 @@
         <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="F57" t="s">
         <v>252</v>
@@ -15752,7 +15863,7 @@
     </row>
     <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -15764,12 +15875,12 @@
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B59" t="s">
         <v>49</v>
@@ -15781,61 +15892,55 @@
         <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>443</v>
+        <v>373</v>
       </c>
       <c r="F59" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="D61" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E62" t="s">
         <v>88</v>
@@ -15845,15 +15950,26 @@
   <autoFilter ref="A1:F62" xr:uid="{0BD402D6-5248-4450-A001-D79F85E5A884}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Treća životna dob"/>
+        <filter val="Novorođenče"/>
+        <filter val="Novorođenče, predškolska dob, školska dob"/>
+        <filter val="Novorođenče, predškolska dob, školska dob, radni vijek, treća životna dob"/>
+        <filter val="Novorođenče; Predškolska dob; Školska dob"/>
+        <filter val="Novorođenče; Predškolska dob; Školska dob; Radni vijek;"/>
+        <filter val="Novorođenče; Predškolska dob; Školska dob; Radni vijek; Treća životna dob"/>
+        <filter val="Predškolska dob, školska dob"/>
+        <filter val="Predškolska dob;"/>
+        <filter val="Predškolska dob; Školska dob"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F62">
+      <sortCondition ref="F1:F62"/>
+    </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A76:A89">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E13 E15 E17:E18 E25" xr:uid="{C1C4E9A7-6004-4A23-9DB4-D2602854CE25}">
@@ -15881,11 +15997,11 @@
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15899,24 +16015,24 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="101" customFormat="1">
       <c r="A2" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B2" s="101" t="s">
         <v>68</v>
@@ -15933,7 +16049,7 @@
     </row>
     <row r="3" spans="1:6" s="90" customFormat="1" hidden="1">
       <c r="A3" s="89" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>38</v>
@@ -15942,7 +16058,7 @@
         <v>222</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F3" s="90" t="s">
         <v>51</v>
@@ -15950,10 +16066,10 @@
     </row>
     <row r="4" spans="1:6" s="101" customFormat="1">
       <c r="A4" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>110</v>
@@ -15962,7 +16078,7 @@
         <v>256</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="90" customFormat="1" hidden="1">
@@ -15976,15 +16092,15 @@
         <v>222</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="101" customFormat="1">
       <c r="A6" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B6" s="101" t="s">
         <v>69</v>
@@ -16001,7 +16117,7 @@
     </row>
     <row r="7" spans="1:6" s="101" customFormat="1">
       <c r="A7" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B7" s="101" t="s">
         <v>62</v>
@@ -16010,7 +16126,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F7" s="101" t="s">
         <v>60</v>
@@ -16021,16 +16137,16 @@
         <v>98</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="D8" s="98" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="94" customFormat="1">
@@ -16044,32 +16160,32 @@
         <v>271</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="F9" s="94" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="101" customFormat="1">
       <c r="A10" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D10" s="101" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="106" customFormat="1">
       <c r="A11" s="105" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B11" s="106" t="s">
         <v>42</v>
@@ -16081,15 +16197,15 @@
         <v>264</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A12" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D12" s="101" t="s">
         <v>110</v>
@@ -16098,12 +16214,12 @@
         <v>111</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="101" customFormat="1">
       <c r="A13" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B13" s="101" t="s">
         <v>17</v>
@@ -16115,12 +16231,12 @@
         <v>111</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="101" customFormat="1">
       <c r="A14" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B14" s="101" t="s">
         <v>20</v>
@@ -16132,12 +16248,12 @@
         <v>111</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A15" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>53</v>
@@ -16154,7 +16270,7 @@
     </row>
     <row r="16" spans="1:6" s="101" customFormat="1">
       <c r="A16" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B16" s="101" t="s">
         <v>21</v>
@@ -16166,12 +16282,12 @@
         <v>111</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="101" customFormat="1">
       <c r="A17" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B17" s="101" t="s">
         <v>63</v>
@@ -16188,7 +16304,7 @@
     </row>
     <row r="18" spans="1:6" s="101" customFormat="1">
       <c r="A18" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B18" s="101" t="s">
         <v>63</v>
@@ -16197,7 +16313,7 @@
         <v>110</v>
       </c>
       <c r="E18" s="101" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F18" s="101" t="s">
         <v>60</v>
@@ -16205,7 +16321,7 @@
     </row>
     <row r="19" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A19" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B19" s="101" t="s">
         <v>46</v>
@@ -16222,7 +16338,7 @@
     </row>
     <row r="20" spans="1:6" s="90" customFormat="1" hidden="1">
       <c r="A20" s="89" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B20" s="90" t="s">
         <v>47</v>
@@ -16239,7 +16355,7 @@
     </row>
     <row r="21" spans="1:6" s="101" customFormat="1">
       <c r="A21" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B21" s="101" t="s">
         <v>25</v>
@@ -16251,12 +16367,12 @@
         <v>111</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="101" customFormat="1">
       <c r="A22" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B22" s="101" t="s">
         <v>64</v>
@@ -16273,7 +16389,7 @@
     </row>
     <row r="23" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A23" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B23" s="101" t="s">
         <v>28</v>
@@ -16285,7 +16401,7 @@
         <v>118</v>
       </c>
       <c r="F23" s="101" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="101" customFormat="1">
@@ -16293,16 +16409,16 @@
         <v>98</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D24" s="101" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="101" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F24" s="101" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="101" customFormat="1" hidden="1">
@@ -16333,10 +16449,10 @@
         <v>110</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F26" s="101" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="101" customFormat="1">
@@ -16350,12 +16466,12 @@
         <v>110</v>
       </c>
       <c r="F27" s="101" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="101" customFormat="1">
       <c r="A28" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B28" s="101" t="s">
         <v>65</v>
@@ -16372,7 +16488,7 @@
     </row>
     <row r="29" spans="1:6" s="101" customFormat="1">
       <c r="A29" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B29" s="101" t="s">
         <v>66</v>
@@ -16381,7 +16497,7 @@
         <v>110</v>
       </c>
       <c r="E29" s="101" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>60</v>
@@ -16389,7 +16505,7 @@
     </row>
     <row r="30" spans="1:6" s="101" customFormat="1">
       <c r="A30" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B30" s="101" t="s">
         <v>67</v>
@@ -16398,7 +16514,7 @@
         <v>110</v>
       </c>
       <c r="E30" s="101" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F30" s="101" t="s">
         <v>60</v>
@@ -16409,18 +16525,18 @@
         <v>167</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="D31" s="101" t="s">
         <v>110</v>
       </c>
       <c r="F31" s="101" t="s">
-        <v>440</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="106" customFormat="1">
       <c r="A32" s="105" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B32" s="106" t="s">
         <v>70</v>
@@ -16429,7 +16545,7 @@
         <v>88</v>
       </c>
       <c r="E32" s="106" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F32" s="106" t="s">
         <v>60</v>
@@ -16446,7 +16562,7 @@
         <v>110</v>
       </c>
       <c r="F33" s="101" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="90" customFormat="1" hidden="1">
@@ -16460,7 +16576,7 @@
         <v>222</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F34" s="90" t="s">
         <v>51</v>
@@ -16477,7 +16593,7 @@
         <v>110</v>
       </c>
       <c r="F35" s="101" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="94" customFormat="1" hidden="1">
@@ -16488,10 +16604,10 @@
         <v>43</v>
       </c>
       <c r="D36" s="94" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="101" customFormat="1">
@@ -16505,7 +16621,7 @@
         <v>110</v>
       </c>
       <c r="E37" s="101" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>60</v>
@@ -16519,21 +16635,21 @@
         <v>13</v>
       </c>
       <c r="D38" s="94" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="E38" s="94" t="s">
         <v>187</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="101" customFormat="1">
       <c r="A39" s="100" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B39" s="102" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D39" s="101" t="s">
         <v>110</v>
@@ -16542,7 +16658,7 @@
         <v>101</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="94" customFormat="1" hidden="1">
@@ -16550,7 +16666,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="95" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="D40" s="94" t="s">
         <v>271</v>
@@ -16559,12 +16675,12 @@
         <v>272</v>
       </c>
       <c r="F40" s="94" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="106" customFormat="1">
       <c r="A41" s="105" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B41" s="106" t="s">
         <v>8</v>
@@ -16576,12 +16692,12 @@
         <v>135</v>
       </c>
       <c r="F41" s="106" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="106" customFormat="1">
       <c r="A42" s="105" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B42" s="106" t="s">
         <v>9</v>
@@ -16593,12 +16709,12 @@
         <v>89</v>
       </c>
       <c r="F42" s="106" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="106" customFormat="1">
       <c r="A43" s="105" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B43" s="106" t="s">
         <v>10</v>
@@ -16610,12 +16726,12 @@
         <v>89</v>
       </c>
       <c r="F43" s="106" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="106" customFormat="1" hidden="1">
       <c r="A44" s="105" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B44" s="106" t="s">
         <v>34</v>
@@ -16627,24 +16743,24 @@
         <v>89</v>
       </c>
       <c r="F44" s="106" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="106" customFormat="1" hidden="1">
       <c r="A45" s="105" t="s">
-        <v>472</v>
-      </c>
-      <c r="B45" s="106" t="s">
+        <v>485</v>
+      </c>
+      <c r="B45" s="157" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E45" s="106" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F45" s="106" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="90" customFormat="1" hidden="1">
@@ -16652,13 +16768,13 @@
         <v>98</v>
       </c>
       <c r="B46" s="92" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D46" s="90" t="s">
         <v>222</v>
       </c>
       <c r="E46" s="92" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F46" s="90" t="s">
         <v>51</v>
@@ -16675,7 +16791,7 @@
         <v>222</v>
       </c>
       <c r="E47" s="92" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F47" s="90" t="s">
         <v>51</v>
@@ -16683,7 +16799,7 @@
     </row>
     <row r="48" spans="1:6" s="106" customFormat="1">
       <c r="A48" s="105" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B48" s="106" t="s">
         <v>26</v>
@@ -16695,12 +16811,12 @@
         <v>89</v>
       </c>
       <c r="F48" s="106" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="106" customFormat="1">
       <c r="A49" s="105" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B49" s="106" t="s">
         <v>27</v>
@@ -16712,7 +16828,7 @@
         <v>204</v>
       </c>
       <c r="F49" s="106" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="106" customFormat="1">
@@ -16729,7 +16845,7 @@
         <v>169</v>
       </c>
       <c r="F50" s="106" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="106" customFormat="1" hidden="1">
@@ -16737,16 +16853,16 @@
         <v>98</v>
       </c>
       <c r="B51" s="108" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D51" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="106" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F51" s="106" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="106" customFormat="1">
@@ -16760,10 +16876,10 @@
         <v>88</v>
       </c>
       <c r="E52" s="106" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F52" s="106" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="101" customFormat="1" hidden="1">
@@ -16771,7 +16887,7 @@
         <v>167</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="D53" s="101" t="s">
         <v>110</v>
@@ -16794,7 +16910,7 @@
         <v>184</v>
       </c>
       <c r="F54" s="106" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="106" customFormat="1">
@@ -16811,7 +16927,7 @@
         <v>97</v>
       </c>
       <c r="F55" s="106" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="101" customFormat="1" hidden="1">
@@ -16870,7 +16986,7 @@
         <v>199</v>
       </c>
       <c r="E59" s="98" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="F59" s="98" t="s">
         <v>40</v>
@@ -16890,7 +17006,7 @@
         <v>233</v>
       </c>
       <c r="F60" s="106" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="106" customFormat="1" hidden="1">
@@ -16907,7 +17023,7 @@
         <v>97</v>
       </c>
       <c r="F61" s="106" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="106" customFormat="1">
@@ -16921,7 +17037,7 @@
         <v>88</v>
       </c>
       <c r="F62" s="106" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -16937,10 +17053,10 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A76:A89">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28 D13 D15 D17:D18 D25" xr:uid="{B9FF6229-F6FB-4F96-8339-6D0E1C29EB5B}">
@@ -16969,8 +17085,8 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25"/>
@@ -17077,7 +17193,7 @@
         <v>316</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>318</v>
@@ -17085,7 +17201,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q2" s="41"/>
     </row>
@@ -17100,13 +17216,13 @@
         <v>99</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>102</v>
@@ -17124,7 +17240,7 @@
         <v>106</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>108</v>
@@ -17132,7 +17248,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q3" s="41"/>
     </row>
@@ -17147,7 +17263,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>110</v>
@@ -17172,7 +17288,7 @@
         <v>260</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>262</v>
@@ -17181,7 +17297,7 @@
         <v>258</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="41"/>
     </row>
@@ -17196,7 +17312,7 @@
         <v>124</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>110</v>
@@ -17223,7 +17339,7 @@
         <v>130</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>132</v>
@@ -17232,7 +17348,7 @@
         <v>133</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="41"/>
     </row>
@@ -17271,7 +17387,7 @@
         <v>321</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q6" s="41"/>
     </row>
@@ -17286,7 +17402,7 @@
         <v>322</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>110</v>
@@ -17320,7 +17436,7 @@
         <v>328</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="41"/>
     </row>
@@ -17335,7 +17451,7 @@
         <v>134</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>88</v>
@@ -17371,7 +17487,7 @@
         <v>95</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q8" s="41"/>
     </row>
@@ -17386,7 +17502,7 @@
         <v>138</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>88</v>
@@ -17422,7 +17538,7 @@
         <v>95</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q9" s="41"/>
     </row>
@@ -17437,7 +17553,7 @@
         <v>141</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>88</v>
@@ -17473,7 +17589,7 @@
         <v>95</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="41"/>
     </row>
@@ -17488,7 +17604,7 @@
         <v>263</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>88</v>
@@ -17520,7 +17636,7 @@
       </c>
       <c r="O11" s="20"/>
       <c r="P11" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q11" s="41"/>
     </row>
@@ -17535,7 +17651,7 @@
         <v>208</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>88</v>
@@ -17571,7 +17687,7 @@
         <v>95</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="47"/>
     </row>
@@ -17586,7 +17702,7 @@
         <v>211</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>88</v>
@@ -17622,7 +17738,7 @@
         <v>220</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q13" s="47"/>
     </row>
@@ -17637,7 +17753,7 @@
         <v>109</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>110</v>
@@ -17669,7 +17785,7 @@
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q14" s="41"/>
     </row>
@@ -17716,7 +17832,7 @@
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q15" s="41"/>
     </row>
@@ -17731,7 +17847,7 @@
         <v>144</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>110</v>
@@ -17765,7 +17881,7 @@
       </c>
       <c r="O16" s="20"/>
       <c r="P16" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q16" s="47"/>
     </row>
@@ -17814,7 +17930,7 @@
       </c>
       <c r="O17" s="20"/>
       <c r="P17" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="41"/>
     </row>
@@ -17865,7 +17981,7 @@
         <v>328</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q18" s="51"/>
     </row>
@@ -17914,7 +18030,7 @@
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q19" s="41"/>
     </row>
@@ -17963,7 +18079,7 @@
         <v>250</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="41"/>
     </row>
@@ -17978,7 +18094,7 @@
         <v>149</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>110</v>
@@ -18012,7 +18128,7 @@
       </c>
       <c r="O21" s="20"/>
       <c r="P21" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q21" s="41"/>
     </row>
@@ -18027,7 +18143,7 @@
         <v>152</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>110</v>
@@ -18061,7 +18177,7 @@
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="41"/>
     </row>
@@ -18076,7 +18192,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>110</v>
@@ -18110,7 +18226,7 @@
       </c>
       <c r="O23" s="20"/>
       <c r="P23" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="47"/>
     </row>
@@ -18128,7 +18244,7 @@
         <v>95</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>89</v>
@@ -18161,7 +18277,7 @@
         <v>95</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q24" s="54"/>
     </row>
@@ -18197,20 +18313,20 @@
         <v>315</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19" t="s">
         <v>340</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="56"/>
     </row>
@@ -18228,7 +18344,7 @@
         <v>88</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>204</v>
@@ -18261,7 +18377,7 @@
         <v>95</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q26" s="47"/>
     </row>
@@ -18276,13 +18392,13 @@
         <v>117</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>119</v>
@@ -18301,12 +18417,12 @@
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q27" s="47"/>
     </row>
@@ -18342,10 +18458,10 @@
         <v>315</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>344</v>
@@ -18355,7 +18471,7 @@
         <v>345</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q28" s="47"/>
     </row>
@@ -18404,7 +18520,7 @@
         <v>328</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q29" s="47"/>
     </row>
@@ -18453,7 +18569,7 @@
         <v>328</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q30" s="47"/>
     </row>
@@ -18468,7 +18584,7 @@
         <v>221</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>222</v>
@@ -18495,14 +18611,14 @@
         <v>227</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="N31" s="44" t="s">
         <v>229</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q31" s="47"/>
     </row>
@@ -18551,7 +18667,7 @@
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q32" s="47"/>
     </row>
@@ -18600,7 +18716,7 @@
       </c>
       <c r="O33" s="21"/>
       <c r="P33" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q33" s="47"/>
     </row>
@@ -18621,27 +18737,27 @@
         <v>88</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="20" t="s">
         <v>354</v>
       </c>
       <c r="P34" s="40" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q34" s="47"/>
     </row>
@@ -18656,7 +18772,7 @@
         <v>168</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>88</v>
@@ -18680,7 +18796,7 @@
       <c r="N35" s="44"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q35" s="47"/>
     </row>
@@ -18729,7 +18845,7 @@
       </c>
       <c r="O36" s="60"/>
       <c r="P36" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q36" s="47"/>
     </row>
@@ -18744,7 +18860,7 @@
         <v>159</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>88</v>
@@ -18762,7 +18878,7 @@
       <c r="N37" s="44"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="47"/>
     </row>
@@ -18777,10 +18893,10 @@
         <v>172</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>173</v>
@@ -18811,7 +18927,7 @@
       </c>
       <c r="O38" s="60"/>
       <c r="P38" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q38" s="47"/>
     </row>
@@ -18829,7 +18945,7 @@
         <v>60</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>173</v>
@@ -18858,7 +18974,7 @@
       </c>
       <c r="O39" s="60"/>
       <c r="P39" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q39" s="47"/>
     </row>
@@ -18873,7 +18989,7 @@
         <v>181</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>88</v>
@@ -18907,7 +19023,7 @@
       </c>
       <c r="O40" s="60"/>
       <c r="P40" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q40" s="47"/>
     </row>
@@ -18942,7 +19058,7 @@
       <c r="N41" s="44"/>
       <c r="O41" s="60"/>
       <c r="P41" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q41" s="47"/>
     </row>
@@ -18957,10 +19073,10 @@
         <v>270</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>272</v>
@@ -18979,7 +19095,7 @@
       <c r="N42" s="44"/>
       <c r="O42" s="60"/>
       <c r="P42" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q42" s="47"/>
     </row>
@@ -18994,7 +19110,7 @@
         <v>183</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>88</v>
@@ -19012,7 +19128,7 @@
       <c r="N43" s="44"/>
       <c r="O43" s="60"/>
       <c r="P43" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q43" s="47"/>
     </row>
@@ -19027,7 +19143,7 @@
         <v>185</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21" t="s">
@@ -19049,7 +19165,7 @@
       <c r="N44" s="44"/>
       <c r="O44" s="60"/>
       <c r="P44" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q44" s="47"/>
     </row>
@@ -19064,7 +19180,7 @@
         <v>190</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>191</v>
@@ -19086,7 +19202,7 @@
       <c r="N45" s="44"/>
       <c r="O45" s="60"/>
       <c r="P45" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q45" s="47"/>
     </row>
@@ -19099,7 +19215,7 @@
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21" t="s">
@@ -19115,7 +19231,7 @@
       <c r="N46" s="44"/>
       <c r="O46" s="60"/>
       <c r="P46" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q46" s="47"/>
     </row>
@@ -19142,7 +19258,7 @@
       <c r="N47" s="44"/>
       <c r="O47" s="60"/>
       <c r="P47" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q47" s="47"/>
     </row>
@@ -19173,7 +19289,7 @@
       <c r="N48" s="60"/>
       <c r="O48" s="60"/>
       <c r="P48" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q48" s="47"/>
     </row>
@@ -19222,7 +19338,7 @@
       </c>
       <c r="O49" s="60"/>
       <c r="P49" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q49" s="47"/>
     </row>
@@ -19251,7 +19367,7 @@
       <c r="N50" s="44"/>
       <c r="O50" s="60"/>
       <c r="P50" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q50" s="47"/>
     </row>
@@ -19266,7 +19382,7 @@
         <v>232</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>88</v>
@@ -19294,7 +19410,7 @@
       </c>
       <c r="O51" s="60"/>
       <c r="P51" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q51" s="47"/>
     </row>
@@ -19309,7 +19425,7 @@
         <v>230</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>222</v>
@@ -19327,7 +19443,7 @@
       <c r="N52" s="60"/>
       <c r="O52" s="60"/>
       <c r="P52" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q52" s="47"/>
     </row>
@@ -19342,7 +19458,7 @@
         <v>161</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>88</v>
@@ -19362,7 +19478,7 @@
       <c r="N53" s="44"/>
       <c r="O53" s="60"/>
       <c r="P53" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Q53" s="47"/>
     </row>
@@ -19377,7 +19493,7 @@
         <v>163</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>110</v>
@@ -19395,7 +19511,7 @@
       <c r="N54" s="44"/>
       <c r="O54" s="60"/>
       <c r="P54" s="60" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="74.099999999999994" customHeight="1">
@@ -19425,7 +19541,7 @@
       <c r="N55" s="60"/>
       <c r="O55" s="60"/>
       <c r="P55" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="102.6" customHeight="1">
@@ -19439,7 +19555,7 @@
         <v>195</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E56" s="60"/>
       <c r="F56" s="60"/>
@@ -19457,7 +19573,7 @@
       <c r="N56" s="60"/>
       <c r="O56" s="60"/>
       <c r="P56" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="66.95" customHeight="1">
@@ -19471,7 +19587,7 @@
         <v>165</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="E57" s="60"/>
       <c r="F57" s="60"/>
@@ -19487,7 +19603,7 @@
       <c r="N57" s="60"/>
       <c r="O57" s="60"/>
       <c r="P57" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="69.599999999999994" customHeight="1">
@@ -19517,7 +19633,7 @@
       <c r="N58" s="60"/>
       <c r="O58" s="60"/>
       <c r="P58" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="93" customHeight="1">
@@ -19547,7 +19663,7 @@
       <c r="N59" s="60"/>
       <c r="O59" s="60"/>
       <c r="P59" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="83.1" customHeight="1">
@@ -19577,7 +19693,7 @@
       <c r="N60" s="60"/>
       <c r="O60" s="60"/>
       <c r="P60" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="66.95" customHeight="1">
@@ -19607,7 +19723,7 @@
       <c r="N61" s="60"/>
       <c r="O61" s="60"/>
       <c r="P61" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="77.099999999999994" customHeight="1">
@@ -19621,7 +19737,7 @@
         <v>198</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E62" s="60"/>
       <c r="F62" s="60"/>
@@ -19637,7 +19753,7 @@
       <c r="N62" s="60"/>
       <c r="O62" s="60"/>
       <c r="P62" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="99.6" customHeight="1">
@@ -19651,7 +19767,7 @@
         <v>201</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E63" s="60"/>
       <c r="F63" s="60"/>
@@ -19667,7 +19783,7 @@
       <c r="N63" s="60"/>
       <c r="O63" s="60"/>
       <c r="P63" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="72" customHeight="1">
@@ -19679,7 +19795,7 @@
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="21" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E64" s="60"/>
       <c r="F64" s="60"/>
@@ -19693,11 +19809,11 @@
       <c r="N64" s="60"/>
       <c r="O64" s="60"/>
       <c r="P64" s="60" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E13 E24:E26 E17:E18 E15" xr:uid="{8F6D427C-4D66-407D-B279-1FD094E3ED04}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -19805,7 +19921,7 @@
   <legacyDrawing r:id="rId98"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2522289A-6D68-4404-8C0A-891536904C5A}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$22</xm:f>
@@ -19837,13 +19953,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -19852,7 +19968,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>51</v>
@@ -19866,10 +19982,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -19895,10 +20011,10 @@
     </row>
     <row r="3" spans="1:9" ht="63">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
         <v>222</v>
@@ -19924,10 +20040,10 @@
     </row>
     <row r="4" spans="1:9" ht="115.5">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
         <v>186</v>
@@ -19999,7 +20115,7 @@
     </row>
     <row r="7" spans="1:9" ht="94.5">
       <c r="C7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -20059,7 +20175,7 @@
     </row>
     <row r="10" spans="1:9" ht="94.5">
       <c r="C10" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -27891,7 +28007,7 @@
       </c>
       <c r="Q145" s="47"/>
     </row>
-    <row r="146" spans="1:17" s="48" customFormat="1" ht="360">
+    <row r="146" spans="1:17" s="48" customFormat="1" ht="348.75">
       <c r="A146" s="19">
         <v>21</v>
       </c>
@@ -27973,7 +28089,7 @@
       </c>
       <c r="Q147" s="47"/>
     </row>
-    <row r="148" spans="1:17" s="48" customFormat="1" ht="52.5">
+    <row r="148" spans="1:17" s="48" customFormat="1" ht="42">
       <c r="A148" s="19">
         <v>31</v>
       </c>
@@ -29442,7 +29558,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
@@ -29457,7 +29573,7 @@
   <dimension ref="B1:U28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="77" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29467,118 +29583,118 @@
   <sheetData>
     <row r="1" spans="2:21" ht="32.450000000000003" customHeight="1"/>
     <row r="2" spans="2:21">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="158" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="159" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="157"/>
-      <c r="T6" s="157"/>
-      <c r="U6" s="157"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="2:21" ht="18.95" customHeight="1">
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
     </row>
     <row r="28" spans="13:19" ht="18.75">
       <c r="M28" s="148" t="s">
@@ -29608,7 +29724,7 @@
   <dimension ref="B9:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -29618,7 +29734,8 @@
     <col min="3" max="3" width="76" style="15" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="151" customWidth="1"/>
     <col min="5" max="5" width="85.28515625" style="150" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="150" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="150" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="150" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="18"/>
     <col min="10" max="16384" width="8.5703125" style="10"/>
   </cols>
@@ -29632,11 +29749,11 @@
         <v>361</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12" s="154" t="str">
         <f>VLOOKUP(C12,Table2[[Naziv ]:[Dodatne napomene]],2,0)</f>
-        <v>Licima sa invaliditetom i grupe sa 100% tjelesnog oštećenja i licima sa invaliditetom II grupe sa 90% tjelesnog oštećenja, omogućiti ostvarivanje prava na ličnu invalidninu, dodatak za njegu i pomoć od strane drugog lica i ortopedski dodatak.</v>
+        <v>Utvrđivanja preostale sposobnosti i razvrstavanja djece i omladine, vodi se do navršene 18. godine života djeteta.</v>
       </c>
       <c r="F12" s="152" t="str">
         <f>VLOOKUP(C12,Table2[[Naziv ]:[Dodatne napomene]],6,0)</f>
@@ -29648,7 +29765,7 @@
       </c>
       <c r="H12" s="153">
         <f>VLOOKUP(C12,Table2[[Naziv ]:[Dodatne napomene]],9,0)</f>
-        <v>38733723635</v>
+        <v>38733723640</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
@@ -29660,23 +29777,23 @@
         <v>362</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E14" s="154" t="str">
         <f>VLOOKUP(C14,Table5[],2,0)</f>
-        <v>Pravo na Socijalni paket ostvaruju: porodice palog borca, ratni vojni invalidi sa 100% invalidnosti, slijepa lica i kategorije, lica oboljela od distrofije i srodnih bolesti, paraplegičari, oboljeli od dječje ili cerebralne paralize i multiple skleroze i korisnici stalne novčane pomoći, u smislu zakona o osnovama socijalne zaštite, zaštite civilnih žrtava rata i zaštite porodica sa djecom i odgovarajućih kantonalnih pozitivnih propisa u FBiH, kojima se uređuje ova oblast.</v>
+        <v>Općina Ilidža: Općinski načelnik dodjeljuje jednokratnu novčanu pomoć osobama sa invaliditetom sa posebnim potrebama koje su u socijalnoj potrebi.</v>
       </c>
       <c r="F14" s="152" t="str">
         <f>VLOOKUP(C14,Table5[],6,0)</f>
-        <v>BH Telecom</v>
+        <v>Općina Ilidža</v>
       </c>
       <c r="G14" s="152" t="str">
         <f>VLOOKUP(C14,Table5[],7,0)</f>
-        <v>Zmaja od Bosne 88</v>
+        <v>Butmirska cesta 12, prvi sprat</v>
       </c>
       <c r="H14" s="153">
         <f>VLOOKUP('1'!C14,Table5[],9,0)</f>
-        <v>38733653093</v>
+        <v>387733637384</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
@@ -29694,12 +29811,12 @@
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,2,0)</f>
         <v>Roditelji staratelji imaju isti status osiguranja kao i zaposleni pojedinci.</v>
       </c>
-      <c r="F16" s="158" t="str">
+      <c r="F16" s="161" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>Zakon o roditeljima njegovateljima u Federaciji Bosne i Hercegovine</v>
       </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
     </row>
     <row r="17" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -29808,7 +29925,7 @@
       </c>
       <c r="H14" s="153">
         <f>VLOOKUP('1'!C14,Table5[],9,0)</f>
-        <v>38733653093</v>
+        <v>387733637384</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
@@ -29826,12 +29943,12 @@
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,2,0)</f>
         <v>Roditelji staratelji imaju isti status osiguranja kao i zaposleni pojedinci.</v>
       </c>
-      <c r="F16" s="158" t="str">
+      <c r="F16" s="161" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>Zakon o roditeljima njegovateljima u Federaciji Bosne i Hercegovine</v>
       </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
     </row>
     <row r="17" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -29941,7 +30058,7 @@
       </c>
       <c r="H14" s="153">
         <f>VLOOKUP('1'!C14,Table5[],9,0)</f>
-        <v>38733653093</v>
+        <v>387733637384</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
@@ -29961,12 +30078,12 @@
 Roditelju lica s invaliditetom može se priznati status roditelja njegovatelja ukoliko je nazaposlen i prijavljen na evidenciji nadležne službe za zapošljavanje.
 Status roditelja njegovatelja priznaje se jednom od roditelja lica s invaliditetom sa 100% oštećenjem organizma i pravom na dodatak za njegu i pomoć od drugog lica.</v>
       </c>
-      <c r="F16" s="158" t="str">
+      <c r="F16" s="161" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>Zakon o roditeljima njegovateljima u Federaciji Bosne i Hercegovine</v>
       </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
     </row>
     <row r="17" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -30007,7 +30124,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
@@ -30063,25 +30182,23 @@
         <v>362</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E14" s="154" t="str">
         <f>VLOOKUP(C14,Table5[],2,0)</f>
-        <v>Osobe s invaliditetom i poteškoćama u razvoju mogu biti oslobođene plaćanja uvoznih dadžbina, odnosno carine i PDV-a, ako planiraju kupiti i uvesti automobil koji će im poslužiti kao ortopedsko ili drugo pomagalo.
-Pravo na oslobađanje odnosi se na period od pet godina, što znači nakon uvoza vozila na ovaj način, u narednih pet godina ne mogu na isti način uvesti vozilo. Tek nakon isteka perioda od pet godina mogu ponovo na povlasticu uvesti vozilo. Isto tako, vozilo ne smiju prodati u trajanju od tri godine od dana uvoza, jer ako to urade moraju platiti sve uvozne dažbine.
-Invalidna osoba može uvesti putnički automobil do vrijednosti od 30.000 KM ako nije posebno prilagođen za upravljanje invalidnih osoba ili bez ograničenja vrijednosti ako se uvozi putnički automobil posebno prilagođen za prijevoz invalidnih osoba.</v>
+        <v>Općina Ilidža: Općinski načelnik dodjeljuje jednokratnu novčanu pomoć osobama sa invaliditetom sa posebnim potrebama koje su u socijalnoj potrebi.</v>
       </c>
       <c r="F14" s="152" t="str">
         <f>VLOOKUP(C14,Table5[],6,0)</f>
-        <v>MUP Kantona Sarajevo</v>
-      </c>
-      <c r="G14" s="152">
+        <v>Općina Ilidža</v>
+      </c>
+      <c r="G14" s="152" t="str">
         <f>VLOOKUP(C14,Table5[],7,0)</f>
-        <v>0</v>
+        <v>Butmirska cesta 12, prvi sprat</v>
       </c>
       <c r="H14" s="153">
         <f>VLOOKUP('1'!C14,Table5[],9,0)</f>
-        <v>38733653093</v>
+        <v>387733637384</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
@@ -30099,12 +30216,12 @@
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,2,0)</f>
         <v>Osobe sa invaliditetom imaju pravo na zapošljavanje i rad na tržištu rada pod opštim i posebnim uslovima. Pod opštim uslovima, OSI se mogu zaposliti u različitim subjektima javnog i privatnog sektora. U javnom sektoru osobe sa invaliditetom imaju povlaštena prava pri zapošljavanju ako ispunjavaju i opšte i posebne uslove za posao</v>
       </c>
-      <c r="F16" s="158" t="str">
+      <c r="F16" s="161" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
-        <v>Zakon o profesionalnoj rehabilitaciji; osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</v>
-      </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
+        <v>Zakon o profesionalnoj rehabilitaciji, osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</v>
+      </c>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
     </row>
     <row r="17" ht="15.75" thickTop="1"/>
   </sheetData>

--- a/Mapping of services.xlsx
+++ b/Mapping of services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c4b80eda687d6f6/2023_New Care_Elderly and PwD/3_phase Flowchart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\amra-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4A42EE-346C-434E-A952-350CDFCB88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD85A6-7C26-4E43-9280-941D0830CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="11" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="14" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="358" r:id="rId19"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1688,6 +1688,7 @@
         <sz val="13.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Prvi korak u slučaju sumnje na određeni stupanj invaliditeta podrazumijeva </t>
     </r>
@@ -1697,6 +1698,7 @@
         <sz val="13.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>postavljanje dijagnoze i medicinsko vještačenje</t>
     </r>
@@ -1705,6 +1707,7 @@
         <sz val="13.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>. Dijagnoza se postavlja u suradnji s liječnicima i specijalistima, nakon čega je potrebno zakazati medicinsko vještačenje u odgovarajućem zdravstvenom institutu ili bolnici. Proces dijagnosticiranja može se sažeti kroz sljedeće korake:</t>
     </r>
@@ -2737,12 +2740,14 @@
       <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -3391,11 +3396,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3403,17 +3411,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3424,9 +3432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3435,21 +3440,13 @@
   <dxfs count="57">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3490,6 +3487,44 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3724,13 +3759,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -3746,6 +3774,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3781,16 +3816,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4152,13 +4177,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4190,6 +4208,13 @@
         </patternFill>
       </fill>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4225,16 +4250,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4452,16 +4467,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9701,7 +9706,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2535653E-3F3D-41C5-B70A-E522D18EB692}" name="PivotTable2" cacheId="358" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2535653E-3F3D-41C5-B70A-E522D18EB692}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B180" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -10552,70 +10557,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A1:F11" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3CD3A6FA-48B3-4742-8A53-DD72379ADF8D}" name="Naziv " dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{822BDE87-6F30-4A0E-A5E2-A9CA37AF424B}" name="Opis" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{58D77055-6C4D-4085-8930-2E537F7B48A2}" name="Životna dob" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{63ED1170-2807-4400-9BED-30ED8580EBF4}" name="Pravni osnov" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{EDBC30B4-6F48-4A07-8E16-A1D618F93B57}" name="Pojašnjenje (Član)" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{97503B81-1CB4-45AC-A9F3-58BBE73723CB}" name="Web stranica" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{3CD3A6FA-48B3-4742-8A53-DD72379ADF8D}" name="Naziv " dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{822BDE87-6F30-4A0E-A5E2-A9CA37AF424B}" name="Opis" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{58D77055-6C4D-4085-8930-2E537F7B48A2}" name="Životna dob" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{63ED1170-2807-4400-9BED-30ED8580EBF4}" name="Pravni osnov" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{EDBC30B4-6F48-4A07-8E16-A1D618F93B57}" name="Pojašnjenje (Član)" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{97503B81-1CB4-45AC-A9F3-58BBE73723CB}" name="Web stranica" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}" name="Table2" displayName="Table2" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}" name="Table2" displayName="Table2" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A1:Q31" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{1F9E85E2-0B42-4580-82E0-6EEF465356B7}" name="#" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{4219DB81-11D2-48FE-B7E2-5608FFF50B55}" name="Naziv " dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{694A58F1-2A0C-4062-B856-7D3DE3AB2B87}" name="Opis" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{E6B32774-7F5A-4404-BA91-DAEFC1C6DC74}" name="Životna dob" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{F53571F7-E67A-4D75-B971-A9E579E334CE}" name="Godine" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{C56B24ED-F555-4C1E-8F1F-95E0A9F19EBD}" name="Tip usluge/prava/benefita" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{E061CC34-19FF-417C-8134-E10A7AFAB410}" name="Institucija" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{772F549A-88E3-465F-A720-D9DB53E72F53}" name="Adresa" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{4CEF74C2-07E0-4B89-85D3-C9E9B9A1743A}" name="Web stranica" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{DF65403C-1AF1-4456-B8F7-E59BD4641A90}" name="Telefon" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{691CF05D-6BDD-4AAD-97E1-9C52B75F2E41}" name="Email" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{AE92B2E5-DC89-43B9-A62F-8B64611EDD93}" name="Pravni osnov" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{6CEED575-5B30-4A77-AB59-1EC60905A98A}" name="Proces aplikacije" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{FFE031DC-1278-4B8E-AE6A-C8D486B3F7DB}" name="Lista neophodnih dokumenata" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{A3CB64C4-787A-4D5D-A31E-037D47BCA561}" name="Link za informacije o prijavi" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{2A4E65B2-B182-44CE-8C1E-844CC2177CFC}" name="Vremenski okvir" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{D7268B50-AA0A-4678-B0CA-B96626BF4CE7}" name="Dodatne napomene" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{1F9E85E2-0B42-4580-82E0-6EEF465356B7}" name="#" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{4219DB81-11D2-48FE-B7E2-5608FFF50B55}" name="Naziv " dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{694A58F1-2A0C-4062-B856-7D3DE3AB2B87}" name="Opis" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{E6B32774-7F5A-4404-BA91-DAEFC1C6DC74}" name="Životna dob" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{F53571F7-E67A-4D75-B971-A9E579E334CE}" name="Godine" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{C56B24ED-F555-4C1E-8F1F-95E0A9F19EBD}" name="Tip usluge/prava/benefita" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{E061CC34-19FF-417C-8134-E10A7AFAB410}" name="Institucija" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{772F549A-88E3-465F-A720-D9DB53E72F53}" name="Adresa" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{4CEF74C2-07E0-4B89-85D3-C9E9B9A1743A}" name="Web stranica" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{DF65403C-1AF1-4456-B8F7-E59BD4641A90}" name="Telefon" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{691CF05D-6BDD-4AAD-97E1-9C52B75F2E41}" name="Email" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{AE92B2E5-DC89-43B9-A62F-8B64611EDD93}" name="Pravni osnov" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{6CEED575-5B30-4A77-AB59-1EC60905A98A}" name="Proces aplikacije" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{FFE031DC-1278-4B8E-AE6A-C8D486B3F7DB}" name="Lista neophodnih dokumenata" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{A3CB64C4-787A-4D5D-A31E-037D47BCA561}" name="Link za informacije o prijavi" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{2A4E65B2-B182-44CE-8C1E-844CC2177CFC}" name="Vremenski okvir" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{D7268B50-AA0A-4678-B0CA-B96626BF4CE7}" name="Dodatne napomene" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5FC73C86-88F7-4509-A95A-5168F4D44A8C}" name="Table5" displayName="Table5" ref="A1:N19" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5FC73C86-88F7-4509-A95A-5168F4D44A8C}" name="Table5" displayName="Table5" ref="A1:N19" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{93C9BA4B-E353-4D19-A8B1-FD649D881751}" name="Naziv " dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{37CD3CA4-A5B4-48AA-8EAB-A634118E07F6}" name="Opis" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{166DA75C-3FDE-4343-A1C5-D2960F08F3B9}" name="Tip usluge/prava/benefita" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{7400F049-A05D-4A4E-99A4-43B56FBA226C}" name="Životna dob" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{762D7820-5F72-4954-AFF5-8563D1F25EDF}" name="Korisnici" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{037E89ED-4586-4EB8-8009-1DC090C06F9E}" name="Ministartvo/Organizacija" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{2DE3B312-9D8F-4CF9-8624-2A6E25D376D2}" name="Adresa" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{F2FDB37F-57A2-4F5E-8AE1-29D816260855}" name="Web stranica" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{9507BFE2-DD4B-41AE-A7ED-EE3EA04689F9}" name="Telefon" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{422D2703-FD84-4A66-A590-54DC013958FF}" name="Email" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{7DAAC0A0-5795-416B-8172-BF7FB16CF71C}" name="Pravni okvir" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{3FECE412-1757-4D30-BE43-D03589D55C54}" name="Proces aplikacije" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{9CCCC0FB-8F10-4A5D-BA9F-34BEB2AACEA9}" name="Lista neophodnih dokumenata" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{897F94AA-266F-4177-BC01-F1BA673F652B}" name="Link za informacije o prijavi" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{93C9BA4B-E353-4D19-A8B1-FD649D881751}" name="Naziv " dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{37CD3CA4-A5B4-48AA-8EAB-A634118E07F6}" name="Opis" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{166DA75C-3FDE-4343-A1C5-D2960F08F3B9}" name="Tip usluge/prava/benefita" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7400F049-A05D-4A4E-99A4-43B56FBA226C}" name="Životna dob" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{762D7820-5F72-4954-AFF5-8563D1F25EDF}" name="Korisnici" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{037E89ED-4586-4EB8-8009-1DC090C06F9E}" name="Ministartvo/Organizacija" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{2DE3B312-9D8F-4CF9-8624-2A6E25D376D2}" name="Adresa" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{F2FDB37F-57A2-4F5E-8AE1-29D816260855}" name="Web stranica" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{9507BFE2-DD4B-41AE-A7ED-EE3EA04689F9}" name="Telefon" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{422D2703-FD84-4A66-A590-54DC013958FF}" name="Email" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{7DAAC0A0-5795-416B-8172-BF7FB16CF71C}" name="Pravni okvir" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{3FECE412-1757-4D30-BE43-D03589D55C54}" name="Proces aplikacije" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{9CCCC0FB-8F10-4A5D-BA9F-34BEB2AACEA9}" name="Lista neophodnih dokumenata" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{897F94AA-266F-4177-BC01-F1BA673F652B}" name="Link za informacije o prijavi" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}" name="Zivotnadob" displayName="Zivotnadob" ref="D1:D5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}" name="Zivotnadob" displayName="Zivotnadob" ref="D1:D5" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="D1:D5" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5BD196D3-17BC-4525-A2D1-C125915FE5E4}" name="Životna dob"/>
@@ -11103,12 +11108,12 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.140625" customWidth="1"/>
+    <col min="1" max="3" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.45" customHeight="1">
+    <row r="1" spans="1:15" ht="17.399999999999999" customHeight="1">
       <c r="A1" s="13" t="str" cm="1">
         <f t="array" ref="A1:A13">_xlfn._xlws.FILTER('Administrativni postupci'!$B$2:$B$96,ISNUMBER(SEARCH("Novorođenče",'Administrativni postupci'!$D$2:$D$96)), "0")</f>
         <v>Jednokratna novčana pomoć licima i domaćinstvima sa područja općine Novo Sarajevo</v>
@@ -11690,27 +11695,27 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="10"/>
-    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="10"/>
+    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="76" style="15" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" style="150" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="150" customWidth="1"/>
-    <col min="9" max="16384" width="8.5703125" style="10"/>
+    <col min="4" max="4" width="3.5546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="77.5546875" style="150" customWidth="1"/>
+    <col min="6" max="8" width="14.88671875" style="150" customWidth="1"/>
+    <col min="9" max="16384" width="8.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" ht="14.4">
       <c r="B2"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" ht="14.4">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" ht="14.4">
       <c r="B4"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:8" ht="14.4" thickBot="1"/>
     <row r="12" spans="2:8" ht="51" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>361</v>
@@ -11737,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B13" s="11"/>
       <c r="E13" s="155"/>
     </row>
@@ -11766,7 +11771,7 @@
         <v>387733637384</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B15" s="11"/>
       <c r="E15" s="155"/>
     </row>
@@ -11788,7 +11793,7 @@
       <c r="G16" s="161"/>
       <c r="H16" s="162"/>
     </row>
-    <row r="17" ht="15.75" thickTop="1"/>
+    <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F16:H16"/>
@@ -11831,13 +11836,13 @@
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="16.5">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="16.8">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -11856,7 +11861,7 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="50.45" customHeight="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="50.4" customHeight="1">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -11878,17 +11883,17 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A3" s="164" t="s">
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="50.4" customHeight="1">
+      <c r="A3" s="169" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11908,127 +11913,134 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="172"/>
+      <c r="D6" s="173"/>
     </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="173"/>
+      <c r="D7" s="174"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="165" t="e">
+      <c r="C8" s="166" t="e">
         <f>VLOOKUP(C7,All,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="D8" s="167"/>
     </row>
     <row r="9" spans="1:21" ht="78" customHeight="1">
-      <c r="B9" s="163"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171"/>
     </row>
     <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="169" t="e">
+      <c r="C10" s="163" t="e">
         <f>VLOOKUP($C$7,Usluge,6,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="170"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="D10" s="164"/>
+    </row>
+    <row r="11" spans="1:21" ht="15">
       <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="169" t="e">
+      <c r="C11" s="163" t="e">
         <f>VLOOKUP($C$7,Usluge,7,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="170"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="D11" s="164"/>
+    </row>
+    <row r="12" spans="1:21" ht="15">
       <c r="B12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="169" t="e">
+      <c r="C12" s="163" t="e">
         <f>VLOOKUP($C$7,Usluge,8,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="170"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="D12" s="164"/>
+    </row>
+    <row r="13" spans="1:21" ht="15">
       <c r="B13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="169" t="e">
+      <c r="C13" s="163" t="e">
         <f>VLOOKUP($C$7,Usluge,9,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="170"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="D13" s="164"/>
+    </row>
+    <row r="14" spans="1:21" ht="15">
       <c r="B14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="169" t="e">
+      <c r="C14" s="163" t="e">
         <f>VLOOKUP($C$7,Usluge,10,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="170"/>
+      <c r="D14" s="164"/>
     </row>
     <row r="15" spans="1:21" ht="62.25" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="165" t="e">
+      <c r="C15" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,11,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="167"/>
     </row>
     <row r="16" spans="1:21" ht="126" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="e">
+      <c r="C16" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,12,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="166"/>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="D16" s="167"/>
+    </row>
+    <row r="17" spans="2:4" ht="15">
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="169" t="e">
+      <c r="C17" s="163" t="e">
         <f>VLOOKUP($C$7,Usluge,13,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="170"/>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="D17" s="164"/>
+    </row>
+    <row r="18" spans="2:4" ht="15">
       <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="174" t="e">
+      <c r="C18" s="165" t="e">
         <f>VLOOKUP($C$7,Usluge,15,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="174"/>
+      <c r="D18" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C12:D12"/>
@@ -12036,13 +12048,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12072,23 +12077,23 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1">
+    <row r="1" spans="1:6" ht="24.9" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>1</v>
       </c>
@@ -12108,7 +12113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84">
+    <row r="2" spans="1:6" ht="79.8">
       <c r="A2" s="135" t="s">
         <v>54</v>
       </c>
@@ -12126,7 +12131,7 @@
       </c>
       <c r="F2" s="86"/>
     </row>
-    <row r="3" spans="1:6" ht="189">
+    <row r="3" spans="1:6" ht="182.4">
       <c r="A3" s="135" t="s">
         <v>16</v>
       </c>
@@ -12146,7 +12151,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="336">
+    <row r="4" spans="1:6" ht="296.39999999999998">
       <c r="A4" s="135" t="s">
         <v>19</v>
       </c>
@@ -12154,7 +12159,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D4" s="135" t="s">
         <v>371</v>
@@ -12163,7 +12168,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="189">
+    <row r="5" spans="1:6" ht="171">
       <c r="A5" s="135" t="s">
         <v>57</v>
       </c>
@@ -12181,7 +12186,7 @@
       </c>
       <c r="F5" s="135"/>
     </row>
-    <row r="6" spans="1:6" ht="315">
+    <row r="6" spans="1:6" ht="285">
       <c r="A6" s="135" t="s">
         <v>48</v>
       </c>
@@ -12199,7 +12204,7 @@
       </c>
       <c r="F6" s="86"/>
     </row>
-    <row r="7" spans="1:6" ht="283.5">
+    <row r="7" spans="1:6" ht="273.60000000000002">
       <c r="A7" s="135" t="s">
         <v>58</v>
       </c>
@@ -12217,7 +12222,7 @@
       </c>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="1:6" ht="220.5">
+    <row r="8" spans="1:6" ht="205.2">
       <c r="A8" s="135" t="s">
         <v>49</v>
       </c>
@@ -12235,7 +12240,7 @@
       </c>
       <c r="F8" s="135"/>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="102.6">
       <c r="A9" s="135" t="s">
         <v>22</v>
       </c>
@@ -12253,7 +12258,7 @@
       </c>
       <c r="F9" s="135"/>
     </row>
-    <row r="10" spans="1:6" ht="115.5">
+    <row r="10" spans="1:6" ht="91.2">
       <c r="A10" s="136" t="s">
         <v>23</v>
       </c>
@@ -12271,7 +12276,7 @@
       </c>
       <c r="F10" s="135"/>
     </row>
-    <row r="11" spans="1:6" ht="63">
+    <row r="11" spans="1:6" ht="57">
       <c r="A11" s="135" t="s">
         <v>24</v>
       </c>
@@ -12288,7 +12293,7 @@
     <sortCondition ref="A6:A11"/>
   </sortState>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{F41ABE82-6260-4AB9-9FC0-3D6CD3B57FED}"/>
@@ -12306,30 +12311,30 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="130" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="130" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="130" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="130" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="130" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="131" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" style="130" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="130" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="130" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="23" style="130" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="130" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="130" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="130" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="130" customWidth="1"/>
-    <col min="12" max="12" width="62.5703125" style="130" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="130" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" style="130" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="130" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="130" customWidth="1"/>
+    <col min="12" max="12" width="62.5546875" style="130" customWidth="1"/>
     <col min="13" max="13" width="48" style="130" customWidth="1"/>
-    <col min="14" max="14" width="64.140625" style="130" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="130" customWidth="1"/>
+    <col min="14" max="14" width="64.109375" style="130" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" style="130" customWidth="1"/>
     <col min="16" max="16" width="16" style="132" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" style="130" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="130"/>
+    <col min="17" max="17" width="25.88671875" style="130" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="114" customFormat="1" ht="40.5" customHeight="1">
@@ -12385,7 +12390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="118" customFormat="1" ht="114.75">
+    <row r="2" spans="1:17" s="118" customFormat="1" ht="124.2">
       <c r="A2" s="115">
         <v>1</v>
       </c>
@@ -12481,7 +12486,7 @@
       </c>
       <c r="Q3" s="115"/>
     </row>
-    <row r="4" spans="1:17" s="118" customFormat="1" ht="318.75">
+    <row r="4" spans="1:17" s="118" customFormat="1" ht="345">
       <c r="A4" s="115">
         <v>3</v>
       </c>
@@ -12530,7 +12535,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="118" customFormat="1" ht="178.5">
+    <row r="5" spans="1:17" s="118" customFormat="1" ht="165.6">
       <c r="A5" s="115">
         <v>4</v>
       </c>
@@ -12632,7 +12637,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="118" customFormat="1" ht="204">
+    <row r="7" spans="1:17" s="118" customFormat="1" ht="207">
       <c r="A7" s="115">
         <v>6</v>
       </c>
@@ -12734,7 +12739,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="118" customFormat="1" ht="105">
+    <row r="9" spans="1:17" s="118" customFormat="1" ht="86.4">
       <c r="A9" s="115">
         <v>8</v>
       </c>
@@ -12787,7 +12792,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="118" customFormat="1" ht="409.5">
+    <row r="10" spans="1:17" s="118" customFormat="1" ht="409.6">
       <c r="A10" s="115">
         <v>9</v>
       </c>
@@ -12840,7 +12845,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="118" customFormat="1" ht="76.5">
+    <row r="11" spans="1:17" s="118" customFormat="1" ht="69">
       <c r="A11" s="115">
         <v>10</v>
       </c>
@@ -12887,7 +12892,7 @@
       <c r="P11" s="117"/>
       <c r="Q11" s="115"/>
     </row>
-    <row r="12" spans="1:17" s="118" customFormat="1" ht="114.75">
+    <row r="12" spans="1:17" s="118" customFormat="1" ht="124.2">
       <c r="A12" s="115">
         <v>11</v>
       </c>
@@ -12940,7 +12945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="118" customFormat="1" ht="204">
+    <row r="13" spans="1:17" s="118" customFormat="1" ht="220.8">
       <c r="A13" s="115">
         <v>12</v>
       </c>
@@ -12991,7 +12996,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="118" customFormat="1" ht="63.75">
+    <row r="14" spans="1:17" s="118" customFormat="1" ht="55.2">
       <c r="A14" s="115">
         <v>13</v>
       </c>
@@ -13038,7 +13043,7 @@
       <c r="P14" s="117"/>
       <c r="Q14" s="115"/>
     </row>
-    <row r="15" spans="1:17" s="118" customFormat="1" ht="76.5">
+    <row r="15" spans="1:17" s="118" customFormat="1" ht="82.8">
       <c r="A15" s="115">
         <v>14</v>
       </c>
@@ -13085,7 +13090,7 @@
       <c r="P15" s="117"/>
       <c r="Q15" s="115"/>
     </row>
-    <row r="16" spans="1:17" s="118" customFormat="1" ht="63.75">
+    <row r="16" spans="1:17" s="118" customFormat="1" ht="69">
       <c r="A16" s="115">
         <v>15</v>
       </c>
@@ -13187,7 +13192,7 @@
       </c>
       <c r="Q17" s="115"/>
     </row>
-    <row r="18" spans="1:17" s="118" customFormat="1" ht="140.25">
+    <row r="18" spans="1:17" s="118" customFormat="1" ht="151.80000000000001">
       <c r="A18" s="115">
         <v>17</v>
       </c>
@@ -13238,7 +13243,7 @@
       </c>
       <c r="Q18" s="115"/>
     </row>
-    <row r="19" spans="1:17" s="118" customFormat="1" ht="280.5">
+    <row r="19" spans="1:17" s="118" customFormat="1" ht="303.60000000000002">
       <c r="A19" s="115">
         <v>18</v>
       </c>
@@ -13289,7 +13294,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="118" customFormat="1" ht="178.5">
+    <row r="20" spans="1:17" s="118" customFormat="1" ht="179.4">
       <c r="A20" s="115">
         <v>19</v>
       </c>
@@ -13340,7 +13345,7 @@
       </c>
       <c r="Q20" s="115"/>
     </row>
-    <row r="21" spans="1:17" s="118" customFormat="1" ht="51">
+    <row r="21" spans="1:17" s="118" customFormat="1" ht="55.2">
       <c r="A21" s="115">
         <v>20</v>
       </c>
@@ -13391,7 +13396,7 @@
       </c>
       <c r="Q21" s="115"/>
     </row>
-    <row r="22" spans="1:17" s="118" customFormat="1" ht="229.5">
+    <row r="22" spans="1:17" s="118" customFormat="1" ht="234.6">
       <c r="A22" s="115">
         <v>21</v>
       </c>
@@ -13493,7 +13498,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="118" customFormat="1" ht="255">
+    <row r="24" spans="1:17" s="118" customFormat="1" ht="262.2">
       <c r="A24" s="115">
         <v>23</v>
       </c>
@@ -13540,7 +13545,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="118" customFormat="1" ht="51">
+    <row r="25" spans="1:17" s="118" customFormat="1" ht="55.2">
       <c r="A25" s="115">
         <v>24</v>
       </c>
@@ -13593,7 +13598,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="118" customFormat="1" ht="140.25">
+    <row r="26" spans="1:17" s="118" customFormat="1" ht="138">
       <c r="A26" s="115">
         <v>25</v>
       </c>
@@ -13638,7 +13643,7 @@
       <c r="P26" s="117"/>
       <c r="Q26" s="115"/>
     </row>
-    <row r="27" spans="1:17" s="118" customFormat="1" ht="204">
+    <row r="27" spans="1:17" s="118" customFormat="1" ht="220.8">
       <c r="A27" s="115">
         <v>26</v>
       </c>
@@ -13685,7 +13690,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="118" customFormat="1" ht="409.5">
+    <row r="28" spans="1:17" s="118" customFormat="1" ht="409.6">
       <c r="A28" s="115">
         <v>27</v>
       </c>
@@ -13734,7 +13739,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="118" customFormat="1" ht="409.5">
+    <row r="29" spans="1:17" s="118" customFormat="1" ht="409.6">
       <c r="A29" s="115">
         <v>28</v>
       </c>
@@ -13783,7 +13788,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="118" customFormat="1" ht="409.5">
+    <row r="30" spans="1:17" s="118" customFormat="1" ht="409.6">
       <c r="A30" s="115">
         <v>29</v>
       </c>
@@ -13826,7 +13831,7 @@
       <c r="P30" s="117"/>
       <c r="Q30" s="115"/>
     </row>
-    <row r="31" spans="1:17" s="118" customFormat="1" ht="165.75">
+    <row r="31" spans="1:17" s="118" customFormat="1" ht="179.4">
       <c r="A31" s="115">
         <v>30</v>
       </c>
@@ -13875,7 +13880,7 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27 F13 F24" xr:uid="{B142B612-B83B-4802-8CE2-9604B24FEE64}">
@@ -13985,27 +13990,27 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
       <selection activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="147" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="147" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="28.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51.6" customHeight="1">
@@ -14052,7 +14057,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="63">
+    <row r="2" spans="1:14" ht="57">
       <c r="A2" s="135" t="s">
         <v>3</v>
       </c>
@@ -14086,7 +14091,7 @@
       <c r="M2" s="86"/>
       <c r="N2" s="86"/>
     </row>
-    <row r="3" spans="1:14" ht="126">
+    <row r="3" spans="1:14" ht="125.4">
       <c r="A3" s="136" t="s">
         <v>52</v>
       </c>
@@ -14130,7 +14135,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="168">
+    <row r="4" spans="1:14" ht="159.6">
       <c r="A4" s="135" t="s">
         <v>437</v>
       </c>
@@ -14158,7 +14163,7 @@
       <c r="M4" s="86"/>
       <c r="N4" s="86"/>
     </row>
-    <row r="5" spans="1:14" ht="136.5">
+    <row r="5" spans="1:14" ht="136.80000000000001">
       <c r="A5" s="135" t="s">
         <v>6</v>
       </c>
@@ -14202,7 +14207,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60">
+    <row r="6" spans="1:14" ht="57.6">
       <c r="A6" s="135" t="s">
         <v>61</v>
       </c>
@@ -14244,7 +14249,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="60">
+    <row r="7" spans="1:14" ht="57.6">
       <c r="A7" s="135" t="s">
         <v>7</v>
       </c>
@@ -14288,7 +14293,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="126">
+    <row r="8" spans="1:14" ht="125.4">
       <c r="A8" s="135" t="s">
         <v>43</v>
       </c>
@@ -14318,7 +14323,7 @@
       </c>
       <c r="N8" s="86"/>
     </row>
-    <row r="9" spans="1:14" ht="199.5">
+    <row r="9" spans="1:14" ht="182.4">
       <c r="A9" s="135" t="s">
         <v>44</v>
       </c>
@@ -14350,7 +14355,7 @@
       </c>
       <c r="N9" s="86"/>
     </row>
-    <row r="10" spans="1:14" ht="42">
+    <row r="10" spans="1:14" ht="34.200000000000003">
       <c r="A10" s="135" t="s">
         <v>12</v>
       </c>
@@ -14378,7 +14383,7 @@
       <c r="M10" s="86"/>
       <c r="N10" s="86"/>
     </row>
-    <row r="11" spans="1:14" ht="180">
+    <row r="11" spans="1:14" ht="172.8">
       <c r="A11" s="135" t="s">
         <v>13</v>
       </c>
@@ -14410,7 +14415,7 @@
       <c r="M11" s="135"/>
       <c r="N11" s="86"/>
     </row>
-    <row r="12" spans="1:14" ht="105">
+    <row r="12" spans="1:14" ht="102.6">
       <c r="A12" s="135" t="s">
         <v>364</v>
       </c>
@@ -14440,7 +14445,7 @@
       </c>
       <c r="N12" s="86"/>
     </row>
-    <row r="13" spans="1:14" ht="242.25">
+    <row r="13" spans="1:14" ht="248.4">
       <c r="A13" s="119" t="s">
         <v>448</v>
       </c>
@@ -14476,7 +14481,7 @@
       <c r="M13" s="86"/>
       <c r="N13" s="86"/>
     </row>
-    <row r="14" spans="1:14" ht="42">
+    <row r="14" spans="1:14" ht="34.200000000000003">
       <c r="A14" s="135" t="s">
         <v>45</v>
       </c>
@@ -14500,7 +14505,7 @@
       <c r="M14" s="86"/>
       <c r="N14" s="86"/>
     </row>
-    <row r="15" spans="1:14" ht="126">
+    <row r="15" spans="1:14" ht="125.4">
       <c r="A15" s="135" t="s">
         <v>55</v>
       </c>
@@ -14561,7 +14566,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="135">
+    <row r="17" spans="1:14" ht="115.2">
       <c r="A17" s="135" t="s">
         <v>36</v>
       </c>
@@ -14599,7 +14604,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="73.5">
+    <row r="18" spans="1:14" ht="68.400000000000006">
       <c r="A18" s="135" t="s">
         <v>37</v>
       </c>
@@ -14610,7 +14615,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="135" t="s">
-        <v>453</v>
+        <v>33</v>
       </c>
       <c r="E18" s="135" t="s">
         <v>436</v>
@@ -14620,7 +14625,7 @@
       </c>
       <c r="G18" s="135"/>
     </row>
-    <row r="19" spans="1:14" ht="52.5">
+    <row r="19" spans="1:14" ht="57">
       <c r="A19" s="135" t="s">
         <v>31</v>
       </c>
@@ -14684,7 +14689,7 @@
     <sortCondition ref="A17:A19"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1" xr:uid="{AD625D9F-010B-4FD0-91E9-6E5C5A331511}"/>
@@ -14734,18 +14739,18 @@
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15966,10 +15971,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A76:A89">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E13 E15 E17:E18 E25" xr:uid="{C1C4E9A7-6004-4A23-9DB4-D2602854CE25}">
@@ -15999,18 +16004,18 @@
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17053,10 +17058,10 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A76:A89">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28 D13 D15 D17:D18 D25" xr:uid="{B9FF6229-F6FB-4F96-8339-6D0E1C29EB5B}">
@@ -17089,22 +17094,22 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="62" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="62" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="62" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="62"/>
-    <col min="11" max="11" width="60.42578125" style="62" customWidth="1"/>
-    <col min="12" max="15" width="8.7109375" style="62"/>
-    <col min="16" max="16" width="24.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="62"/>
+    <col min="1" max="1" width="8.88671875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="62" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="62" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" style="62" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="62" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="62"/>
+    <col min="11" max="11" width="60.44140625" style="62" customWidth="1"/>
+    <col min="12" max="15" width="8.6640625" style="62"/>
+    <col min="16" max="16" width="24.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" ht="33.6" customHeight="1">
@@ -17205,7 +17210,7 @@
       </c>
       <c r="Q2" s="41"/>
     </row>
-    <row r="3" spans="1:17" s="42" customFormat="1" ht="77.45" customHeight="1">
+    <row r="3" spans="1:17" s="42" customFormat="1" ht="77.400000000000006" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -18761,7 +18766,7 @@
       </c>
       <c r="Q34" s="47"/>
     </row>
-    <row r="35" spans="1:17" s="48" customFormat="1" ht="52.5">
+    <row r="35" spans="1:17" s="48" customFormat="1" ht="57">
       <c r="A35" s="19">
         <v>31</v>
       </c>
@@ -18800,7 +18805,7 @@
       </c>
       <c r="Q35" s="47"/>
     </row>
-    <row r="36" spans="1:17" s="48" customFormat="1" ht="86.45" customHeight="1">
+    <row r="36" spans="1:17" s="48" customFormat="1" ht="86.4" customHeight="1">
       <c r="A36" s="19">
         <v>32</v>
       </c>
@@ -18931,7 +18936,7 @@
       </c>
       <c r="Q38" s="47"/>
     </row>
-    <row r="39" spans="1:17" s="48" customFormat="1" ht="33.75">
+    <row r="39" spans="1:17" s="48" customFormat="1" ht="34.200000000000003">
       <c r="A39" s="19">
         <v>35</v>
       </c>
@@ -18978,7 +18983,7 @@
       </c>
       <c r="Q39" s="47"/>
     </row>
-    <row r="40" spans="1:17" s="48" customFormat="1" ht="52.5">
+    <row r="40" spans="1:17" s="48" customFormat="1" ht="57">
       <c r="A40" s="19">
         <v>36</v>
       </c>
@@ -19062,7 +19067,7 @@
       </c>
       <c r="Q41" s="47"/>
     </row>
-    <row r="42" spans="1:17" s="48" customFormat="1" ht="158.44999999999999" customHeight="1">
+    <row r="42" spans="1:17" s="48" customFormat="1" ht="158.4" customHeight="1">
       <c r="A42" s="19">
         <v>38</v>
       </c>
@@ -19099,7 +19104,7 @@
       </c>
       <c r="Q42" s="47"/>
     </row>
-    <row r="43" spans="1:17" s="48" customFormat="1" ht="52.5">
+    <row r="43" spans="1:17" s="48" customFormat="1" ht="57">
       <c r="A43" s="19">
         <v>39</v>
       </c>
@@ -19132,7 +19137,7 @@
       </c>
       <c r="Q43" s="47"/>
     </row>
-    <row r="44" spans="1:17" s="48" customFormat="1" ht="84">
+    <row r="44" spans="1:17" s="48" customFormat="1" ht="79.8">
       <c r="A44" s="19">
         <v>40</v>
       </c>
@@ -19169,7 +19174,7 @@
       </c>
       <c r="Q44" s="47"/>
     </row>
-    <row r="45" spans="1:17" s="48" customFormat="1" ht="104.45" customHeight="1">
+    <row r="45" spans="1:17" s="48" customFormat="1" ht="104.4" customHeight="1">
       <c r="A45" s="19">
         <v>41</v>
       </c>
@@ -19206,7 +19211,7 @@
       </c>
       <c r="Q45" s="47"/>
     </row>
-    <row r="46" spans="1:17" s="48" customFormat="1" ht="52.5">
+    <row r="46" spans="1:17" s="48" customFormat="1" ht="57">
       <c r="A46" s="19">
         <v>42</v>
       </c>
@@ -19235,7 +19240,7 @@
       </c>
       <c r="Q46" s="47"/>
     </row>
-    <row r="47" spans="1:17" s="48" customFormat="1">
+    <row r="47" spans="1:17" s="48" customFormat="1" ht="11.4">
       <c r="A47" s="19">
         <v>43</v>
       </c>
@@ -19342,7 +19347,7 @@
       </c>
       <c r="Q49" s="47"/>
     </row>
-    <row r="50" spans="1:17" s="48" customFormat="1" ht="29.45" customHeight="1">
+    <row r="50" spans="1:17" s="48" customFormat="1" ht="29.4" customHeight="1">
       <c r="A50" s="19">
         <v>46</v>
       </c>
@@ -19371,7 +19376,7 @@
       </c>
       <c r="Q50" s="47"/>
     </row>
-    <row r="51" spans="1:17" s="48" customFormat="1" ht="123.75">
+    <row r="51" spans="1:17" s="48" customFormat="1" ht="91.8">
       <c r="A51" s="19">
         <v>47</v>
       </c>
@@ -19414,7 +19419,7 @@
       </c>
       <c r="Q51" s="47"/>
     </row>
-    <row r="52" spans="1:17" s="48" customFormat="1" ht="31.5">
+    <row r="52" spans="1:17" s="48" customFormat="1" ht="34.200000000000003">
       <c r="A52" s="19">
         <v>48</v>
       </c>
@@ -19447,7 +19452,7 @@
       </c>
       <c r="Q52" s="47"/>
     </row>
-    <row r="53" spans="1:17" s="48" customFormat="1" ht="71.45" customHeight="1">
+    <row r="53" spans="1:17" s="48" customFormat="1" ht="71.400000000000006" customHeight="1">
       <c r="A53" s="19">
         <v>49</v>
       </c>
@@ -19482,7 +19487,7 @@
       </c>
       <c r="Q53" s="47"/>
     </row>
-    <row r="54" spans="1:17" ht="52.5">
+    <row r="54" spans="1:17" ht="45.6">
       <c r="A54" s="19">
         <v>50</v>
       </c>
@@ -19576,7 +19581,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="66.95" customHeight="1">
+    <row r="57" spans="1:17" ht="66.900000000000006" customHeight="1">
       <c r="A57" s="19">
         <v>53</v>
       </c>
@@ -19696,7 +19701,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="66.95" customHeight="1">
+    <row r="61" spans="1:17" ht="66.900000000000006" customHeight="1">
       <c r="A61" s="19">
         <v>57</v>
       </c>
@@ -19943,10 +19948,10 @@
       <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
@@ -19980,7 +19985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5">
+    <row r="2" spans="1:9" ht="91.2">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -20009,7 +20014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="63">
+    <row r="3" spans="1:9" ht="57">
       <c r="A3" t="s">
         <v>515</v>
       </c>
@@ -20038,7 +20043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="115.5">
+    <row r="4" spans="1:9" ht="114">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -20067,7 +20072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="115.5">
+    <row r="5" spans="1:9" ht="114">
       <c r="C5" t="s">
         <v>271</v>
       </c>
@@ -20090,7 +20095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="94.5">
+    <row r="6" spans="1:9" ht="91.2">
       <c r="C6" t="s">
         <v>199</v>
       </c>
@@ -20113,7 +20118,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="94.5">
+    <row r="7" spans="1:9" ht="91.2">
       <c r="C7" t="s">
         <v>518</v>
       </c>
@@ -20133,7 +20138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="94.5">
+    <row r="8" spans="1:9" ht="79.8">
       <c r="C8" t="s">
         <v>110</v>
       </c>
@@ -20153,7 +20158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="94.5">
+    <row r="9" spans="1:9" ht="79.8">
       <c r="C9" s="9" t="s">
         <v>100</v>
       </c>
@@ -20173,7 +20178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="94.5">
+    <row r="10" spans="1:9" ht="79.8">
       <c r="C10" t="s">
         <v>444</v>
       </c>
@@ -20193,7 +20198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="84">
+    <row r="11" spans="1:9" ht="91.2">
       <c r="E11" t="s">
         <v>12</v>
       </c>
@@ -20210,7 +20215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="115.5">
+    <row r="12" spans="1:9" ht="91.2">
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -20227,7 +20232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="123.75">
+    <row r="13" spans="1:9" ht="91.8">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -20244,7 +20249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="115.5">
+    <row r="14" spans="1:9" ht="91.2">
       <c r="E14" t="s">
         <v>15</v>
       </c>
@@ -20261,7 +20266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="84">
+    <row r="15" spans="1:9" ht="91.2">
       <c r="E15" t="s">
         <v>16</v>
       </c>
@@ -20278,7 +20283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="45.6">
       <c r="E16" t="s">
         <v>17</v>
       </c>
@@ -20295,7 +20300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="5:9" ht="90">
+    <row r="17" spans="5:9" ht="91.2">
       <c r="E17" t="s">
         <v>18</v>
       </c>
@@ -20312,7 +20317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="5:9" ht="84">
+    <row r="18" spans="5:9" ht="91.2">
       <c r="E18" t="s">
         <v>19</v>
       </c>
@@ -20329,7 +20334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="5:9" ht="101.25">
+    <row r="19" spans="5:9" ht="91.8">
       <c r="E19" t="s">
         <v>20</v>
       </c>
@@ -20346,7 +20351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="5:9" ht="67.5">
+    <row r="20" spans="5:9" ht="61.2">
       <c r="E20" t="s">
         <v>21</v>
       </c>
@@ -20363,7 +20368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="5:9" ht="189">
+    <row r="21" spans="5:9" ht="182.4">
       <c r="E21" t="s">
         <v>22</v>
       </c>
@@ -20380,7 +20385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="5:9" ht="409.5">
+    <row r="22" spans="5:9" ht="409.6">
       <c r="E22" t="s">
         <v>23</v>
       </c>
@@ -20397,7 +20402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="5:9" ht="147">
+    <row r="23" spans="5:9" ht="136.80000000000001">
       <c r="E23" t="s">
         <v>24</v>
       </c>
@@ -20414,7 +20419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="5:9" ht="45">
+    <row r="24" spans="5:9" ht="40.799999999999997">
       <c r="E24" t="s">
         <v>25</v>
       </c>
@@ -20431,7 +20436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:9" ht="101.25">
+    <row r="25" spans="5:9" ht="91.8">
       <c r="E25" t="s">
         <v>26</v>
       </c>
@@ -20448,7 +20453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="5:9" ht="33.75">
+    <row r="26" spans="5:9" ht="30.6">
       <c r="E26" t="s">
         <v>27</v>
       </c>
@@ -20465,7 +20470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="5:9" ht="52.5">
+    <row r="27" spans="5:9" ht="57">
       <c r="E27" t="s">
         <v>28</v>
       </c>
@@ -20482,7 +20487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="5:9" ht="84">
+    <row r="28" spans="5:9" ht="91.2">
       <c r="E28" t="s">
         <v>29</v>
       </c>
@@ -20499,7 +20504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="5:9" ht="94.5">
+    <row r="29" spans="5:9" ht="68.400000000000006">
       <c r="E29" t="s">
         <v>30</v>
       </c>
@@ -20516,7 +20521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="5:9" ht="56.25">
+    <row r="30" spans="5:9" ht="40.799999999999997">
       <c r="E30" t="s">
         <v>31</v>
       </c>
@@ -20533,7 +20538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="5:9" ht="52.5">
+    <row r="31" spans="5:9" ht="57">
       <c r="F31" t="s">
         <v>38</v>
       </c>
@@ -20547,7 +20552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="5:9" ht="90">
+    <row r="32" spans="5:9" ht="91.2">
       <c r="F32" t="s">
         <v>29</v>
       </c>
@@ -20561,7 +20566,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="6:9" ht="94.5">
+    <row r="33" spans="6:9" ht="68.400000000000006">
       <c r="F33" t="s">
         <v>30</v>
       </c>
@@ -20572,7 +20577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="6:9" ht="90">
+    <row r="34" spans="6:9" ht="81.599999999999994">
       <c r="F34" t="s">
         <v>31</v>
       </c>
@@ -20583,7 +20588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="6:9" ht="112.5">
+    <row r="35" spans="6:9" ht="91.8">
       <c r="G35" s="21" t="s">
         <v>36</v>
       </c>
@@ -20591,7 +20596,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="112.5">
+    <row r="36" spans="6:9" ht="91.8">
       <c r="G36" s="21" t="s">
         <v>26</v>
       </c>
@@ -20599,7 +20604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="6:9" ht="101.25">
+    <row r="37" spans="6:9" ht="91.8">
       <c r="G37" s="21" t="s">
         <v>27</v>
       </c>
@@ -20607,7 +20612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="6:9" ht="115.5">
+    <row r="38" spans="6:9" ht="114">
       <c r="G38" s="21" t="s">
         <v>28</v>
       </c>
@@ -20615,7 +20620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="6:9" ht="84">
+    <row r="39" spans="6:9" ht="68.400000000000006">
       <c r="G39" s="29" t="s">
         <v>38</v>
       </c>
@@ -20623,27 +20628,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="6:9" ht="84">
+    <row r="40" spans="6:9" ht="68.400000000000006">
       <c r="G40" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="6:9" ht="84">
+    <row r="41" spans="6:9" ht="68.400000000000006">
       <c r="G41" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="6:9" ht="31.5">
+    <row r="42" spans="6:9" ht="34.200000000000003">
       <c r="G42" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="6:9" ht="31.5">
+    <row r="43" spans="6:9" ht="34.200000000000003">
       <c r="G43" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="6:9" ht="31.5">
+    <row r="44" spans="6:9" ht="34.200000000000003">
       <c r="G44" s="21" t="s">
         <v>31</v>
       </c>
@@ -20668,186 +20673,186 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="125.140625" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="125.109375" customWidth="1"/>
+    <col min="3" max="3" width="255.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="60" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="52" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="78.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="32" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="133" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="255.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="82.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="28" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="100" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="36" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="65.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="69.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="75.44140625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="98" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="77.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="77.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="74.44140625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="39" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="60" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="19" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="32" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="19" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="28" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="100" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="36" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="74.44140625" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="39" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="52" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="78.44140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="19" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="32" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="133" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="255.5546875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="19" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="36" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="74.44140625" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="39" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="62.5546875" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="67" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="60" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="19" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="157" max="157" width="32" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="19" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="82.109375" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="36" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="77.7109375" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="65.44140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="69.5546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="75.44140625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="77.6640625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -21781,25 +21786,25 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="62" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="62" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="62" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="62" customWidth="1"/>
-    <col min="11" max="11" width="60.42578125" style="62" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="62" customWidth="1"/>
-    <col min="13" max="13" width="41.28515625" style="62" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" style="62" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" style="62" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="62"/>
+    <col min="1" max="1" width="8.88671875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="62" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="62" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" style="62" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="62" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="62" customWidth="1"/>
+    <col min="11" max="11" width="60.44140625" style="62" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" style="62" customWidth="1"/>
+    <col min="13" max="13" width="41.33203125" style="62" customWidth="1"/>
+    <col min="14" max="14" width="24.44140625" style="62" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" style="62" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" ht="33.6" customHeight="1">
@@ -22074,7 +22079,7 @@
       </c>
       <c r="Q6" s="41"/>
     </row>
-    <row r="7" spans="1:17" s="42" customFormat="1" ht="77.45" customHeight="1">
+    <row r="7" spans="1:17" s="42" customFormat="1" ht="77.400000000000006" customHeight="1">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -27486,7 +27491,7 @@
       </c>
       <c r="Q134" s="47"/>
     </row>
-    <row r="135" spans="1:17" s="48" customFormat="1" ht="157.5">
+    <row r="135" spans="1:17" s="48" customFormat="1" ht="159.6">
       <c r="A135" s="19">
         <v>38</v>
       </c>
@@ -27523,7 +27528,7 @@
       </c>
       <c r="Q135" s="47"/>
     </row>
-    <row r="136" spans="1:17" s="48" customFormat="1" ht="86.45" customHeight="1">
+    <row r="136" spans="1:17" s="48" customFormat="1" ht="86.4" customHeight="1">
       <c r="A136" s="19">
         <v>24</v>
       </c>
@@ -27656,7 +27661,7 @@
       </c>
       <c r="Q138" s="47"/>
     </row>
-    <row r="139" spans="1:17" s="48" customFormat="1" ht="178.5">
+    <row r="139" spans="1:17" s="48" customFormat="1" ht="171">
       <c r="A139" s="19">
         <v>4</v>
       </c>
@@ -27909,7 +27914,7 @@
       </c>
       <c r="Q143" s="47"/>
     </row>
-    <row r="144" spans="1:17" s="48" customFormat="1" ht="158.44999999999999" customHeight="1">
+    <row r="144" spans="1:17" s="48" customFormat="1" ht="158.4" customHeight="1">
       <c r="A144" s="19">
         <v>19</v>
       </c>
@@ -27958,7 +27963,7 @@
       </c>
       <c r="Q144" s="47"/>
     </row>
-    <row r="145" spans="1:17" s="48" customFormat="1" ht="45">
+    <row r="145" spans="1:17" s="48" customFormat="1" ht="30.6">
       <c r="A145" s="19">
         <v>20</v>
       </c>
@@ -28007,7 +28012,7 @@
       </c>
       <c r="Q145" s="47"/>
     </row>
-    <row r="146" spans="1:17" s="48" customFormat="1" ht="348.75">
+    <row r="146" spans="1:17" s="48" customFormat="1" ht="275.39999999999998">
       <c r="A146" s="19">
         <v>21</v>
       </c>
@@ -28056,7 +28061,7 @@
       </c>
       <c r="Q146" s="47"/>
     </row>
-    <row r="147" spans="1:17" s="48" customFormat="1" ht="104.45" customHeight="1">
+    <row r="147" spans="1:17" s="48" customFormat="1" ht="104.4" customHeight="1">
       <c r="A147" s="19">
         <v>53</v>
       </c>
@@ -28089,7 +28094,7 @@
       </c>
       <c r="Q147" s="47"/>
     </row>
-    <row r="148" spans="1:17" s="48" customFormat="1" ht="42">
+    <row r="148" spans="1:17" s="48" customFormat="1" ht="45.6">
       <c r="A148" s="19">
         <v>31</v>
       </c>
@@ -28128,7 +28133,7 @@
       </c>
       <c r="Q148" s="47"/>
     </row>
-    <row r="149" spans="1:17" s="48" customFormat="1" ht="94.5">
+    <row r="149" spans="1:17" s="48" customFormat="1" ht="102.6">
       <c r="A149" s="19">
         <v>34</v>
       </c>
@@ -28259,7 +28264,7 @@
       </c>
       <c r="Q151" s="47"/>
     </row>
-    <row r="152" spans="1:17" s="48" customFormat="1" ht="29.45" customHeight="1">
+    <row r="152" spans="1:17" s="48" customFormat="1" ht="29.4" customHeight="1">
       <c r="A152" s="19">
         <v>40</v>
       </c>
@@ -28298,7 +28303,7 @@
       </c>
       <c r="Q152" s="47"/>
     </row>
-    <row r="153" spans="1:17" s="48" customFormat="1" ht="29.45" customHeight="1">
+    <row r="153" spans="1:17" s="48" customFormat="1" ht="29.4" customHeight="1">
       <c r="A153" s="19">
         <v>41</v>
       </c>
@@ -28335,7 +28340,7 @@
       </c>
       <c r="Q153" s="47"/>
     </row>
-    <row r="154" spans="1:17" s="48" customFormat="1" ht="29.45" customHeight="1">
+    <row r="154" spans="1:17" s="48" customFormat="1" ht="29.4" customHeight="1">
       <c r="A154" s="19">
         <v>42</v>
       </c>
@@ -28366,7 +28371,7 @@
       </c>
       <c r="Q154" s="47"/>
     </row>
-    <row r="155" spans="1:17" s="48" customFormat="1" ht="136.5">
+    <row r="155" spans="1:17" s="48" customFormat="1" ht="125.4">
       <c r="A155" s="19">
         <v>52</v>
       </c>
@@ -28401,7 +28406,7 @@
       </c>
       <c r="Q155" s="47"/>
     </row>
-    <row r="156" spans="1:17" s="48" customFormat="1" ht="73.5">
+    <row r="156" spans="1:17" s="48" customFormat="1" ht="68.400000000000006">
       <c r="A156" s="19">
         <v>58</v>
       </c>
@@ -28434,7 +28439,7 @@
       </c>
       <c r="Q156" s="47"/>
     </row>
-    <row r="157" spans="1:17" s="48" customFormat="1" ht="71.45" customHeight="1">
+    <row r="157" spans="1:17" s="48" customFormat="1" ht="71.400000000000006" customHeight="1">
       <c r="A157" s="19">
         <v>59</v>
       </c>
@@ -28467,7 +28472,7 @@
       </c>
       <c r="Q157" s="47"/>
     </row>
-    <row r="158" spans="1:17" ht="21">
+    <row r="158" spans="1:17" ht="22.8">
       <c r="A158" s="19">
         <v>60</v>
       </c>
@@ -28589,7 +28594,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="66.95" customHeight="1">
+    <row r="161" spans="1:16" ht="66.900000000000006" customHeight="1">
       <c r="A161" s="19">
         <v>38</v>
       </c>
@@ -28757,7 +28762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="66.95" customHeight="1">
+    <row r="165" spans="1:16" ht="66.900000000000006" customHeight="1">
       <c r="A165" s="68">
         <v>16</v>
       </c>
@@ -29560,7 +29565,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29576,12 +29581,12 @@
       <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="32.450000000000003" customHeight="1"/>
+    <row r="1" spans="2:21" ht="32.4" customHeight="1"/>
     <row r="2" spans="2:21">
       <c r="B2" s="158" t="s">
         <v>357</v>
@@ -29674,7 +29679,7 @@
       <c r="T7" s="160"/>
       <c r="U7" s="160"/>
     </row>
-    <row r="8" spans="2:21" ht="18.95" customHeight="1">
+    <row r="8" spans="2:21" ht="18.899999999999999" customHeight="1">
       <c r="B8" s="160"/>
       <c r="C8" s="160"/>
       <c r="D8" s="160"/>
@@ -29696,7 +29701,7 @@
       <c r="T8" s="160"/>
       <c r="U8" s="160"/>
     </row>
-    <row r="28" spans="13:19" ht="18.75">
+    <row r="28" spans="13:19" ht="18">
       <c r="M28" s="148" t="s">
         <v>359</v>
       </c>
@@ -29727,23 +29732,23 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="10"/>
-    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="10"/>
+    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="76" style="15" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="151" customWidth="1"/>
-    <col min="5" max="5" width="85.28515625" style="150" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="150" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="150" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="18"/>
-    <col min="10" max="16384" width="8.5703125" style="10"/>
+    <col min="4" max="4" width="3.5546875" style="151" customWidth="1"/>
+    <col min="5" max="5" width="85.33203125" style="150" customWidth="1"/>
+    <col min="6" max="7" width="14.88671875" style="150" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" style="150" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="18"/>
+    <col min="10" max="16384" width="8.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:8" ht="15.75">
+    <row r="9" spans="2:8" ht="15.6">
       <c r="C9" s="17"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:8" ht="14.4" thickBot="1"/>
     <row r="12" spans="2:8" ht="68.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>361</v>
@@ -29768,7 +29773,7 @@
         <v>38733723640</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B13" s="11"/>
       <c r="E13" s="155"/>
     </row>
@@ -29796,7 +29801,7 @@
         <v>387733637384</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B15" s="11"/>
       <c r="E15" s="155"/>
     </row>
@@ -29818,7 +29823,7 @@
       <c r="G16" s="161"/>
       <c r="H16" s="162"/>
     </row>
-    <row r="17" ht="15.75" thickTop="1"/>
+    <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F16:H16"/>
@@ -29861,21 +29866,21 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="10"/>
-    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="10"/>
+    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="76" style="15" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="151" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" style="150" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="150" customWidth="1"/>
-    <col min="9" max="16384" width="8.5703125" style="10"/>
+    <col min="4" max="4" width="3.5546875" style="151" customWidth="1"/>
+    <col min="5" max="5" width="77.5546875" style="150" customWidth="1"/>
+    <col min="6" max="8" width="14.88671875" style="150" customWidth="1"/>
+    <col min="9" max="16384" width="8.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" ht="14.4">
       <c r="B2"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:8" ht="14.4" thickBot="1"/>
     <row r="12" spans="2:8" ht="51.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>361</v>
@@ -29900,7 +29905,7 @@
         <v>38733725207</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B13" s="11"/>
       <c r="E13" s="155"/>
     </row>
@@ -29928,7 +29933,7 @@
         <v>387733637384</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B15" s="11"/>
       <c r="E15" s="155"/>
     </row>
@@ -29950,7 +29955,7 @@
       <c r="G16" s="161"/>
       <c r="H16" s="162"/>
     </row>
-    <row r="17" ht="15.75" thickTop="1"/>
+    <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F16:H16"/>
@@ -29991,24 +29996,24 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="10"/>
-    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="10"/>
+    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="76" style="15" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="151" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" style="150" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="150" customWidth="1"/>
-    <col min="9" max="16384" width="8.5703125" style="10"/>
+    <col min="4" max="4" width="3.5546875" style="151" customWidth="1"/>
+    <col min="5" max="5" width="77.5546875" style="150" customWidth="1"/>
+    <col min="6" max="8" width="14.88671875" style="150" customWidth="1"/>
+    <col min="9" max="16384" width="8.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" ht="14.4">
       <c r="B2"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" ht="14.4">
       <c r="B3"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:8" ht="14.4" thickBot="1"/>
     <row r="12" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>361</v>
@@ -30033,7 +30038,7 @@
         <v>38733723635</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B13" s="11"/>
       <c r="E13" s="155"/>
     </row>
@@ -30061,7 +30066,7 @@
         <v>387733637384</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B15" s="11"/>
       <c r="E15" s="155"/>
     </row>
@@ -30085,7 +30090,7 @@
       <c r="G16" s="161"/>
       <c r="H16" s="162"/>
     </row>
-    <row r="17" ht="15.75" thickTop="1"/>
+    <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F16:H16"/>
@@ -30128,27 +30133,27 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="10"/>
-    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="10"/>
+    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="76" style="15" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="151" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" style="150" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="150" customWidth="1"/>
-    <col min="9" max="16384" width="8.5703125" style="10"/>
+    <col min="4" max="4" width="3.5546875" style="151" customWidth="1"/>
+    <col min="5" max="5" width="77.5546875" style="150" customWidth="1"/>
+    <col min="6" max="8" width="14.88671875" style="150" customWidth="1"/>
+    <col min="9" max="16384" width="8.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" ht="14.4">
       <c r="B2"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" ht="14.4">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" ht="14.4">
       <c r="B4"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:8" ht="14.4" thickBot="1"/>
     <row r="12" spans="2:8" ht="51.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>361</v>
@@ -30173,7 +30178,7 @@
         <v>38733723635</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B13" s="11"/>
       <c r="E13" s="155"/>
     </row>
@@ -30201,7 +30206,7 @@
         <v>387733637384</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="2:8" ht="15" thickTop="1" thickBot="1">
       <c r="B15" s="11"/>
       <c r="E15" s="155"/>
     </row>
@@ -30223,7 +30228,7 @@
       <c r="G16" s="161"/>
       <c r="H16" s="162"/>
     </row>
-    <row r="17" ht="15.75" thickTop="1"/>
+    <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F16:H16"/>

--- a/Mapping of services.xlsx
+++ b/Mapping of services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\amra-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD85A6-7C26-4E43-9280-941D0830CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C94AE7-EC8B-414B-9B4E-ACBE01614D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="12" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="14" state="hidden" r:id="rId1"/>
@@ -27,18 +27,19 @@
     <sheet name="Neinstitucionalizirana prava" sheetId="13" r:id="rId12"/>
     <sheet name="Administrativni postupci" sheetId="1" r:id="rId13"/>
     <sheet name="Diskrecione usluge" sheetId="5" r:id="rId14"/>
-    <sheet name="RASPORED ZA INFOGRAFIKU" sheetId="19" r:id="rId15"/>
-    <sheet name="INFOGRAF" sheetId="23" r:id="rId16"/>
-    <sheet name="All" sheetId="15" state="hidden" r:id="rId17"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId15"/>
+    <sheet name="RASPORED ZA INFOGRAFIKU" sheetId="19" r:id="rId16"/>
+    <sheet name="INFOGRAF" sheetId="23" r:id="rId17"/>
+    <sheet name="All" sheetId="15" state="hidden" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Administrativni postupci'!$A$1:$Q$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">All!$A$1:$P$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">All!$A$1:$P$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'All (2)'!$A$1:$P$175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Diskrecione usluge'!$O$1:$O$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">INFOGRAF!$D$1:$F$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'RASPORED ZA INFOGRAFIKU'!$A$1:$F$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">INFOGRAF!$D$1:$F$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'RASPORED ZA INFOGRAFIKU'!$A$1:$F$62</definedName>
     <definedName name="All">All!$B$35:$P$54</definedName>
     <definedName name="Ambulanta__Sve_na_jednom_mjestu__za_djecu_i_osobe_s_poteškoćama_u_razvoju">Sheet2!$E$2:INDEX(Sheet2!$E:$E,COUNTA(Sheet2!$E:$E))</definedName>
     <definedName name="dob">Sheet2!$D$2:$D$8</definedName>
@@ -52,14 +53,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="0" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId20"/>
         <x14:slicerCache r:id="rId21"/>
         <x14:slicerCache r:id="rId22"/>
+        <x14:slicerCache r:id="rId23"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -297,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4170" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="521">
   <si>
     <t>Životna dob</t>
   </si>
@@ -2449,6 +2450,12 @@
   </si>
   <si>
     <t>Porodični život</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2999,12 +3006,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3396,14 +3416,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3411,17 +3428,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3432,12 +3449,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10557,70 +10626,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}" name="Table6" displayName="Table6" ref="A1:F11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
   <autoFilter ref="A1:F11" xr:uid="{F8E5540E-A15D-4EBA-B54B-F2677BCFD519}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3CD3A6FA-48B3-4742-8A53-DD72379ADF8D}" name="Naziv " dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{822BDE87-6F30-4A0E-A5E2-A9CA37AF424B}" name="Opis" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{58D77055-6C4D-4085-8930-2E537F7B48A2}" name="Životna dob" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{63ED1170-2807-4400-9BED-30ED8580EBF4}" name="Pravni osnov" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{EDBC30B4-6F48-4A07-8E16-A1D618F93B57}" name="Pojašnjenje (Član)" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{97503B81-1CB4-45AC-A9F3-58BBE73723CB}" name="Web stranica" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{3CD3A6FA-48B3-4742-8A53-DD72379ADF8D}" name="Naziv " dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{822BDE87-6F30-4A0E-A5E2-A9CA37AF424B}" name="Opis" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{58D77055-6C4D-4085-8930-2E537F7B48A2}" name="Životna dob" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{63ED1170-2807-4400-9BED-30ED8580EBF4}" name="Pravni osnov" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{EDBC30B4-6F48-4A07-8E16-A1D618F93B57}" name="Pojašnjenje (Član)" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{97503B81-1CB4-45AC-A9F3-58BBE73723CB}" name="Web stranica" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}" name="Table2" displayName="Table2" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A1:Q31" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{1F9E85E2-0B42-4580-82E0-6EEF465356B7}" name="#" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{4219DB81-11D2-48FE-B7E2-5608FFF50B55}" name="Naziv " dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{694A58F1-2A0C-4062-B856-7D3DE3AB2B87}" name="Opis" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{E6B32774-7F5A-4404-BA91-DAEFC1C6DC74}" name="Životna dob" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{F53571F7-E67A-4D75-B971-A9E579E334CE}" name="Godine" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{C56B24ED-F555-4C1E-8F1F-95E0A9F19EBD}" name="Tip usluge/prava/benefita" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{E061CC34-19FF-417C-8134-E10A7AFAB410}" name="Institucija" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{772F549A-88E3-465F-A720-D9DB53E72F53}" name="Adresa" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{4CEF74C2-07E0-4B89-85D3-C9E9B9A1743A}" name="Web stranica" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{DF65403C-1AF1-4456-B8F7-E59BD4641A90}" name="Telefon" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{691CF05D-6BDD-4AAD-97E1-9C52B75F2E41}" name="Email" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{AE92B2E5-DC89-43B9-A62F-8B64611EDD93}" name="Pravni osnov" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{6CEED575-5B30-4A77-AB59-1EC60905A98A}" name="Proces aplikacije" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{FFE031DC-1278-4B8E-AE6A-C8D486B3F7DB}" name="Lista neophodnih dokumenata" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{A3CB64C4-787A-4D5D-A31E-037D47BCA561}" name="Link za informacije o prijavi" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{2A4E65B2-B182-44CE-8C1E-844CC2177CFC}" name="Vremenski okvir" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{D7268B50-AA0A-4678-B0CA-B96626BF4CE7}" name="Dodatne napomene" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}" name="Table2" displayName="Table2" ref="A1:S31" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:S31" xr:uid="{DC01B4FA-5515-495E-8493-A665299851AA}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{1F9E85E2-0B42-4580-82E0-6EEF465356B7}" name="#" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{4219DB81-11D2-48FE-B7E2-5608FFF50B55}" name="Naziv " dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{694A58F1-2A0C-4062-B856-7D3DE3AB2B87}" name="Opis" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{E6B32774-7F5A-4404-BA91-DAEFC1C6DC74}" name="Životna dob" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{F53571F7-E67A-4D75-B971-A9E579E334CE}" name="Godine" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{C56B24ED-F555-4C1E-8F1F-95E0A9F19EBD}" name="Tip usluge/prava/benefita" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{E061CC34-19FF-417C-8134-E10A7AFAB410}" name="Institucija" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{772F549A-88E3-465F-A720-D9DB53E72F53}" name="Adresa" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{4CEF74C2-07E0-4B89-85D3-C9E9B9A1743A}" name="Web stranica" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{DF65403C-1AF1-4456-B8F7-E59BD4641A90}" name="Telefon" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{691CF05D-6BDD-4AAD-97E1-9C52B75F2E41}" name="Email" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{AE92B2E5-DC89-43B9-A62F-8B64611EDD93}" name="Pravni osnov" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{6CEED575-5B30-4A77-AB59-1EC60905A98A}" name="Proces aplikacije" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{FFE031DC-1278-4B8E-AE6A-C8D486B3F7DB}" name="Lista neophodnih dokumenata" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{A3CB64C4-787A-4D5D-A31E-037D47BCA561}" name="Link za informacije o prijavi" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{2A4E65B2-B182-44CE-8C1E-844CC2177CFC}" name="Vremenski okvir" dataDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{D7268B50-AA0A-4678-B0CA-B96626BF4CE7}" name="Dodatne napomene" dataDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{045AF29C-688A-4D4F-9936-EF4BB36A676F}" name="Lat" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{10CEB471-54FF-4511-B0ED-6E90754DA05E}" name="Lon" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5FC73C86-88F7-4509-A95A-5168F4D44A8C}" name="Table5" displayName="Table5" ref="A1:N19" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5FC73C86-88F7-4509-A95A-5168F4D44A8C}" name="Table5" displayName="Table5" ref="A1:N19" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{93C9BA4B-E353-4D19-A8B1-FD649D881751}" name="Naziv " dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{37CD3CA4-A5B4-48AA-8EAB-A634118E07F6}" name="Opis" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{166DA75C-3FDE-4343-A1C5-D2960F08F3B9}" name="Tip usluge/prava/benefita" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7400F049-A05D-4A4E-99A4-43B56FBA226C}" name="Životna dob" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{762D7820-5F72-4954-AFF5-8563D1F25EDF}" name="Korisnici" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{037E89ED-4586-4EB8-8009-1DC090C06F9E}" name="Ministartvo/Organizacija" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{2DE3B312-9D8F-4CF9-8624-2A6E25D376D2}" name="Adresa" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{F2FDB37F-57A2-4F5E-8AE1-29D816260855}" name="Web stranica" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{9507BFE2-DD4B-41AE-A7ED-EE3EA04689F9}" name="Telefon" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{422D2703-FD84-4A66-A590-54DC013958FF}" name="Email" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{7DAAC0A0-5795-416B-8172-BF7FB16CF71C}" name="Pravni okvir" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{3FECE412-1757-4D30-BE43-D03589D55C54}" name="Proces aplikacije" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{9CCCC0FB-8F10-4A5D-BA9F-34BEB2AACEA9}" name="Lista neophodnih dokumenata" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{897F94AA-266F-4177-BC01-F1BA673F652B}" name="Link za informacije o prijavi" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{93C9BA4B-E353-4D19-A8B1-FD649D881751}" name="Naziv " dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{37CD3CA4-A5B4-48AA-8EAB-A634118E07F6}" name="Opis" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{166DA75C-3FDE-4343-A1C5-D2960F08F3B9}" name="Tip usluge/prava/benefita" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{7400F049-A05D-4A4E-99A4-43B56FBA226C}" name="Životna dob" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{762D7820-5F72-4954-AFF5-8563D1F25EDF}" name="Korisnici" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{037E89ED-4586-4EB8-8009-1DC090C06F9E}" name="Ministartvo/Organizacija" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{2DE3B312-9D8F-4CF9-8624-2A6E25D376D2}" name="Adresa" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{F2FDB37F-57A2-4F5E-8AE1-29D816260855}" name="Web stranica" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{9507BFE2-DD4B-41AE-A7ED-EE3EA04689F9}" name="Telefon" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{422D2703-FD84-4A66-A590-54DC013958FF}" name="Email" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{7DAAC0A0-5795-416B-8172-BF7FB16CF71C}" name="Pravni okvir" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{3FECE412-1757-4D30-BE43-D03589D55C54}" name="Proces aplikacije" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{9CCCC0FB-8F10-4A5D-BA9F-34BEB2AACEA9}" name="Lista neophodnih dokumenata" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{897F94AA-266F-4177-BC01-F1BA673F652B}" name="Link za informacije o prijavi" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}" name="Zivotnadob" displayName="Zivotnadob" ref="D1:D5" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}" name="Zivotnadob" displayName="Zivotnadob" ref="D1:D5" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="D1:D5" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5BD196D3-17BC-4525-A2D1-C125915FE5E4}" name="Životna dob"/>
@@ -11884,16 +11959,16 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="50.4" customHeight="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="164" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11913,127 +11988,134 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="172"/>
     </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="174"/>
+      <c r="D7" s="173"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="166" t="e">
+      <c r="C8" s="165" t="e">
         <f>VLOOKUP(C7,All,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="167"/>
+      <c r="D8" s="166"/>
     </row>
     <row r="9" spans="1:21" ht="78" customHeight="1">
-      <c r="B9" s="168"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="168"/>
     </row>
     <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="163" t="e">
+      <c r="C10" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,6,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="164"/>
+      <c r="D10" s="170"/>
     </row>
     <row r="11" spans="1:21" ht="15">
       <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="163" t="e">
+      <c r="C11" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,7,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="164"/>
+      <c r="D11" s="170"/>
     </row>
     <row r="12" spans="1:21" ht="15">
       <c r="B12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="163" t="e">
+      <c r="C12" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,8,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="164"/>
+      <c r="D12" s="170"/>
     </row>
     <row r="13" spans="1:21" ht="15">
       <c r="B13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="163" t="e">
+      <c r="C13" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,9,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="164"/>
+      <c r="D13" s="170"/>
     </row>
     <row r="14" spans="1:21" ht="15">
       <c r="B14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="163" t="e">
+      <c r="C14" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,10,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="164"/>
+      <c r="D14" s="170"/>
     </row>
     <row r="15" spans="1:21" ht="62.25" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="166" t="e">
+      <c r="C15" s="165" t="e">
         <f>VLOOKUP($C$7,Usluge,11,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="166"/>
     </row>
     <row r="16" spans="1:21" ht="126" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="166" t="e">
+      <c r="C16" s="165" t="e">
         <f>VLOOKUP($C$7,Usluge,12,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="166"/>
     </row>
     <row r="17" spans="2:4" ht="15">
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="163" t="e">
+      <c r="C17" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,13,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="164"/>
+      <c r="D17" s="170"/>
     </row>
     <row r="18" spans="2:4" ht="15">
       <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="165" t="e">
+      <c r="C18" s="174" t="e">
         <f>VLOOKUP($C$7,Usluge,15,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="165"/>
+      <c r="D18" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C8:D9"/>
@@ -12041,13 +12123,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12078,9 +12153,9 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -12293,7 +12368,7 @@
     <sortCondition ref="A6:A11"/>
   </sortState>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{F41ABE82-6260-4AB9-9FC0-3D6CD3B57FED}"/>
@@ -12308,12 +12383,12 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646CFECD-C102-4B70-A315-649D04135A21}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -12337,7 +12412,7 @@
     <col min="18" max="16384" width="9.109375" style="130"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="114" customFormat="1" ht="40.5" customHeight="1">
+    <row r="1" spans="1:19" s="114" customFormat="1" ht="40.5" customHeight="1">
       <c r="A1" s="110" t="s">
         <v>73</v>
       </c>
@@ -12389,8 +12464,14 @@
       <c r="Q1" s="110" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="118" customFormat="1" ht="124.2">
+      <c r="R1" s="179" t="s">
+        <v>519</v>
+      </c>
+      <c r="S1" s="179" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="118" customFormat="1" ht="124.2">
       <c r="A2" s="115">
         <v>1</v>
       </c>
@@ -12438,8 +12519,16 @@
         <v>383</v>
       </c>
       <c r="Q2" s="115"/>
-    </row>
-    <row r="3" spans="1:17" s="118" customFormat="1" ht="260.10000000000002" customHeight="1">
+      <c r="R2" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.833867749999897</v>
+      </c>
+      <c r="S2" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.3318392646853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="118" customFormat="1" ht="260.10000000000002" customHeight="1">
       <c r="A3" s="115">
         <v>2</v>
       </c>
@@ -12485,8 +12574,16 @@
         <v>387</v>
       </c>
       <c r="Q3" s="115"/>
-    </row>
-    <row r="4" spans="1:17" s="118" customFormat="1" ht="345">
+      <c r="R3" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.899231149999999</v>
+      </c>
+      <c r="S3" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.4151610950864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="118" customFormat="1" ht="345">
       <c r="A4" s="115">
         <v>3</v>
       </c>
@@ -12534,8 +12631,16 @@
       <c r="Q4" s="116" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="118" customFormat="1" ht="165.6">
+      <c r="R4" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.857481149999998</v>
+      </c>
+      <c r="S4" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.416157265859901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="118" customFormat="1" ht="165.6">
       <c r="A5" s="115">
         <v>4</v>
       </c>
@@ -12587,8 +12692,16 @@
       <c r="Q5" s="119" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="118" customFormat="1" ht="216" customHeight="1">
+      <c r="R5" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.851796999999998</v>
+      </c>
+      <c r="S5" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.3827719453942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="118" customFormat="1" ht="216" customHeight="1">
       <c r="A6" s="115">
         <v>5</v>
       </c>
@@ -12636,8 +12749,16 @@
       <c r="Q6" s="115" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="118" customFormat="1" ht="207">
+      <c r="R6" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.857349450000001</v>
+      </c>
+      <c r="S6" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.413135847170199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="118" customFormat="1" ht="207">
       <c r="A7" s="115">
         <v>6</v>
       </c>
@@ -12685,8 +12806,16 @@
       <c r="Q7" s="115" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="118" customFormat="1" ht="132" customHeight="1">
+      <c r="R7" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.857201400000001</v>
+      </c>
+      <c r="S7" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.413743400000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="118" customFormat="1" ht="132" customHeight="1">
       <c r="A8" s="115">
         <v>7</v>
       </c>
@@ -12738,8 +12867,16 @@
       <c r="Q8" s="124" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="118" customFormat="1" ht="86.4">
+      <c r="R8" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.85633</v>
+      </c>
+      <c r="S8" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="118" customFormat="1" ht="86.4">
       <c r="A9" s="115">
         <v>8</v>
       </c>
@@ -12791,8 +12928,16 @@
       <c r="Q9" s="124" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="118" customFormat="1" ht="409.6">
+      <c r="R9" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.85633</v>
+      </c>
+      <c r="S9" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="118" customFormat="1" ht="409.6">
       <c r="A10" s="115">
         <v>9</v>
       </c>
@@ -12844,8 +12989,16 @@
       <c r="Q10" s="124" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="118" customFormat="1" ht="69">
+      <c r="R10" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.85633</v>
+      </c>
+      <c r="S10" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="118" customFormat="1" ht="69">
       <c r="A11" s="115">
         <v>10</v>
       </c>
@@ -12891,8 +13044,16 @@
       </c>
       <c r="P11" s="117"/>
       <c r="Q11" s="115"/>
-    </row>
-    <row r="12" spans="1:17" s="118" customFormat="1" ht="124.2">
+      <c r="R11" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.857349450000001</v>
+      </c>
+      <c r="S11" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.413135847170199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="118" customFormat="1" ht="124.2">
       <c r="A12" s="115">
         <v>11</v>
       </c>
@@ -12944,8 +13105,16 @@
       <c r="Q12" s="124" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="118" customFormat="1" ht="220.8">
+      <c r="R12" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.85633</v>
+      </c>
+      <c r="S12" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="118" customFormat="1" ht="220.8">
       <c r="A13" s="115">
         <v>12</v>
       </c>
@@ -12995,8 +13164,16 @@
       <c r="Q13" s="115" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="118" customFormat="1" ht="55.2">
+      <c r="R13" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.84666275</v>
+      </c>
+      <c r="S13" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.354620012764201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="118" customFormat="1" ht="55.2">
       <c r="A14" s="115">
         <v>13</v>
       </c>
@@ -13042,8 +13219,16 @@
       </c>
       <c r="P14" s="117"/>
       <c r="Q14" s="115"/>
-    </row>
-    <row r="15" spans="1:17" s="118" customFormat="1" ht="82.8">
+      <c r="R14" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.843953499999998</v>
+      </c>
+      <c r="S14" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="118" customFormat="1" ht="82.8">
       <c r="A15" s="115">
         <v>14</v>
       </c>
@@ -13089,8 +13274,16 @@
       </c>
       <c r="P15" s="117"/>
       <c r="Q15" s="115"/>
-    </row>
-    <row r="16" spans="1:17" s="118" customFormat="1" ht="69">
+      <c r="R15" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.843953499999998</v>
+      </c>
+      <c r="S15" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="118" customFormat="1" ht="69">
       <c r="A16" s="115">
         <v>15</v>
       </c>
@@ -13140,8 +13333,16 @@
         <v>60</v>
       </c>
       <c r="Q16" s="115"/>
-    </row>
-    <row r="17" spans="1:17" s="118" customFormat="1" ht="96" customHeight="1">
+      <c r="R16" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.843953499999998</v>
+      </c>
+      <c r="S16" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="118" customFormat="1" ht="96" customHeight="1">
       <c r="A17" s="115">
         <v>16</v>
       </c>
@@ -13191,8 +13392,16 @@
         <v>60</v>
       </c>
       <c r="Q17" s="115"/>
-    </row>
-    <row r="18" spans="1:17" s="118" customFormat="1" ht="151.80000000000001">
+      <c r="R17" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.843953499999998</v>
+      </c>
+      <c r="S17" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="118" customFormat="1" ht="151.80000000000001">
       <c r="A18" s="115">
         <v>17</v>
       </c>
@@ -13242,8 +13451,16 @@
         <v>60</v>
       </c>
       <c r="Q18" s="115"/>
-    </row>
-    <row r="19" spans="1:17" s="118" customFormat="1" ht="303.60000000000002">
+      <c r="R18" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.843953499999998</v>
+      </c>
+      <c r="S18" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="118" customFormat="1" ht="303.60000000000002">
       <c r="A19" s="115">
         <v>18</v>
       </c>
@@ -13293,8 +13510,16 @@
       <c r="Q19" s="115" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="118" customFormat="1" ht="179.4">
+      <c r="R19" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.85358815</v>
+      </c>
+      <c r="S19" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.394800338932299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="118" customFormat="1" ht="179.4">
       <c r="A20" s="115">
         <v>19</v>
       </c>
@@ -13344,8 +13569,16 @@
         <v>60</v>
       </c>
       <c r="Q20" s="115"/>
-    </row>
-    <row r="21" spans="1:17" s="118" customFormat="1" ht="55.2">
+      <c r="R20" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.843953499999998</v>
+      </c>
+      <c r="S20" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="118" customFormat="1" ht="55.2">
       <c r="A21" s="115">
         <v>20</v>
       </c>
@@ -13395,8 +13628,16 @@
         <v>60</v>
       </c>
       <c r="Q21" s="115"/>
-    </row>
-    <row r="22" spans="1:17" s="118" customFormat="1" ht="234.6">
+      <c r="R21" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.843953499999998</v>
+      </c>
+      <c r="S21" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="118" customFormat="1" ht="234.6">
       <c r="A22" s="115">
         <v>21</v>
       </c>
@@ -13444,8 +13685,16 @@
       </c>
       <c r="P22" s="117"/>
       <c r="Q22" s="115"/>
-    </row>
-    <row r="23" spans="1:17" s="128" customFormat="1" ht="219.75" customHeight="1">
+      <c r="R22" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.843953499999998</v>
+      </c>
+      <c r="S22" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="128" customFormat="1" ht="219.75" customHeight="1">
       <c r="A23" s="115">
         <v>22</v>
       </c>
@@ -13497,8 +13746,16 @@
       <c r="Q23" s="124" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="118" customFormat="1" ht="262.2">
+      <c r="R23" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.85633</v>
+      </c>
+      <c r="S23" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="118" customFormat="1" ht="262.2">
       <c r="A24" s="115">
         <v>23</v>
       </c>
@@ -13544,8 +13801,16 @@
       <c r="Q24" s="115" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="118" customFormat="1" ht="55.2">
+      <c r="R24" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.833867749999897</v>
+      </c>
+      <c r="S24" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.3318392646853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="118" customFormat="1" ht="55.2">
       <c r="A25" s="115">
         <v>24</v>
       </c>
@@ -13597,8 +13862,16 @@
       <c r="Q25" s="124" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="118" customFormat="1" ht="138">
+      <c r="R25" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.85633</v>
+      </c>
+      <c r="S25" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="118" customFormat="1" ht="138">
       <c r="A26" s="115">
         <v>25</v>
       </c>
@@ -13642,8 +13915,16 @@
       <c r="O26" s="115"/>
       <c r="P26" s="117"/>
       <c r="Q26" s="115"/>
-    </row>
-    <row r="27" spans="1:17" s="118" customFormat="1" ht="220.8">
+      <c r="R26" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.856848849999999</v>
+      </c>
+      <c r="S26" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.384989102369499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="118" customFormat="1" ht="220.8">
       <c r="A27" s="115">
         <v>26</v>
       </c>
@@ -13689,8 +13970,16 @@
       <c r="Q27" s="115" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="118" customFormat="1" ht="409.6">
+      <c r="R27" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.833867749999897</v>
+      </c>
+      <c r="S27" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.3318392646853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="118" customFormat="1" ht="409.6">
       <c r="A28" s="115">
         <v>27</v>
       </c>
@@ -13738,8 +14027,16 @@
       <c r="Q28" s="115" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="118" customFormat="1" ht="409.6">
+      <c r="R28" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.857201400000001</v>
+      </c>
+      <c r="S28" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.413743400000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="118" customFormat="1" ht="409.6">
       <c r="A29" s="115">
         <v>28</v>
       </c>
@@ -13787,8 +14084,16 @@
       <c r="Q29" s="115" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="118" customFormat="1" ht="409.6">
+      <c r="R29" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.857201400000001</v>
+      </c>
+      <c r="S29" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.413743400000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="118" customFormat="1" ht="409.6">
       <c r="A30" s="115">
         <v>29</v>
       </c>
@@ -13830,8 +14135,16 @@
       </c>
       <c r="P30" s="117"/>
       <c r="Q30" s="115"/>
-    </row>
-    <row r="31" spans="1:17" s="118" customFormat="1" ht="179.4">
+      <c r="R30" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="118" customFormat="1" ht="179.4">
       <c r="A31" s="115">
         <v>30</v>
       </c>
@@ -13873,6 +14186,14 @@
       <c r="Q31" s="115" t="s">
         <v>354</v>
       </c>
+      <c r="R31" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="178">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q31">
@@ -13880,7 +14201,7 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27 F13 F24" xr:uid="{B142B612-B83B-4802-8CE2-9604B24FEE64}">
@@ -13988,12 +14309,12 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE97C4-5CE4-4386-BABA-CA4D0DFA0DEA}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -14013,7 +14334,7 @@
     <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51.6" customHeight="1">
+    <row r="1" spans="1:16" ht="51.6" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>1</v>
       </c>
@@ -14056,8 +14377,14 @@
       <c r="N1" s="133" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="57">
+      <c r="O1" t="s">
+        <v>519</v>
+      </c>
+      <c r="P1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="57">
       <c r="A2" s="135" t="s">
         <v>3</v>
       </c>
@@ -14090,8 +14417,16 @@
       </c>
       <c r="M2" s="86"/>
       <c r="N2" s="86"/>
-    </row>
-    <row r="3" spans="1:14" ht="125.4">
+      <c r="O2">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.858553000000001</v>
+      </c>
+      <c r="P2">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.402099609375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="125.4">
       <c r="A3" s="136" t="s">
         <v>52</v>
       </c>
@@ -14134,8 +14469,16 @@
       <c r="N3" s="86" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="159.6">
+      <c r="O3">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.857349450000001</v>
+      </c>
+      <c r="P3">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.413135847170199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="159.6">
       <c r="A4" s="135" t="s">
         <v>437</v>
       </c>
@@ -14162,8 +14505,16 @@
       <c r="L4" s="135"/>
       <c r="M4" s="86"/>
       <c r="N4" s="86"/>
-    </row>
-    <row r="5" spans="1:14" ht="136.80000000000001">
+      <c r="O4">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="136.80000000000001">
       <c r="A5" s="135" t="s">
         <v>6</v>
       </c>
@@ -14206,8 +14557,16 @@
       <c r="N5" s="137" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="57.6">
+      <c r="O5">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.829455600000003</v>
+      </c>
+      <c r="P5">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.310951865680199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="57.6">
       <c r="A6" s="135" t="s">
         <v>61</v>
       </c>
@@ -14248,8 +14607,16 @@
       <c r="N6" s="135" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="57.6">
+      <c r="O6">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.829455600000003</v>
+      </c>
+      <c r="P6">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.310951865680199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="57.6">
       <c r="A7" s="135" t="s">
         <v>7</v>
       </c>
@@ -14292,8 +14659,16 @@
       <c r="N7" s="137" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="125.4">
+      <c r="O7">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.829455600000003</v>
+      </c>
+      <c r="P7">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.310951865680199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="125.4">
       <c r="A8" s="135" t="s">
         <v>43</v>
       </c>
@@ -14322,8 +14697,16 @@
         <v>279</v>
       </c>
       <c r="N8" s="86"/>
-    </row>
-    <row r="9" spans="1:14" ht="182.4">
+      <c r="O8">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.847950949999998</v>
+      </c>
+      <c r="P8">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.3536972495775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="182.4">
       <c r="A9" s="135" t="s">
         <v>44</v>
       </c>
@@ -14354,8 +14737,16 @@
         <v>274</v>
       </c>
       <c r="N9" s="86"/>
-    </row>
-    <row r="10" spans="1:14" ht="34.200000000000003">
+      <c r="O9">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="34.200000000000003">
       <c r="A10" s="135" t="s">
         <v>12</v>
       </c>
@@ -14382,8 +14773,16 @@
       <c r="L10" s="135"/>
       <c r="M10" s="86"/>
       <c r="N10" s="86"/>
-    </row>
-    <row r="11" spans="1:14" ht="172.8">
+      <c r="O10">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="172.8">
       <c r="A11" s="135" t="s">
         <v>13</v>
       </c>
@@ -14414,8 +14813,16 @@
       <c r="L11" s="135"/>
       <c r="M11" s="135"/>
       <c r="N11" s="86"/>
-    </row>
-    <row r="12" spans="1:14" ht="102.6">
+      <c r="O11">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.852587649999997</v>
+      </c>
+      <c r="P11">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.3816443990954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="102.6">
       <c r="A12" s="135" t="s">
         <v>364</v>
       </c>
@@ -14444,8 +14851,16 @@
         <v>194</v>
       </c>
       <c r="N12" s="86"/>
-    </row>
-    <row r="13" spans="1:14" ht="248.4">
+      <c r="O12">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="248.4">
       <c r="A13" s="119" t="s">
         <v>448</v>
       </c>
@@ -14480,8 +14895,16 @@
       </c>
       <c r="M13" s="86"/>
       <c r="N13" s="86"/>
-    </row>
-    <row r="14" spans="1:14" ht="34.200000000000003">
+      <c r="O13">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.85633</v>
+      </c>
+      <c r="P13">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="34.200000000000003">
       <c r="A14" s="135" t="s">
         <v>45</v>
       </c>
@@ -14504,8 +14927,16 @@
       <c r="L14" s="135"/>
       <c r="M14" s="86"/>
       <c r="N14" s="86"/>
-    </row>
-    <row r="15" spans="1:14" ht="125.4">
+      <c r="O14">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="125.4">
       <c r="A15" s="135" t="s">
         <v>55</v>
       </c>
@@ -14521,8 +14952,16 @@
       <c r="L15" s="136" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="99" customHeight="1">
+      <c r="O15">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="99" customHeight="1">
       <c r="A16" s="135" t="s">
         <v>56</v>
       </c>
@@ -14565,8 +15004,16 @@
       <c r="N16" s="86" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="115.2">
+      <c r="O16">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.857349450000001</v>
+      </c>
+      <c r="P16">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.413135847170199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="115.2">
       <c r="A17" s="135" t="s">
         <v>36</v>
       </c>
@@ -14603,8 +15050,16 @@
       <c r="N17" s="86" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="68.400000000000006">
+      <c r="O17">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>43.8671705</v>
+      </c>
+      <c r="P17">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>18.413270799999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="68.400000000000006">
       <c r="A18" s="135" t="s">
         <v>37</v>
       </c>
@@ -14624,8 +15079,16 @@
         <v>231</v>
       </c>
       <c r="G18" s="135"/>
-    </row>
-    <row r="19" spans="1:14" ht="57">
+      <c r="O18">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="57">
       <c r="A19" s="135" t="s">
         <v>31</v>
       </c>
@@ -14652,35 +15115,43 @@
       <c r="L19" s="135"/>
       <c r="M19" s="86"/>
       <c r="N19" s="86"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>IFERROR(VLOOKUP(Table5[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="D20" s="135"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:16">
       <c r="D21" s="135"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:16">
       <c r="D22" s="135"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:16">
       <c r="D23" s="135"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:16">
       <c r="D24" s="135"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:16">
       <c r="D25" s="135"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:16">
       <c r="D26" s="135"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:16">
       <c r="D27" s="135"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:16">
       <c r="D28" s="135"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:16">
       <c r="D29" s="135"/>
     </row>
   </sheetData>
@@ -14689,7 +15160,7 @@
     <sortCondition ref="A17:A19"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1" xr:uid="{AD625D9F-010B-4FD0-91E9-6E5C5A331511}"/>
@@ -14733,6 +15204,298 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3BD921-B36B-41AC-9499-738ACB1F9E96}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="48" style="177" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>43.858553000000001</v>
+      </c>
+      <c r="C2">
+        <v>18.402099609375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="175" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3">
+        <v>43.857349450000001</v>
+      </c>
+      <c r="C3">
+        <v>18.413135847170199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>43.829455600000003</v>
+      </c>
+      <c r="C4">
+        <v>18.310951865680199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="175" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5">
+        <v>43.847950949999998</v>
+      </c>
+      <c r="C5">
+        <v>18.3536972495775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="175" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>43.852587649999997</v>
+      </c>
+      <c r="C6">
+        <v>18.3816443990954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="176" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>43.85633</v>
+      </c>
+      <c r="C7">
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="175" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8">
+        <v>43.857349450000001</v>
+      </c>
+      <c r="C8">
+        <v>18.413135847170199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="175" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9">
+        <v>43.8671705</v>
+      </c>
+      <c r="C9">
+        <v>18.413270799999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="177" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10">
+        <v>43.833867749999897</v>
+      </c>
+      <c r="C10">
+        <v>18.3318392646853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="177" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>43.899231149999999</v>
+      </c>
+      <c r="C11">
+        <v>18.4151610950864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="177" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12">
+        <v>43.857481149999998</v>
+      </c>
+      <c r="C12">
+        <v>18.416157265859901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="177" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>43.851796999999998</v>
+      </c>
+      <c r="C13">
+        <v>18.3827719453942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="177" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14">
+        <v>43.857349450000001</v>
+      </c>
+      <c r="C14">
+        <v>18.413135847170199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="177" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15">
+        <v>43.857201400000001</v>
+      </c>
+      <c r="C15">
+        <v>18.413743400000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>43.85633</v>
+      </c>
+      <c r="C16">
+        <v>18.384492399999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="177" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17">
+        <v>43.84666275</v>
+      </c>
+      <c r="C17">
+        <v>18.354620012764201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18">
+        <v>43.843953499999998</v>
+      </c>
+      <c r="C18">
+        <v>18.358142300000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="177" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19">
+        <v>43.85358815</v>
+      </c>
+      <c r="C19">
+        <v>18.394800338932299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="177" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>43.856848849999999</v>
+      </c>
+      <c r="C20">
+        <v>18.384989102369499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD402D6-5248-4450-A001-D79F85E5A884}">
   <sheetPr codeName="Sheet16" filterMode="1"/>
   <dimension ref="A1:F62"/>
@@ -15971,10 +16734,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A76:A89">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E13 E15 E17:E18 E25" xr:uid="{C1C4E9A7-6004-4A23-9DB4-D2602854CE25}">
@@ -15997,7 +16760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135B8FDC-E7BC-4D1A-848A-40740B356A39}">
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:F62"/>
@@ -17058,10 +17821,10 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A76:A89">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28 D13 D15 D17:D18 D25" xr:uid="{B9FF6229-F6FB-4F96-8339-6D0E1C29EB5B}">
@@ -17084,7 +17847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AECC7D0-5F0E-45C9-9C31-E98820A856AD}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Q64"/>
@@ -19939,7 +20702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4A8391-2707-49BC-A199-F020DD08ECF4}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I44"/>

--- a/Mapping of services.xlsx
+++ b/Mapping of services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anes-PC\Github\amra-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C94AE7-EC8B-414B-9B4E-ACBE01614D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54E231D-777E-4F09-83B2-A4FD79C88D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="12" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="12" xr2:uid="{6DCFD875-645F-4B85-AAFB-14BA6F769E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="14" state="hidden" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="520">
   <si>
     <t>Životna dob</t>
   </si>
@@ -1798,9 +1798,6 @@
   </si>
   <si>
     <t>Godine</t>
-  </si>
-  <si>
-    <t>Institucija</t>
   </si>
   <si>
     <t>Vremenski okvir</t>
@@ -3024,7 +3021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3401,6 +3398,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3416,11 +3422,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3428,17 +3437,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3449,64 +3458,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="59">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3885,6 +3842,42 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10650,7 +10643,7 @@
     <tableColumn id="4" xr3:uid="{E6B32774-7F5A-4404-BA91-DAEFC1C6DC74}" name="Životna dob" dataDxfId="41"/>
     <tableColumn id="5" xr3:uid="{F53571F7-E67A-4D75-B971-A9E579E334CE}" name="Godine" dataDxfId="40"/>
     <tableColumn id="6" xr3:uid="{C56B24ED-F555-4C1E-8F1F-95E0A9F19EBD}" name="Tip usluge/prava/benefita" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{E061CC34-19FF-417C-8134-E10A7AFAB410}" name="Institucija" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{E061CC34-19FF-417C-8134-E10A7AFAB410}" name="Ministartvo/Organizacija" dataDxfId="38"/>
     <tableColumn id="8" xr3:uid="{772F549A-88E3-465F-A720-D9DB53E72F53}" name="Adresa" dataDxfId="37"/>
     <tableColumn id="9" xr3:uid="{4CEF74C2-07E0-4B89-85D3-C9E9B9A1743A}" name="Web stranica" dataDxfId="36"/>
     <tableColumn id="10" xr3:uid="{DF65403C-1AF1-4456-B8F7-E59BD4641A90}" name="Telefon" dataDxfId="35"/>
@@ -10661,10 +10654,10 @@
     <tableColumn id="15" xr3:uid="{A3CB64C4-787A-4D5D-A31E-037D47BCA561}" name="Link za informacije o prijavi" dataDxfId="30"/>
     <tableColumn id="16" xr3:uid="{2A4E65B2-B182-44CE-8C1E-844CC2177CFC}" name="Vremenski okvir" dataDxfId="29"/>
     <tableColumn id="17" xr3:uid="{D7268B50-AA0A-4678-B0CA-B96626BF4CE7}" name="Dodatne napomene" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{045AF29C-688A-4D4F-9936-EF4BB36A676F}" name="Lat" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{045AF29C-688A-4D4F-9936-EF4BB36A676F}" name="Lat" dataDxfId="27">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{10CEB471-54FF-4511-B0ED-6E90754DA05E}" name="Lon" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{10CEB471-54FF-4511-B0ED-6E90754DA05E}" name="Lon" dataDxfId="26">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10673,29 +10666,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5FC73C86-88F7-4509-A95A-5168F4D44A8C}" name="Table5" displayName="Table5" ref="A1:N19" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5FC73C86-88F7-4509-A95A-5168F4D44A8C}" name="Table5" displayName="Table5" ref="A1:N19" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{93C9BA4B-E353-4D19-A8B1-FD649D881751}" name="Naziv " dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{37CD3CA4-A5B4-48AA-8EAB-A634118E07F6}" name="Opis" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{166DA75C-3FDE-4343-A1C5-D2960F08F3B9}" name="Tip usluge/prava/benefita" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{7400F049-A05D-4A4E-99A4-43B56FBA226C}" name="Životna dob" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{762D7820-5F72-4954-AFF5-8563D1F25EDF}" name="Korisnici" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{037E89ED-4586-4EB8-8009-1DC090C06F9E}" name="Ministartvo/Organizacija" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{2DE3B312-9D8F-4CF9-8624-2A6E25D376D2}" name="Adresa" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{F2FDB37F-57A2-4F5E-8AE1-29D816260855}" name="Web stranica" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{9507BFE2-DD4B-41AE-A7ED-EE3EA04689F9}" name="Telefon" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{422D2703-FD84-4A66-A590-54DC013958FF}" name="Email" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{7DAAC0A0-5795-416B-8172-BF7FB16CF71C}" name="Pravni okvir" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{3FECE412-1757-4D30-BE43-D03589D55C54}" name="Proces aplikacije" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{9CCCC0FB-8F10-4A5D-BA9F-34BEB2AACEA9}" name="Lista neophodnih dokumenata" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{897F94AA-266F-4177-BC01-F1BA673F652B}" name="Link za informacije o prijavi" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{93C9BA4B-E353-4D19-A8B1-FD649D881751}" name="Naziv " dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{37CD3CA4-A5B4-48AA-8EAB-A634118E07F6}" name="Opis" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{166DA75C-3FDE-4343-A1C5-D2960F08F3B9}" name="Tip usluge/prava/benefita" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7400F049-A05D-4A4E-99A4-43B56FBA226C}" name="Životna dob" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{762D7820-5F72-4954-AFF5-8563D1F25EDF}" name="Korisnici" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{037E89ED-4586-4EB8-8009-1DC090C06F9E}" name="Ministartvo/Organizacija" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{2DE3B312-9D8F-4CF9-8624-2A6E25D376D2}" name="Adresa" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{F2FDB37F-57A2-4F5E-8AE1-29D816260855}" name="Web stranica" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{9507BFE2-DD4B-41AE-A7ED-EE3EA04689F9}" name="Telefon" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{422D2703-FD84-4A66-A590-54DC013958FF}" name="Email" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{7DAAC0A0-5795-416B-8172-BF7FB16CF71C}" name="Pravni okvir" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{3FECE412-1757-4D30-BE43-D03589D55C54}" name="Proces aplikacije" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{9CCCC0FB-8F10-4A5D-BA9F-34BEB2AACEA9}" name="Lista neophodnih dokumenata" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{897F94AA-266F-4177-BC01-F1BA673F652B}" name="Link za informacije o prijavi" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}" name="Zivotnadob" displayName="Zivotnadob" ref="D1:D5" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}" name="Zivotnadob" displayName="Zivotnadob" ref="D1:D5" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="D1:D5" xr:uid="{E703D76D-D302-4320-BEB5-A55625437D7F}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5BD196D3-17BC-4525-A2D1-C125915FE5E4}" name="Životna dob"/>
@@ -11861,12 +11854,12 @@
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="161" t="e">
+      <c r="F16" s="164" t="e">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
     </row>
     <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
@@ -11959,16 +11952,16 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="50.4" customHeight="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="172" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11988,127 +11981,134 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="172"/>
+      <c r="D6" s="176"/>
     </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="173"/>
+      <c r="D7" s="177"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="165" t="e">
+      <c r="C8" s="169" t="e">
         <f>VLOOKUP(C7,All,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="D8" s="170"/>
     </row>
     <row r="9" spans="1:21" ht="78" customHeight="1">
-      <c r="B9" s="163"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="174"/>
     </row>
     <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="169" t="e">
+      <c r="C10" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,6,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="170"/>
+      <c r="D10" s="167"/>
     </row>
     <row r="11" spans="1:21" ht="15">
       <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="169" t="e">
+      <c r="C11" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,7,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="170"/>
+      <c r="D11" s="167"/>
     </row>
     <row r="12" spans="1:21" ht="15">
       <c r="B12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="169" t="e">
+      <c r="C12" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,8,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="170"/>
+      <c r="D12" s="167"/>
     </row>
     <row r="13" spans="1:21" ht="15">
       <c r="B13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="169" t="e">
+      <c r="C13" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,9,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="170"/>
+      <c r="D13" s="167"/>
     </row>
     <row r="14" spans="1:21" ht="15">
       <c r="B14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="169" t="e">
+      <c r="C14" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,10,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="170"/>
+      <c r="D14" s="167"/>
     </row>
     <row r="15" spans="1:21" ht="62.25" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="165" t="e">
+      <c r="C15" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,11,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="170"/>
     </row>
     <row r="16" spans="1:21" ht="126" customHeight="1">
       <c r="B16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="165" t="e">
+      <c r="C16" s="169" t="e">
         <f>VLOOKUP($C$7,Usluge,12,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="170"/>
     </row>
     <row r="17" spans="2:4" ht="15">
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="169" t="e">
+      <c r="C17" s="166" t="e">
         <f>VLOOKUP($C$7,Usluge,13,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="170"/>
+      <c r="D17" s="167"/>
     </row>
     <row r="18" spans="2:4" ht="15">
       <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="174" t="e">
+      <c r="C18" s="168" t="e">
         <f>VLOOKUP($C$7,Usluge,15,0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="174"/>
+      <c r="D18" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C12:D12"/>
@@ -12116,13 +12116,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12243,7 +12236,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="171">
+    <row r="5" spans="1:6" ht="182.4">
       <c r="A5" s="135" t="s">
         <v>57</v>
       </c>
@@ -12261,7 +12254,7 @@
       </c>
       <c r="F5" s="135"/>
     </row>
-    <row r="6" spans="1:6" ht="285">
+    <row r="6" spans="1:6" ht="296.39999999999998">
       <c r="A6" s="135" t="s">
         <v>48</v>
       </c>
@@ -12333,7 +12326,7 @@
       </c>
       <c r="F9" s="135"/>
     </row>
-    <row r="10" spans="1:6" ht="91.2">
+    <row r="10" spans="1:6" ht="102.6">
       <c r="A10" s="136" t="s">
         <v>23</v>
       </c>
@@ -12368,7 +12361,7 @@
     <sortCondition ref="A6:A11"/>
   </sortState>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{F41ABE82-6260-4AB9-9FC0-3D6CD3B57FED}"/>
@@ -12385,10 +12378,10 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -12432,7 +12425,7 @@
         <v>75</v>
       </c>
       <c r="G1" s="110" t="s">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="H1" s="110" t="s">
         <v>77</v>
@@ -12459,16 +12452,16 @@
         <v>84</v>
       </c>
       <c r="P1" s="113" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q1" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="179" t="s">
+      <c r="R1" s="160" t="s">
+        <v>518</v>
+      </c>
+      <c r="S1" s="160" t="s">
         <v>519</v>
-      </c>
-      <c r="S1" s="179" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="118" customFormat="1" ht="124.2">
@@ -12485,7 +12478,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F2" s="115" t="s">
         <v>110</v>
@@ -12512,18 +12505,18 @@
         <v>317</v>
       </c>
       <c r="N2" s="115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O2" s="115"/>
       <c r="P2" s="117" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q2" s="115"/>
-      <c r="R2" s="178">
+      <c r="R2" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.833867749999897</v>
       </c>
-      <c r="S2" s="178">
+      <c r="S2" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.3318392646853</v>
       </c>
@@ -12539,7 +12532,7 @@
         <v>99</v>
       </c>
       <c r="D3" s="156" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E3" s="115"/>
       <c r="F3" s="115" t="s">
@@ -12564,21 +12557,21 @@
         <v>106</v>
       </c>
       <c r="M3" s="115" t="s">
+        <v>384</v>
+      </c>
+      <c r="N3" s="115" t="s">
         <v>385</v>
-      </c>
-      <c r="N3" s="115" t="s">
-        <v>386</v>
       </c>
       <c r="O3" s="115"/>
       <c r="P3" s="117" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q3" s="115"/>
-      <c r="R3" s="178">
+      <c r="R3" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.899231149999999</v>
       </c>
-      <c r="S3" s="178">
+      <c r="S3" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.4151610950864</v>
       </c>
@@ -12594,7 +12587,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="156" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115" t="s">
@@ -12626,16 +12619,16 @@
         <v>262</v>
       </c>
       <c r="P4" s="117" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="116" t="s">
         <v>258</v>
       </c>
-      <c r="R4" s="178">
+      <c r="R4" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.857481149999998</v>
       </c>
-      <c r="S4" s="178">
+      <c r="S4" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.416157265859901</v>
       </c>
@@ -12648,13 +12641,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="156" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="E5" s="119" t="s">
         <v>390</v>
-      </c>
-      <c r="E5" s="119" t="s">
-        <v>391</v>
       </c>
       <c r="F5" s="119" t="s">
         <v>110</v>
@@ -12681,22 +12674,22 @@
         <v>130</v>
       </c>
       <c r="N5" s="119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O5" s="121" t="s">
         <v>132</v>
       </c>
       <c r="P5" s="122" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q5" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="178">
+      <c r="R5" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.851796999999998</v>
       </c>
-      <c r="S5" s="178">
+      <c r="S5" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.3827719453942</v>
       </c>
@@ -12725,35 +12718,35 @@
         <v>265</v>
       </c>
       <c r="I6" s="115" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" s="115" t="s">
         <v>394</v>
       </c>
-      <c r="J6" s="115" t="s">
+      <c r="K6" s="115" t="s">
         <v>395</v>
-      </c>
-      <c r="K6" s="115" t="s">
-        <v>396</v>
       </c>
       <c r="L6" s="115" t="s">
         <v>320</v>
       </c>
       <c r="M6" s="138" t="s">
+        <v>396</v>
+      </c>
+      <c r="N6" s="138" t="s">
         <v>397</v>
       </c>
-      <c r="N6" s="138" t="s">
+      <c r="O6" s="76" t="s">
         <v>398</v>
-      </c>
-      <c r="O6" s="76" t="s">
-        <v>399</v>
       </c>
       <c r="P6" s="117"/>
       <c r="Q6" s="115" t="s">
         <v>321</v>
       </c>
-      <c r="R6" s="178">
+      <c r="R6" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.857349450000001</v>
       </c>
-      <c r="S6" s="178">
+      <c r="S6" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.413135847170199</v>
       </c>
@@ -12772,7 +12765,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="115" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F7" s="115" t="s">
         <v>110</v>
@@ -12806,11 +12799,11 @@
       <c r="Q7" s="115" t="s">
         <v>328</v>
       </c>
-      <c r="R7" s="178">
+      <c r="R7" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.857201400000001</v>
       </c>
-      <c r="S7" s="178">
+      <c r="S7" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.413743400000001</v>
       </c>
@@ -12820,16 +12813,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="156" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="156" t="s">
         <v>401</v>
       </c>
-      <c r="C8" s="156" t="s">
-        <v>402</v>
-      </c>
       <c r="D8" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="124" t="s">
         <v>390</v>
-      </c>
-      <c r="E8" s="124" t="s">
-        <v>391</v>
       </c>
       <c r="F8" s="124" t="s">
         <v>88</v>
@@ -12867,11 +12860,11 @@
       <c r="Q8" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="178">
+      <c r="R8" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.85633</v>
       </c>
-      <c r="S8" s="178">
+      <c r="S8" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.384492399999999</v>
       </c>
@@ -12887,10 +12880,10 @@
         <v>138</v>
       </c>
       <c r="D9" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="124" t="s">
         <v>390</v>
-      </c>
-      <c r="E9" s="124" t="s">
-        <v>391</v>
       </c>
       <c r="F9" s="124" t="s">
         <v>88</v>
@@ -12917,10 +12910,10 @@
         <v>140</v>
       </c>
       <c r="N9" s="139" t="s">
+        <v>402</v>
+      </c>
+      <c r="O9" s="140" t="s">
         <v>403</v>
-      </c>
-      <c r="O9" s="140" t="s">
-        <v>404</v>
       </c>
       <c r="P9" s="124" t="s">
         <v>95</v>
@@ -12928,11 +12921,11 @@
       <c r="Q9" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="178">
+      <c r="R9" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.85633</v>
       </c>
-      <c r="S9" s="178">
+      <c r="S9" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.384492399999999</v>
       </c>
@@ -12942,16 +12935,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="156" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="156" t="s">
         <v>405</v>
       </c>
-      <c r="C10" s="156" t="s">
-        <v>406</v>
-      </c>
       <c r="D10" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="124" t="s">
         <v>390</v>
-      </c>
-      <c r="E10" s="124" t="s">
-        <v>391</v>
       </c>
       <c r="F10" s="124" t="s">
         <v>88</v>
@@ -12978,22 +12971,22 @@
         <v>143</v>
       </c>
       <c r="N10" s="139" t="s">
+        <v>406</v>
+      </c>
+      <c r="O10" s="140" t="s">
         <v>407</v>
-      </c>
-      <c r="O10" s="140" t="s">
-        <v>408</v>
       </c>
       <c r="P10" s="124" t="s">
         <v>95</v>
       </c>
       <c r="Q10" s="124" t="s">
-        <v>409</v>
-      </c>
-      <c r="R10" s="178">
+        <v>408</v>
+      </c>
+      <c r="R10" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.85633</v>
       </c>
-      <c r="S10" s="178">
+      <c r="S10" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.384492399999999</v>
       </c>
@@ -13009,10 +13002,10 @@
         <v>263</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" s="115" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F11" s="115" t="s">
         <v>88</v>
@@ -13044,11 +13037,11 @@
       </c>
       <c r="P11" s="117"/>
       <c r="Q11" s="115"/>
-      <c r="R11" s="178">
+      <c r="R11" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.857349450000001</v>
       </c>
-      <c r="S11" s="178">
+      <c r="S11" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.413135847170199</v>
       </c>
@@ -13064,10 +13057,10 @@
         <v>208</v>
       </c>
       <c r="D12" s="156" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="124" t="s">
         <v>410</v>
-      </c>
-      <c r="E12" s="124" t="s">
-        <v>411</v>
       </c>
       <c r="F12" s="124" t="s">
         <v>88</v>
@@ -13094,10 +13087,10 @@
         <v>210</v>
       </c>
       <c r="N12" s="139" t="s">
+        <v>411</v>
+      </c>
+      <c r="O12" s="140" t="s">
         <v>412</v>
-      </c>
-      <c r="O12" s="140" t="s">
-        <v>413</v>
       </c>
       <c r="P12" s="124" t="s">
         <v>95</v>
@@ -13105,11 +13098,11 @@
       <c r="Q12" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="R12" s="178">
+      <c r="R12" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.85633</v>
       </c>
-      <c r="S12" s="178">
+      <c r="S12" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.384492399999999</v>
       </c>
@@ -13125,10 +13118,10 @@
         <v>211</v>
       </c>
       <c r="D13" s="156" t="s">
+        <v>413</v>
+      </c>
+      <c r="E13" s="115" t="s">
         <v>414</v>
-      </c>
-      <c r="E13" s="115" t="s">
-        <v>415</v>
       </c>
       <c r="F13" s="115" t="s">
         <v>88</v>
@@ -13164,11 +13157,11 @@
       <c r="Q13" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="R13" s="178">
+      <c r="R13" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.84666275</v>
       </c>
-      <c r="S13" s="178">
+      <c r="S13" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.354620012764201</v>
       </c>
@@ -13184,10 +13177,10 @@
         <v>109</v>
       </c>
       <c r="D14" s="156" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" s="115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>110</v>
@@ -13219,11 +13212,11 @@
       </c>
       <c r="P14" s="117"/>
       <c r="Q14" s="115"/>
-      <c r="R14" s="178">
+      <c r="R14" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.843953499999998</v>
       </c>
-      <c r="S14" s="178">
+      <c r="S14" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.358142300000001</v>
       </c>
@@ -13242,7 +13235,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F15" s="115" t="s">
         <v>110</v>
@@ -13274,11 +13267,11 @@
       </c>
       <c r="P15" s="117"/>
       <c r="Q15" s="115"/>
-      <c r="R15" s="178">
+      <c r="R15" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.843953499999998</v>
       </c>
-      <c r="S15" s="178">
+      <c r="S15" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.358142300000001</v>
       </c>
@@ -13294,10 +13287,10 @@
         <v>144</v>
       </c>
       <c r="D16" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="E16" s="115" t="s">
         <v>390</v>
-      </c>
-      <c r="E16" s="115" t="s">
-        <v>391</v>
       </c>
       <c r="F16" s="115" t="s">
         <v>110</v>
@@ -13333,11 +13326,11 @@
         <v>60</v>
       </c>
       <c r="Q16" s="115"/>
-      <c r="R16" s="178">
+      <c r="R16" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.843953499999998</v>
       </c>
-      <c r="S16" s="178">
+      <c r="S16" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.358142300000001</v>
       </c>
@@ -13356,13 +13349,13 @@
         <v>60</v>
       </c>
       <c r="E17" s="117" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F17" s="115" t="s">
         <v>110</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H17" s="115" t="s">
         <v>112</v>
@@ -13392,11 +13385,11 @@
         <v>60</v>
       </c>
       <c r="Q17" s="115"/>
-      <c r="R17" s="178">
+      <c r="R17" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.843953499999998</v>
       </c>
-      <c r="S17" s="178">
+      <c r="S17" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.358142300000001</v>
       </c>
@@ -13415,7 +13408,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="115" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F18" s="115" t="s">
         <v>110</v>
@@ -13451,11 +13444,11 @@
         <v>60</v>
       </c>
       <c r="Q18" s="115"/>
-      <c r="R18" s="178">
+      <c r="R18" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.843953499999998</v>
       </c>
-      <c r="S18" s="178">
+      <c r="S18" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.358142300000001</v>
       </c>
@@ -13474,7 +13467,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="115" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F19" s="115" t="s">
         <v>222</v>
@@ -13510,11 +13503,11 @@
       <c r="Q19" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="R19" s="178">
+      <c r="R19" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.85358815</v>
       </c>
-      <c r="S19" s="178">
+      <c r="S19" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.394800338932299</v>
       </c>
@@ -13530,10 +13523,10 @@
         <v>149</v>
       </c>
       <c r="D20" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="E20" s="115" t="s">
         <v>390</v>
-      </c>
-      <c r="E20" s="115" t="s">
-        <v>391</v>
       </c>
       <c r="F20" s="115" t="s">
         <v>110</v>
@@ -13569,11 +13562,11 @@
         <v>60</v>
       </c>
       <c r="Q20" s="115"/>
-      <c r="R20" s="178">
+      <c r="R20" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.843953499999998</v>
       </c>
-      <c r="S20" s="178">
+      <c r="S20" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.358142300000001</v>
       </c>
@@ -13589,10 +13582,10 @@
         <v>152</v>
       </c>
       <c r="D21" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="115" t="s">
         <v>390</v>
-      </c>
-      <c r="E21" s="115" t="s">
-        <v>391</v>
       </c>
       <c r="F21" s="115" t="s">
         <v>110</v>
@@ -13628,11 +13621,11 @@
         <v>60</v>
       </c>
       <c r="Q21" s="115"/>
-      <c r="R21" s="178">
+      <c r="R21" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.843953499999998</v>
       </c>
-      <c r="S21" s="178">
+      <c r="S21" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.358142300000001</v>
       </c>
@@ -13648,10 +13641,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="156" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E22" s="115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F22" s="115" t="s">
         <v>110</v>
@@ -13685,11 +13678,11 @@
       </c>
       <c r="P22" s="117"/>
       <c r="Q22" s="115"/>
-      <c r="R22" s="178">
+      <c r="R22" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.843953499999998</v>
       </c>
-      <c r="S22" s="178">
+      <c r="S22" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.358142300000001</v>
       </c>
@@ -13705,10 +13698,10 @@
         <v>87</v>
       </c>
       <c r="D23" s="156" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="124" t="s">
         <v>390</v>
-      </c>
-      <c r="E23" s="124" t="s">
-        <v>391</v>
       </c>
       <c r="F23" s="124" t="s">
         <v>88</v>
@@ -13729,16 +13722,16 @@
         <v>92</v>
       </c>
       <c r="L23" s="139" t="s">
+        <v>418</v>
+      </c>
+      <c r="M23" s="141" t="s">
         <v>419</v>
       </c>
-      <c r="M23" s="141" t="s">
+      <c r="N23" s="139" t="s">
         <v>420</v>
       </c>
-      <c r="N23" s="139" t="s">
+      <c r="O23" s="140" t="s">
         <v>421</v>
-      </c>
-      <c r="O23" s="140" t="s">
-        <v>422</v>
       </c>
       <c r="P23" s="124" t="s">
         <v>95</v>
@@ -13746,11 +13739,11 @@
       <c r="Q23" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="R23" s="178">
+      <c r="R23" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.85633</v>
       </c>
-      <c r="S23" s="178">
+      <c r="S23" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.384492399999999</v>
       </c>
@@ -13766,7 +13759,7 @@
         <v>336</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E24" s="115"/>
       <c r="F24" s="115" t="s">
@@ -13791,21 +13784,21 @@
         <v>337</v>
       </c>
       <c r="M24" s="115" t="s">
+        <v>422</v>
+      </c>
+      <c r="N24" s="115" t="s">
         <v>423</v>
-      </c>
-      <c r="N24" s="115" t="s">
-        <v>424</v>
       </c>
       <c r="O24" s="115"/>
       <c r="P24" s="117"/>
       <c r="Q24" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="R24" s="178">
+      <c r="R24" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.833867749999897</v>
       </c>
-      <c r="S24" s="178">
+      <c r="S24" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.3318392646853</v>
       </c>
@@ -13821,10 +13814,10 @@
         <v>203</v>
       </c>
       <c r="D25" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="124" t="s">
         <v>390</v>
-      </c>
-      <c r="E25" s="124" t="s">
-        <v>391</v>
       </c>
       <c r="F25" s="124" t="s">
         <v>88</v>
@@ -13862,11 +13855,11 @@
       <c r="Q25" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="R25" s="178">
+      <c r="R25" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.85633</v>
       </c>
-      <c r="S25" s="178">
+      <c r="S25" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.384492399999999</v>
       </c>
@@ -13885,7 +13878,7 @@
         <v>60</v>
       </c>
       <c r="E26" s="115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F26" s="115" t="s">
         <v>110</v>
@@ -13915,11 +13908,11 @@
       <c r="O26" s="115"/>
       <c r="P26" s="117"/>
       <c r="Q26" s="115"/>
-      <c r="R26" s="178">
+      <c r="R26" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.856848849999999</v>
       </c>
-      <c r="S26" s="178">
+      <c r="S26" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.384989102369499</v>
       </c>
@@ -13970,11 +13963,11 @@
       <c r="Q27" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="R27" s="178">
+      <c r="R27" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.833867749999897</v>
       </c>
-      <c r="S27" s="178">
+      <c r="S27" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.3318392646853</v>
       </c>
@@ -13993,7 +13986,7 @@
         <v>60</v>
       </c>
       <c r="E28" s="115" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F28" s="115" t="s">
         <v>110</v>
@@ -14027,11 +14020,11 @@
       <c r="Q28" s="115" t="s">
         <v>328</v>
       </c>
-      <c r="R28" s="178">
+      <c r="R28" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.857201400000001</v>
       </c>
-      <c r="S28" s="178">
+      <c r="S28" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.413743400000001</v>
       </c>
@@ -14050,7 +14043,7 @@
         <v>60</v>
       </c>
       <c r="E29" s="115" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F29" s="115" t="s">
         <v>110</v>
@@ -14084,11 +14077,11 @@
       <c r="Q29" s="115" t="s">
         <v>328</v>
       </c>
-      <c r="R29" s="178">
+      <c r="R29" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>43.857201400000001</v>
       </c>
-      <c r="S29" s="178">
+      <c r="S29" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>18.413743400000001</v>
       </c>
@@ -14101,45 +14094,45 @@
         <v>38</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="124" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F30" s="124" t="s">
         <v>222</v>
       </c>
       <c r="G30" s="115" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H30" s="115"/>
       <c r="I30" s="116"/>
       <c r="J30" s="115" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K30" s="116"/>
       <c r="L30" s="115" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M30" s="124" t="s">
         <v>227</v>
       </c>
       <c r="N30" s="115" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O30" s="116" t="s">
         <v>229</v>
       </c>
       <c r="P30" s="117"/>
       <c r="Q30" s="115"/>
-      <c r="R30" s="178">
+      <c r="R30" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="178">
+      <c r="S30" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>0</v>
       </c>
@@ -14177,20 +14170,20 @@
         <v>352</v>
       </c>
       <c r="N31" s="115" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O31" s="115"/>
       <c r="P31" s="117" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q31" s="115" t="s">
         <v>354</v>
       </c>
-      <c r="R31" s="178">
+      <c r="R31" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="178">
+      <c r="S31" s="118">
         <f>IFERROR(VLOOKUP(Table2[[#This Row],[Adresa]],Sheet1!$A$1:$C$20,3,0),0)</f>
         <v>0</v>
       </c>
@@ -14201,7 +14194,7 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27 F13 F24" xr:uid="{B142B612-B83B-4802-8CE2-9604B24FEE64}">
@@ -14311,10 +14304,10 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -14348,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="133" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F1" s="133" t="s">
         <v>76</v>
@@ -14366,7 +14359,7 @@
         <v>80</v>
       </c>
       <c r="K1" s="133" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L1" s="133" t="s">
         <v>82</v>
@@ -14378,10 +14371,10 @@
         <v>84</v>
       </c>
       <c r="O1" t="s">
+        <v>518</v>
+      </c>
+      <c r="P1" t="s">
         <v>519</v>
-      </c>
-      <c r="P1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="57">
@@ -14398,7 +14391,7 @@
         <v>377</v>
       </c>
       <c r="E2" s="135" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F2" s="135" t="s">
         <v>169</v>
@@ -14440,7 +14433,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="135" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F3" s="135" t="s">
         <v>294</v>
@@ -14480,7 +14473,7 @@
     </row>
     <row r="4" spans="1:16" ht="159.6">
       <c r="A4" s="135" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B4" s="135" t="s">
         <v>159</v>
@@ -14489,18 +14482,18 @@
         <v>88</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G4" s="135"/>
       <c r="H4" s="86"/>
       <c r="I4" s="135"/>
       <c r="J4" s="86"/>
       <c r="K4" s="135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L4" s="135"/>
       <c r="M4" s="86"/>
@@ -14528,7 +14521,7 @@
         <v>377</v>
       </c>
       <c r="E5" s="135" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F5" s="135" t="s">
         <v>173</v>
@@ -14580,7 +14573,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="135" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F6" s="135" t="s">
         <v>173</v>
@@ -14630,7 +14623,7 @@
         <v>377</v>
       </c>
       <c r="E7" s="135" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F7" s="135" t="s">
         <v>173</v>
@@ -14676,7 +14669,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="135" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D8" s="135"/>
       <c r="E8" s="135"/>
@@ -14717,10 +14710,10 @@
         <v>271</v>
       </c>
       <c r="D9" s="135" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" s="135" t="s">
         <v>445</v>
-      </c>
-      <c r="E9" s="135" t="s">
-        <v>446</v>
       </c>
       <c r="F9" s="135" t="s">
         <v>272</v>
@@ -14760,7 +14753,7 @@
         <v>377</v>
       </c>
       <c r="E10" s="135" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F10" s="135" t="s">
         <v>184</v>
@@ -14790,7 +14783,7 @@
         <v>185</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D11" s="135" t="s">
         <v>377</v>
@@ -14844,7 +14837,7 @@
       <c r="I12" s="135"/>
       <c r="J12" s="86"/>
       <c r="K12" s="135" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L12" s="135"/>
       <c r="M12" s="135" t="s">
@@ -14862,10 +14855,10 @@
     </row>
     <row r="13" spans="1:16" ht="248.4">
       <c r="A13" s="119" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="119" t="s">
         <v>448</v>
-      </c>
-      <c r="B13" s="119" t="s">
-        <v>449</v>
       </c>
       <c r="C13" s="135" t="s">
         <v>88</v>
@@ -14878,7 +14871,7 @@
         <v>97</v>
       </c>
       <c r="G13" s="115" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H13" s="125" t="s">
         <v>91</v>
@@ -14891,7 +14884,7 @@
       </c>
       <c r="K13" s="135"/>
       <c r="L13" s="119" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M13" s="86"/>
       <c r="N13" s="86"/>
@@ -14975,7 +14968,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="135" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F16" s="135" t="s">
         <v>294</v>
@@ -15024,10 +15017,10 @@
         <v>88</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E17" s="135" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F17" s="135" t="s">
         <v>233</v>
@@ -15073,7 +15066,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="135" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F18" s="135" t="s">
         <v>231</v>
@@ -15099,10 +15092,10 @@
         <v>110</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E19" s="135" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F19" s="135" t="s">
         <v>164</v>
@@ -15160,7 +15153,7 @@
     <sortCondition ref="A17:A19"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1" xr:uid="{AD625D9F-010B-4FD0-91E9-6E5C5A331511}"/>
@@ -15205,7 +15198,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3BD921-B36B-41AC-9499-738ACB1F9E96}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -15213,7 +15206,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48" style="177" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -15221,14 +15214,14 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" t="s">
         <v>519</v>
       </c>
-      <c r="C1" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="158" t="s">
         <v>170</v>
       </c>
       <c r="B2">
@@ -15239,7 +15232,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="158" t="s">
         <v>295</v>
       </c>
       <c r="B3">
@@ -15250,7 +15243,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="158" t="s">
         <v>174</v>
       </c>
       <c r="B4">
@@ -15261,7 +15254,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="158" t="s">
         <v>277</v>
       </c>
       <c r="B5">
@@ -15272,7 +15265,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="158" t="s">
         <v>188</v>
       </c>
       <c r="B6">
@@ -15283,8 +15276,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="176" t="s">
-        <v>450</v>
+      <c r="A7" s="159" t="s">
+        <v>449</v>
       </c>
       <c r="B7">
         <v>43.85633</v>
@@ -15294,7 +15287,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="158" t="s">
         <v>304</v>
       </c>
       <c r="B8">
@@ -15305,7 +15298,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="158" t="s">
         <v>234</v>
       </c>
       <c r="B9">
@@ -15316,7 +15309,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="177" t="s">
+      <c r="A10" t="s">
         <v>313</v>
       </c>
       <c r="B10">
@@ -15327,7 +15320,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="177" t="s">
+      <c r="A11" t="s">
         <v>102</v>
       </c>
       <c r="B11">
@@ -15338,7 +15331,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="177" t="s">
+      <c r="A12" t="s">
         <v>257</v>
       </c>
       <c r="B12">
@@ -15349,7 +15342,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="177" t="s">
+      <c r="A13" t="s">
         <v>126</v>
       </c>
       <c r="B13">
@@ -15360,7 +15353,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="177" t="s">
+      <c r="A14" t="s">
         <v>265</v>
       </c>
       <c r="B14">
@@ -15371,7 +15364,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="177" t="s">
+      <c r="A15" t="s">
         <v>285</v>
       </c>
       <c r="B15">
@@ -15382,7 +15375,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="177" t="s">
+      <c r="A16" t="s">
         <v>90</v>
       </c>
       <c r="B16">
@@ -15393,7 +15386,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="177" t="s">
+      <c r="A17" t="s">
         <v>213</v>
       </c>
       <c r="B17">
@@ -15404,7 +15397,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="177" t="s">
+      <c r="A18" t="s">
         <v>112</v>
       </c>
       <c r="B18">
@@ -15415,7 +15408,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="177" t="s">
+      <c r="A19" t="s">
         <v>243</v>
       </c>
       <c r="B19">
@@ -15426,7 +15419,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="177" t="s">
+      <c r="A20" t="s">
         <v>119</v>
       </c>
       <c r="B20">
@@ -15435,60 +15428,6 @@
       <c r="C20">
         <v>18.384989102369499</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15518,27 +15457,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" t="s">
         <v>455</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>456</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>457</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>458</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>459</v>
-      </c>
-      <c r="F1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -15558,7 +15497,7 @@
     </row>
     <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -15573,21 +15512,21 @@
         <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
         <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E4" t="s">
         <v>110</v>
@@ -15598,7 +15537,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -15610,7 +15549,7 @@
         <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F5" t="s">
         <v>187</v>
@@ -15618,7 +15557,7 @@
     </row>
     <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -15638,7 +15577,7 @@
     </row>
     <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -15653,12 +15592,12 @@
         <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B8" s="88" t="s">
         <v>28</v>
@@ -15667,7 +15606,7 @@
         <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E8" t="s">
         <v>110</v>
@@ -15678,16 +15617,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
         <v>110</v>
@@ -15698,7 +15637,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -15707,7 +15646,7 @@
         <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E10" t="s">
         <v>110</v>
@@ -15718,7 +15657,7 @@
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -15727,7 +15666,7 @@
         <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
@@ -15738,7 +15677,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -15747,7 +15686,7 @@
         <v>149</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E12" t="s">
         <v>110</v>
@@ -15758,7 +15697,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -15767,7 +15706,7 @@
         <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E13" t="s">
         <v>110</v>
@@ -15778,7 +15717,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -15787,7 +15726,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E14" t="s">
         <v>110</v>
@@ -15798,7 +15737,7 @@
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -15818,7 +15757,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>12</v>
@@ -15838,7 +15777,7 @@
     </row>
     <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -15858,7 +15797,7 @@
     </row>
     <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
@@ -15873,12 +15812,12 @@
         <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -15898,7 +15837,7 @@
     </row>
     <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
@@ -15918,27 +15857,27 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B21" s="87" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C21" t="s">
         <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -15958,7 +15897,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -15978,30 +15917,30 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E24" t="s">
         <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C25" t="s">
         <v>172</v>
@@ -16013,12 +15952,12 @@
         <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -16027,18 +15966,18 @@
         <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E26" t="s">
         <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -16055,7 +15994,7 @@
     </row>
     <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -16075,7 +16014,7 @@
     </row>
     <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -16090,12 +16029,12 @@
         <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -16110,12 +16049,12 @@
         <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -16124,18 +16063,18 @@
         <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E31" t="s">
         <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
@@ -16150,12 +16089,12 @@
         <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -16170,12 +16109,12 @@
         <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -16195,7 +16134,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -16204,7 +16143,7 @@
         <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E35" t="s">
         <v>222</v>
@@ -16215,7 +16154,7 @@
     </row>
     <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -16224,15 +16163,15 @@
         <v>275</v>
       </c>
       <c r="E36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
@@ -16247,15 +16186,15 @@
         <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C38" t="s">
         <v>190</v>
@@ -16267,21 +16206,21 @@
         <v>191</v>
       </c>
       <c r="F38" s="87" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C39" t="s">
         <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E39" t="s">
         <v>100</v>
@@ -16292,16 +16231,16 @@
     </row>
     <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C40" t="s">
         <v>270</v>
       </c>
       <c r="D40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E40" t="s">
         <v>271</v>
@@ -16312,7 +16251,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -16321,7 +16260,7 @@
         <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E41" t="s">
         <v>88</v>
@@ -16332,7 +16271,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B42" s="88" t="s">
         <v>27</v>
@@ -16341,7 +16280,7 @@
         <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E42" t="s">
         <v>88</v>
@@ -16352,7 +16291,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -16361,7 +16300,7 @@
         <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E43" t="s">
         <v>88</v>
@@ -16372,7 +16311,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -16381,7 +16320,7 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E44" t="s">
         <v>88</v>
@@ -16392,7 +16331,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -16401,7 +16340,7 @@
         <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E45" t="s">
         <v>88</v>
@@ -16412,10 +16351,10 @@
     </row>
     <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B46" s="87" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C46" t="s">
         <v>302</v>
@@ -16429,7 +16368,7 @@
     </row>
     <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -16449,7 +16388,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -16458,7 +16397,7 @@
         <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E48" t="s">
         <v>88</v>
@@ -16469,7 +16408,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -16478,7 +16417,7 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E49" t="s">
         <v>88</v>
@@ -16489,7 +16428,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -16506,7 +16445,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -16523,7 +16462,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -16532,7 +16471,7 @@
         <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E52" t="s">
         <v>88</v>
@@ -16543,13 +16482,13 @@
     </row>
     <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B53" s="87" t="s">
+        <v>479</v>
+      </c>
+      <c r="C53" s="87" t="s">
         <v>480</v>
-      </c>
-      <c r="C53" s="87" t="s">
-        <v>481</v>
       </c>
       <c r="D53" t="s">
         <v>51</v>
@@ -16560,7 +16499,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
@@ -16572,15 +16511,15 @@
         <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C55" t="s">
         <v>165</v>
@@ -16594,7 +16533,7 @@
     </row>
     <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -16611,7 +16550,7 @@
     </row>
     <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -16631,7 +16570,7 @@
     </row>
     <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -16648,7 +16587,7 @@
     </row>
     <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s">
         <v>49</v>
@@ -16663,12 +16602,12 @@
         <v>373</v>
       </c>
       <c r="F59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -16685,7 +16624,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
@@ -16702,7 +16641,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -16734,10 +16673,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A76:A89">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E13 E15 E17:E18 E25" xr:uid="{C1C4E9A7-6004-4A23-9DB4-D2602854CE25}">
@@ -16783,24 +16722,24 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" t="s">
         <v>455</v>
       </c>
-      <c r="B1" t="s">
-        <v>456</v>
-      </c>
       <c r="D1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" t="s">
         <v>459</v>
       </c>
-      <c r="E1" t="s">
-        <v>460</v>
-      </c>
       <c r="F1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="101" customFormat="1">
       <c r="A2" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2" s="101" t="s">
         <v>68</v>
@@ -16817,7 +16756,7 @@
     </row>
     <row r="3" spans="1:6" s="90" customFormat="1" hidden="1">
       <c r="A3" s="89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>38</v>
@@ -16826,7 +16765,7 @@
         <v>222</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F3" s="90" t="s">
         <v>51</v>
@@ -16834,10 +16773,10 @@
     </row>
     <row r="4" spans="1:6" s="101" customFormat="1">
       <c r="A4" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>110</v>
@@ -16846,7 +16785,7 @@
         <v>256</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="90" customFormat="1" hidden="1">
@@ -16860,15 +16799,15 @@
         <v>222</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="101" customFormat="1">
       <c r="A6" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B6" s="101" t="s">
         <v>69</v>
@@ -16885,7 +16824,7 @@
     </row>
     <row r="7" spans="1:6" s="101" customFormat="1">
       <c r="A7" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B7" s="101" t="s">
         <v>62</v>
@@ -16894,7 +16833,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F7" s="101" t="s">
         <v>60</v>
@@ -16905,13 +16844,13 @@
         <v>98</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D8" s="98" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F8" s="98" t="s">
         <v>377</v>
@@ -16928,7 +16867,7 @@
         <v>271</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F9" s="94" t="s">
         <v>377</v>
@@ -16936,24 +16875,24 @@
     </row>
     <row r="10" spans="1:6" s="101" customFormat="1">
       <c r="A10" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D10" s="101" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="106" customFormat="1">
       <c r="A11" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B11" s="106" t="s">
         <v>42</v>
@@ -16965,15 +16904,15 @@
         <v>264</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A12" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D12" s="101" t="s">
         <v>110</v>
@@ -16982,12 +16921,12 @@
         <v>111</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="101" customFormat="1">
       <c r="A13" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B13" s="101" t="s">
         <v>17</v>
@@ -16999,12 +16938,12 @@
         <v>111</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="101" customFormat="1">
       <c r="A14" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B14" s="101" t="s">
         <v>20</v>
@@ -17016,12 +16955,12 @@
         <v>111</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A15" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>53</v>
@@ -17038,7 +16977,7 @@
     </row>
     <row r="16" spans="1:6" s="101" customFormat="1">
       <c r="A16" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B16" s="101" t="s">
         <v>21</v>
@@ -17050,12 +16989,12 @@
         <v>111</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="101" customFormat="1">
       <c r="A17" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B17" s="101" t="s">
         <v>63</v>
@@ -17072,7 +17011,7 @@
     </row>
     <row r="18" spans="1:6" s="101" customFormat="1">
       <c r="A18" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B18" s="101" t="s">
         <v>63</v>
@@ -17081,7 +17020,7 @@
         <v>110</v>
       </c>
       <c r="E18" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F18" s="101" t="s">
         <v>60</v>
@@ -17089,7 +17028,7 @@
     </row>
     <row r="19" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A19" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B19" s="101" t="s">
         <v>46</v>
@@ -17106,7 +17045,7 @@
     </row>
     <row r="20" spans="1:6" s="90" customFormat="1" hidden="1">
       <c r="A20" s="89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B20" s="90" t="s">
         <v>47</v>
@@ -17123,7 +17062,7 @@
     </row>
     <row r="21" spans="1:6" s="101" customFormat="1">
       <c r="A21" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B21" s="101" t="s">
         <v>25</v>
@@ -17135,12 +17074,12 @@
         <v>111</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="101" customFormat="1">
       <c r="A22" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B22" s="101" t="s">
         <v>64</v>
@@ -17157,7 +17096,7 @@
     </row>
     <row r="23" spans="1:6" s="101" customFormat="1" hidden="1">
       <c r="A23" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B23" s="101" t="s">
         <v>28</v>
@@ -17169,7 +17108,7 @@
         <v>118</v>
       </c>
       <c r="F23" s="101" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="101" customFormat="1">
@@ -17177,13 +17116,13 @@
         <v>98</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D24" s="101" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F24" s="101" t="s">
         <v>377</v>
@@ -17217,10 +17156,10 @@
         <v>110</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F26" s="101" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="101" customFormat="1">
@@ -17239,7 +17178,7 @@
     </row>
     <row r="28" spans="1:6" s="101" customFormat="1">
       <c r="A28" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B28" s="101" t="s">
         <v>65</v>
@@ -17256,7 +17195,7 @@
     </row>
     <row r="29" spans="1:6" s="101" customFormat="1">
       <c r="A29" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B29" s="101" t="s">
         <v>66</v>
@@ -17265,7 +17204,7 @@
         <v>110</v>
       </c>
       <c r="E29" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>60</v>
@@ -17273,7 +17212,7 @@
     </row>
     <row r="30" spans="1:6" s="101" customFormat="1">
       <c r="A30" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B30" s="101" t="s">
         <v>67</v>
@@ -17282,7 +17221,7 @@
         <v>110</v>
       </c>
       <c r="E30" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F30" s="101" t="s">
         <v>60</v>
@@ -17293,7 +17232,7 @@
         <v>167</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D31" s="101" t="s">
         <v>110</v>
@@ -17304,7 +17243,7 @@
     </row>
     <row r="32" spans="1:6" s="106" customFormat="1">
       <c r="A32" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B32" s="106" t="s">
         <v>70</v>
@@ -17313,7 +17252,7 @@
         <v>88</v>
       </c>
       <c r="E32" s="106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F32" s="106" t="s">
         <v>60</v>
@@ -17344,7 +17283,7 @@
         <v>222</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F34" s="90" t="s">
         <v>51</v>
@@ -17372,10 +17311,10 @@
         <v>43</v>
       </c>
       <c r="D36" s="94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="101" customFormat="1">
@@ -17389,7 +17328,7 @@
         <v>110</v>
       </c>
       <c r="E37" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>60</v>
@@ -17403,7 +17342,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E38" s="94" t="s">
         <v>187</v>
@@ -17414,10 +17353,10 @@
     </row>
     <row r="39" spans="1:6" s="101" customFormat="1">
       <c r="A39" s="100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B39" s="102" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D39" s="101" t="s">
         <v>110</v>
@@ -17426,7 +17365,7 @@
         <v>101</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="94" customFormat="1" hidden="1">
@@ -17434,7 +17373,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="95" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D40" s="94" t="s">
         <v>271</v>
@@ -17443,12 +17382,12 @@
         <v>272</v>
       </c>
       <c r="F40" s="94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="106" customFormat="1">
       <c r="A41" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B41" s="106" t="s">
         <v>8</v>
@@ -17460,12 +17399,12 @@
         <v>135</v>
       </c>
       <c r="F41" s="106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="106" customFormat="1">
       <c r="A42" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B42" s="106" t="s">
         <v>9</v>
@@ -17477,12 +17416,12 @@
         <v>89</v>
       </c>
       <c r="F42" s="106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="106" customFormat="1">
       <c r="A43" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B43" s="106" t="s">
         <v>10</v>
@@ -17494,12 +17433,12 @@
         <v>89</v>
       </c>
       <c r="F43" s="106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="106" customFormat="1" hidden="1">
       <c r="A44" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B44" s="106" t="s">
         <v>34</v>
@@ -17511,12 +17450,12 @@
         <v>89</v>
       </c>
       <c r="F44" s="106" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="106" customFormat="1" hidden="1">
       <c r="A45" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B45" s="157" t="s">
         <v>35</v>
@@ -17525,10 +17464,10 @@
         <v>88</v>
       </c>
       <c r="E45" s="106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F45" s="106" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="90" customFormat="1" hidden="1">
@@ -17536,13 +17475,13 @@
         <v>98</v>
       </c>
       <c r="B46" s="92" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D46" s="90" t="s">
         <v>222</v>
       </c>
       <c r="E46" s="92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F46" s="90" t="s">
         <v>51</v>
@@ -17559,7 +17498,7 @@
         <v>222</v>
       </c>
       <c r="E47" s="92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F47" s="90" t="s">
         <v>51</v>
@@ -17567,7 +17506,7 @@
     </row>
     <row r="48" spans="1:6" s="106" customFormat="1">
       <c r="A48" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B48" s="106" t="s">
         <v>26</v>
@@ -17579,12 +17518,12 @@
         <v>89</v>
       </c>
       <c r="F48" s="106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="106" customFormat="1">
       <c r="A49" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B49" s="106" t="s">
         <v>27</v>
@@ -17596,7 +17535,7 @@
         <v>204</v>
       </c>
       <c r="F49" s="106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="106" customFormat="1">
@@ -17621,16 +17560,16 @@
         <v>98</v>
       </c>
       <c r="B51" s="108" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D51" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="106" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F51" s="106" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="106" customFormat="1">
@@ -17644,7 +17583,7 @@
         <v>88</v>
       </c>
       <c r="E52" s="106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F52" s="106" t="s">
         <v>377</v>
@@ -17655,7 +17594,7 @@
         <v>167</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D53" s="101" t="s">
         <v>110</v>
@@ -17754,7 +17693,7 @@
         <v>199</v>
       </c>
       <c r="E59" s="98" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F59" s="98" t="s">
         <v>40</v>
@@ -17774,7 +17713,7 @@
         <v>233</v>
       </c>
       <c r="F60" s="106" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="106" customFormat="1" hidden="1">
@@ -17791,7 +17730,7 @@
         <v>97</v>
       </c>
       <c r="F61" s="106" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="106" customFormat="1">
@@ -17821,10 +17760,10 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A76:A89">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28 D13 D15 D17:D18 D25" xr:uid="{B9FF6229-F6FB-4F96-8339-6D0E1C29EB5B}">
@@ -17961,7 +17900,7 @@
         <v>316</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>318</v>
@@ -17969,7 +17908,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q2" s="41"/>
     </row>
@@ -17984,13 +17923,13 @@
         <v>99</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>102</v>
@@ -18008,7 +17947,7 @@
         <v>106</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>108</v>
@@ -18016,7 +17955,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q3" s="41"/>
     </row>
@@ -18031,7 +17970,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>110</v>
@@ -18056,7 +17995,7 @@
         <v>260</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>262</v>
@@ -18065,7 +18004,7 @@
         <v>258</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q4" s="41"/>
     </row>
@@ -18080,7 +18019,7 @@
         <v>124</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>110</v>
@@ -18107,7 +18046,7 @@
         <v>130</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>132</v>
@@ -18116,7 +18055,7 @@
         <v>133</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="41"/>
     </row>
@@ -18155,7 +18094,7 @@
         <v>321</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q6" s="41"/>
     </row>
@@ -18170,7 +18109,7 @@
         <v>322</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>110</v>
@@ -18204,7 +18143,7 @@
         <v>328</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q7" s="41"/>
     </row>
@@ -18219,7 +18158,7 @@
         <v>134</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>88</v>
@@ -18255,7 +18194,7 @@
         <v>95</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q8" s="41"/>
     </row>
@@ -18270,7 +18209,7 @@
         <v>138</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>88</v>
@@ -18306,7 +18245,7 @@
         <v>95</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q9" s="41"/>
     </row>
@@ -18321,7 +18260,7 @@
         <v>141</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>88</v>
@@ -18357,7 +18296,7 @@
         <v>95</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q10" s="41"/>
     </row>
@@ -18372,7 +18311,7 @@
         <v>263</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>88</v>
@@ -18404,7 +18343,7 @@
       </c>
       <c r="O11" s="20"/>
       <c r="P11" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="41"/>
     </row>
@@ -18419,7 +18358,7 @@
         <v>208</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>88</v>
@@ -18455,7 +18394,7 @@
         <v>95</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q12" s="47"/>
     </row>
@@ -18470,7 +18409,7 @@
         <v>211</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>88</v>
@@ -18506,7 +18445,7 @@
         <v>220</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="47"/>
     </row>
@@ -18521,7 +18460,7 @@
         <v>109</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>110</v>
@@ -18553,7 +18492,7 @@
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="41"/>
     </row>
@@ -18600,7 +18539,7 @@
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q15" s="41"/>
     </row>
@@ -18615,7 +18554,7 @@
         <v>144</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>110</v>
@@ -18649,7 +18588,7 @@
       </c>
       <c r="O16" s="20"/>
       <c r="P16" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="47"/>
     </row>
@@ -18698,7 +18637,7 @@
       </c>
       <c r="O17" s="20"/>
       <c r="P17" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="41"/>
     </row>
@@ -18749,7 +18688,7 @@
         <v>328</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q18" s="51"/>
     </row>
@@ -18798,7 +18737,7 @@
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="41"/>
     </row>
@@ -18847,7 +18786,7 @@
         <v>250</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="41"/>
     </row>
@@ -18862,7 +18801,7 @@
         <v>149</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>110</v>
@@ -18896,7 +18835,7 @@
       </c>
       <c r="O21" s="20"/>
       <c r="P21" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q21" s="41"/>
     </row>
@@ -18911,7 +18850,7 @@
         <v>152</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>110</v>
@@ -18945,7 +18884,7 @@
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="41"/>
     </row>
@@ -18960,7 +18899,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>110</v>
@@ -18994,7 +18933,7 @@
       </c>
       <c r="O23" s="20"/>
       <c r="P23" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q23" s="47"/>
     </row>
@@ -19012,7 +18951,7 @@
         <v>95</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>89</v>
@@ -19045,7 +18984,7 @@
         <v>95</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q24" s="54"/>
     </row>
@@ -19081,20 +19020,20 @@
         <v>315</v>
       </c>
       <c r="K25" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>494</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>495</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19" t="s">
         <v>340</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q25" s="56"/>
     </row>
@@ -19112,7 +19051,7 @@
         <v>88</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>204</v>
@@ -19145,7 +19084,7 @@
         <v>95</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q26" s="47"/>
     </row>
@@ -19160,13 +19099,13 @@
         <v>117</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>119</v>
@@ -19185,12 +19124,12 @@
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q27" s="47"/>
     </row>
@@ -19226,10 +19165,10 @@
         <v>315</v>
       </c>
       <c r="K28" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="L28" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>500</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>344</v>
@@ -19239,7 +19178,7 @@
         <v>345</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q28" s="47"/>
     </row>
@@ -19288,7 +19227,7 @@
         <v>328</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q29" s="47"/>
     </row>
@@ -19337,7 +19276,7 @@
         <v>328</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q30" s="47"/>
     </row>
@@ -19352,7 +19291,7 @@
         <v>221</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>222</v>
@@ -19379,14 +19318,14 @@
         <v>227</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N31" s="44" t="s">
         <v>229</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q31" s="47"/>
     </row>
@@ -19435,7 +19374,7 @@
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q32" s="47"/>
     </row>
@@ -19484,7 +19423,7 @@
       </c>
       <c r="O33" s="21"/>
       <c r="P33" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q33" s="47"/>
     </row>
@@ -19505,27 +19444,27 @@
         <v>88</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="L34" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="M34" s="20" t="s">
         <v>503</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>504</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="20" t="s">
         <v>354</v>
       </c>
       <c r="P34" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q34" s="47"/>
     </row>
@@ -19564,7 +19503,7 @@
       <c r="N35" s="44"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q35" s="47"/>
     </row>
@@ -19613,7 +19552,7 @@
       </c>
       <c r="O36" s="60"/>
       <c r="P36" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="47"/>
     </row>
@@ -19628,7 +19567,7 @@
         <v>159</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>88</v>
@@ -19646,7 +19585,7 @@
       <c r="N37" s="44"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q37" s="47"/>
     </row>
@@ -19664,7 +19603,7 @@
         <v>377</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>173</v>
@@ -19695,7 +19634,7 @@
       </c>
       <c r="O38" s="60"/>
       <c r="P38" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q38" s="47"/>
     </row>
@@ -19713,7 +19652,7 @@
         <v>60</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>173</v>
@@ -19742,7 +19681,7 @@
       </c>
       <c r="O39" s="60"/>
       <c r="P39" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q39" s="47"/>
     </row>
@@ -19791,7 +19730,7 @@
       </c>
       <c r="O40" s="60"/>
       <c r="P40" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q40" s="47"/>
     </row>
@@ -19826,7 +19765,7 @@
       <c r="N41" s="44"/>
       <c r="O41" s="60"/>
       <c r="P41" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q41" s="47"/>
     </row>
@@ -19841,10 +19780,10 @@
         <v>270</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>272</v>
@@ -19863,7 +19802,7 @@
       <c r="N42" s="44"/>
       <c r="O42" s="60"/>
       <c r="P42" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q42" s="47"/>
     </row>
@@ -19896,7 +19835,7 @@
       <c r="N43" s="44"/>
       <c r="O43" s="60"/>
       <c r="P43" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q43" s="47"/>
     </row>
@@ -19933,7 +19872,7 @@
       <c r="N44" s="44"/>
       <c r="O44" s="60"/>
       <c r="P44" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q44" s="47"/>
     </row>
@@ -19970,7 +19909,7 @@
       <c r="N45" s="44"/>
       <c r="O45" s="60"/>
       <c r="P45" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q45" s="47"/>
     </row>
@@ -19999,7 +19938,7 @@
       <c r="N46" s="44"/>
       <c r="O46" s="60"/>
       <c r="P46" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q46" s="47"/>
     </row>
@@ -20026,7 +19965,7 @@
       <c r="N47" s="44"/>
       <c r="O47" s="60"/>
       <c r="P47" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q47" s="47"/>
     </row>
@@ -20057,7 +19996,7 @@
       <c r="N48" s="60"/>
       <c r="O48" s="60"/>
       <c r="P48" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q48" s="47"/>
     </row>
@@ -20106,7 +20045,7 @@
       </c>
       <c r="O49" s="60"/>
       <c r="P49" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q49" s="47"/>
     </row>
@@ -20135,7 +20074,7 @@
       <c r="N50" s="44"/>
       <c r="O50" s="60"/>
       <c r="P50" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q50" s="47"/>
     </row>
@@ -20150,7 +20089,7 @@
         <v>232</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>88</v>
@@ -20178,7 +20117,7 @@
       </c>
       <c r="O51" s="60"/>
       <c r="P51" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q51" s="47"/>
     </row>
@@ -20193,7 +20132,7 @@
         <v>230</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>222</v>
@@ -20211,7 +20150,7 @@
       <c r="N52" s="60"/>
       <c r="O52" s="60"/>
       <c r="P52" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q52" s="47"/>
     </row>
@@ -20226,7 +20165,7 @@
         <v>161</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>88</v>
@@ -20246,7 +20185,7 @@
       <c r="N53" s="44"/>
       <c r="O53" s="60"/>
       <c r="P53" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q53" s="47"/>
     </row>
@@ -20261,7 +20200,7 @@
         <v>163</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>110</v>
@@ -20279,7 +20218,7 @@
       <c r="N54" s="44"/>
       <c r="O54" s="60"/>
       <c r="P54" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="74.099999999999994" customHeight="1">
@@ -20309,7 +20248,7 @@
       <c r="N55" s="60"/>
       <c r="O55" s="60"/>
       <c r="P55" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="102.6" customHeight="1">
@@ -20341,7 +20280,7 @@
       <c r="N56" s="60"/>
       <c r="O56" s="60"/>
       <c r="P56" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="66.900000000000006" customHeight="1">
@@ -20371,7 +20310,7 @@
       <c r="N57" s="60"/>
       <c r="O57" s="60"/>
       <c r="P57" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="69.599999999999994" customHeight="1">
@@ -20401,7 +20340,7 @@
       <c r="N58" s="60"/>
       <c r="O58" s="60"/>
       <c r="P58" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="93" customHeight="1">
@@ -20431,7 +20370,7 @@
       <c r="N59" s="60"/>
       <c r="O59" s="60"/>
       <c r="P59" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="83.1" customHeight="1">
@@ -20461,7 +20400,7 @@
       <c r="N60" s="60"/>
       <c r="O60" s="60"/>
       <c r="P60" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="66.900000000000006" customHeight="1">
@@ -20491,7 +20430,7 @@
       <c r="N61" s="60"/>
       <c r="O61" s="60"/>
       <c r="P61" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="77.099999999999994" customHeight="1">
@@ -20521,7 +20460,7 @@
       <c r="N62" s="60"/>
       <c r="O62" s="60"/>
       <c r="P62" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="99.6" customHeight="1">
@@ -20551,7 +20490,7 @@
       <c r="N63" s="60"/>
       <c r="O63" s="60"/>
       <c r="P63" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="72" customHeight="1">
@@ -20577,7 +20516,7 @@
       <c r="N64" s="60"/>
       <c r="O64" s="60"/>
       <c r="P64" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -20721,13 +20660,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -20736,7 +20675,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>51</v>
@@ -20750,10 +20689,10 @@
     </row>
     <row r="2" spans="1:9" ht="91.2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -20779,10 +20718,10 @@
     </row>
     <row r="3" spans="1:9" ht="57">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
         <v>222</v>
@@ -20808,10 +20747,10 @@
     </row>
     <row r="4" spans="1:9" ht="114">
       <c r="A4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" t="s">
         <v>516</v>
-      </c>
-      <c r="B4" t="s">
-        <v>517</v>
       </c>
       <c r="C4" t="s">
         <v>186</v>
@@ -20883,7 +20822,7 @@
     </row>
     <row r="7" spans="1:9" ht="91.2">
       <c r="C7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -20943,7 +20882,7 @@
     </row>
     <row r="10" spans="1:9" ht="79.8">
       <c r="C10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -30351,118 +30290,118 @@
   <sheetData>
     <row r="1" spans="2:21" ht="32.4" customHeight="1"/>
     <row r="2" spans="2:21">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="161" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="162" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
     </row>
     <row r="8" spans="2:21" ht="18.899999999999999" customHeight="1">
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
     </row>
     <row r="28" spans="13:19" ht="18">
       <c r="M28" s="148" t="s">
@@ -30579,12 +30518,12 @@
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,2,0)</f>
         <v>Roditelji staratelji imaju isti status osiguranja kao i zaposleni pojedinci.</v>
       </c>
-      <c r="F16" s="161" t="str">
+      <c r="F16" s="164" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>Zakon o roditeljima njegovateljima u Federaciji Bosne i Hercegovine</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
     </row>
     <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
@@ -30711,12 +30650,12 @@
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,2,0)</f>
         <v>Roditelji staratelji imaju isti status osiguranja kao i zaposleni pojedinci.</v>
       </c>
-      <c r="F16" s="161" t="str">
+      <c r="F16" s="164" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>Zakon o roditeljima njegovateljima u Federaciji Bosne i Hercegovine</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
     </row>
     <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
@@ -30846,12 +30785,12 @@
 Roditelju lica s invaliditetom može se priznati status roditelja njegovatelja ukoliko je nazaposlen i prijavljen na evidenciji nadležne službe za zapošljavanje.
 Status roditelja njegovatelja priznaje se jednom od roditelja lica s invaliditetom sa 100% oštećenjem organizma i pravom na dodatak za njegu i pomoć od drugog lica.</v>
       </c>
-      <c r="F16" s="161" t="str">
+      <c r="F16" s="164" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>Zakon o roditeljima njegovateljima u Federaciji Bosne i Hercegovine</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
     </row>
     <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
@@ -30984,12 +30923,12 @@
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,2,0)</f>
         <v>Osobe sa invaliditetom imaju pravo na zapošljavanje i rad na tržištu rada pod opštim i posebnim uslovima. Pod opštim uslovima, OSI se mogu zaposliti u različitim subjektima javnog i privatnog sektora. U javnom sektoru osobe sa invaliditetom imaju povlaštena prava pri zapošljavanju ako ispunjavaju i opšte i posebne uslove za posao</v>
       </c>
-      <c r="F16" s="161" t="str">
+      <c r="F16" s="164" t="str">
         <f>VLOOKUP(C16,'Neinstitucionalizirana prava'!A6:F11,4,0)</f>
         <v>Zakon o profesionalnoj rehabilitaciji, osposobljavanju i zapošljavanju osoba s invaliditetom Federacije BiH</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
     </row>
     <row r="17" ht="14.4" thickTop="1"/>
   </sheetData>
